--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,48 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="22020" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="6480" yWindow="21740" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="resources" sheetId="2" r:id="rId1"/>
-    <sheet name="materials" sheetId="15" r:id="rId2"/>
-    <sheet name="soldierMaterials" sheetId="19" r:id="rId3"/>
-    <sheet name="dragonMaterials" sheetId="20" r:id="rId4"/>
-    <sheet name="houses" sheetId="18" r:id="rId5"/>
-    <sheet name="playerLevel" sheetId="21" r:id="rId6"/>
-    <sheet name="vipLevel" sheetId="22" r:id="rId7"/>
+    <sheet name="intInit" sheetId="24" r:id="rId1"/>
+    <sheet name="floatInit" sheetId="25" r:id="rId2"/>
+    <sheet name="stringInit" sheetId="26" r:id="rId3"/>
+    <sheet name="resources" sheetId="2" r:id="rId4"/>
+    <sheet name="materials" sheetId="15" r:id="rId5"/>
+    <sheet name="soldierMaterials" sheetId="19" r:id="rId6"/>
+    <sheet name="dragonMaterials" sheetId="20" r:id="rId7"/>
+    <sheet name="houses" sheetId="18" r:id="rId8"/>
+    <sheet name="playerLevel" sheetId="21" r:id="rId9"/>
+    <sheet name="vipLevel" sheetId="22" r:id="rId10"/>
+    <sheet name="collectLevel" sheetId="23" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -120,227 +133,378 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_dwelling</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_woodcutter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_farmer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_quarrier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_miner</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_deathHand</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_heroBones</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_soulStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_magicBox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_confessionHood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_brightRing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_holyBook</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_brightAlloy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_expFrom</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_expTo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_collectPercentPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestsRefreshHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestAddStarNeedGemCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_cart</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_dwelling</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_woodcutter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_farmer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_quarrier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_miner</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_deathHand</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_heroBones</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_soulStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_confessionHood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_brightRing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_holyBook</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ironIngot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_steelIngot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_mithrilIngot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blackIronIngot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_arcaniteIngot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wispOfFire</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wispOfCold</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wispOfWind</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_lavaSoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_iceSoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_forestSoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_infernoSoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blizzardSoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_fairySoul</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_moltenShard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_glacierShard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_chargedShard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_moltenShiver</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_glacierShiver</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_chargedShiver</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_moltenCore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_glacierCore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_chargedCore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_moltenMagnet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_glacierMagnet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_chargedMagnet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_challengeRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_suppressRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_rageRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_guardRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poisonRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_giantRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dolanRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_warsongRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_infernoRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_arcanaRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_eternityRune</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_energy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_expFrom</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_expTo</t>
+    <t>resourcesPerCart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialsPerCart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionTechnologyMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>militaryTechnologyMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redSoul_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redSoul_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redSoul_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueSoul_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueSoul_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueSoul_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenSoul_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenSoul_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenSoul_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redCrystal_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redCrystal_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redCrystal_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_redCrystal_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueCrystal_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueCrystal_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueCrystal_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_blueCrystal_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenCrystal_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenCrystal_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenCrystal_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greenCrystal_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_runes_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_runes_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_runes_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_runes_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ingo_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ingo_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ingo_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ingo_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_stamina</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>staminaMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>staminaRecoverPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonChestSelectCountPerItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务升级星级需要的宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个资源小车存储的资源量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个资源小车存储的材料数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产科技最高等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事科技最高等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑最高等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力最大值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力每小时恢复量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开巨龙宝箱每次选取的材料个数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chestSelectCountPerItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开宝箱每次选取的材料个数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_casinoToken</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonReviveNeedMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙复活需要的时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenNeededPerNormalGacha</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通gacha一次需要多少赌币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级gacha一次需要多少赌币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenNeededPerAdvancedGacha</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
+  </si>
+  <si>
+    <t>dragonMarchSpeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙的行军速度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstIAPRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>empireRiseDailyTaskRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquerorDailyTaskRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brotherClubDailyTaskRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUpDailyTaskRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +654,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -519,8 +683,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,8 +754,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="80">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -550,6 +773,34 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -557,6 +808,34 @@
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -632,29 +911,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="exp"/>
-      <sheetName val="wood"/>
-      <sheetName val="stone"/>
-      <sheetName val="iron"/>
-      <sheetName val="food"/>
-      <sheetName val="coin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,10 +1285,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1">
+        <v>240</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1040,81 +1488,307 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>25000</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="B4" s="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>600</v>
+      </c>
+      <c r="D4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D8" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1129,6 +1803,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1211,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1229,28 +2131,28 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
@@ -1280,481 +2182,6 @@
       </c>
       <c r="I2" s="1">
         <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>600</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4500</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100000000</v>
       </c>
     </row>
   </sheetData>
@@ -1771,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1782,9 +2209,9 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>70</v>
@@ -1792,20 +2219,306 @@
       <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="D2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1815,8 +2528,11 @@
       <c r="C3" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="D3" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1826,8 +2542,11 @@
       <c r="C4" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1837,8 +2556,11 @@
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="D5" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1848,8 +2570,11 @@
       <c r="C6" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1859,8 +2584,11 @@
       <c r="C7" s="1">
         <v>2100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="D7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1870,8 +2598,11 @@
       <c r="C8" s="1">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="D8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1881,8 +2612,11 @@
       <c r="C9" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1892,8 +2626,11 @@
       <c r="C10" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="D10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1901,7 +2638,1270 @@
         <v>4500</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>5000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5500</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6500</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6500</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9500</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9500</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10500</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10500</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11500</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>13000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>13500</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>13500</v>
+      </c>
+      <c r="C29" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14500</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14500</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15500</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15500</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16500</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16500</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>17500</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17500</v>
+      </c>
+      <c r="C37" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>18500</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>18500</v>
+      </c>
+      <c r="C39" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>19500</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19500</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20500</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20500</v>
+      </c>
+      <c r="C43" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>21000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>21500</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>21500</v>
+      </c>
+      <c r="C45" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>22000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>22500</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>22500</v>
+      </c>
+      <c r="C47" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>23500</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>23500</v>
+      </c>
+      <c r="C49" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24500</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>24500</v>
+      </c>
+      <c r="C51" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>25500</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>25500</v>
+      </c>
+      <c r="C53" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>26000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>26500</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>26500</v>
+      </c>
+      <c r="C55" s="1">
+        <v>27000</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>27500</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>27500</v>
+      </c>
+      <c r="C57" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>28500</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>28500</v>
+      </c>
+      <c r="C59" s="1">
+        <v>29000</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>29000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>29500</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>29500</v>
+      </c>
+      <c r="C61" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>30500</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30500</v>
+      </c>
+      <c r="C63" s="1">
+        <v>31000</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C64" s="1">
+        <v>31500</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>31500</v>
+      </c>
+      <c r="C65" s="1">
+        <v>32000</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>32000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>32500</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>32500</v>
+      </c>
+      <c r="C67" s="1">
+        <v>33000</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C68" s="1">
+        <v>33500</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>33500</v>
+      </c>
+      <c r="C69" s="1">
+        <v>34000</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>34000</v>
+      </c>
+      <c r="C70" s="1">
+        <v>34500</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>34500</v>
+      </c>
+      <c r="C71" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C72" s="1">
+        <v>35500</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>35500</v>
+      </c>
+      <c r="C73" s="1">
+        <v>36000</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C74" s="1">
+        <v>36500</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>36500</v>
+      </c>
+      <c r="C75" s="1">
+        <v>37000</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>37000</v>
+      </c>
+      <c r="C76" s="1">
+        <v>37500</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>37500</v>
+      </c>
+      <c r="C77" s="1">
+        <v>38000</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>38000</v>
+      </c>
+      <c r="C78" s="1">
+        <v>38500</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>38500</v>
+      </c>
+      <c r="C79" s="1">
+        <v>39000</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>39000</v>
+      </c>
+      <c r="C80" s="1">
+        <v>39500</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>39500</v>
+      </c>
+      <c r="C81" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C82" s="1">
+        <v>40500</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40500</v>
+      </c>
+      <c r="C83" s="1">
+        <v>41000</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>41000</v>
+      </c>
+      <c r="C84" s="1">
+        <v>41500</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>41500</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42000</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42500</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42500</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43000</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43500</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44000</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44500</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44500</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45500</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45500</v>
+      </c>
+      <c r="C93" s="1">
+        <v>46000</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>46500</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>46500</v>
+      </c>
+      <c r="C95" s="1">
+        <v>47000</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>47000</v>
+      </c>
+      <c r="C96" s="1">
+        <v>47500</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>47500</v>
+      </c>
+      <c r="C97" s="1">
+        <v>48000</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>48000</v>
+      </c>
+      <c r="C98" s="1">
+        <v>48500</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>48500</v>
+      </c>
+      <c r="C99" s="1">
+        <v>49000</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>49000</v>
+      </c>
+      <c r="C100" s="1">
+        <v>49500</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>49500</v>
+      </c>
+      <c r="C101" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="21740" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="7300" yWindow="21680" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -505,6 +505,30 @@
   </si>
   <si>
     <t>growUpDailyTaskRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手冲级奖励时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerLevelupRewardsHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchProductionBuilding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换生产建筑所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵最大星级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1461,6 +1485,39 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,58 +4,48 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="21680" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5840" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
-    <sheet name="floatInit" sheetId="25" r:id="rId2"/>
-    <sheet name="stringInit" sheetId="26" r:id="rId3"/>
-    <sheet name="resources" sheetId="2" r:id="rId4"/>
-    <sheet name="materials" sheetId="15" r:id="rId5"/>
-    <sheet name="soldierMaterials" sheetId="19" r:id="rId6"/>
-    <sheet name="dragonMaterials" sheetId="20" r:id="rId7"/>
-    <sheet name="houses" sheetId="18" r:id="rId8"/>
-    <sheet name="playerLevel" sheetId="21" r:id="rId9"/>
-    <sheet name="vipLevel" sheetId="22" r:id="rId10"/>
-    <sheet name="collectLevel" sheetId="23" r:id="rId11"/>
+    <sheet name="stringInit" sheetId="26" r:id="rId2"/>
+    <sheet name="resources" sheetId="2" r:id="rId3"/>
+    <sheet name="materials" sheetId="15" r:id="rId4"/>
+    <sheet name="soldierMaterials" sheetId="19" r:id="rId5"/>
+    <sheet name="dragonMaterials" sheetId="20" r:id="rId6"/>
+    <sheet name="houses" sheetId="18" r:id="rId7"/>
+    <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
+    <sheet name="collectLevel" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -68,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -213,14 +203,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyQuestsRefreshHours</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>dailyQuestAddStarNeedGemCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -529,6 +511,46 @@
   </si>
   <si>
     <t>士兵最大星级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>城民恢复满需要的小时数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerCitizenRecoverFullNeedHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeNormalGachaCountPerDay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日免费普通Gacha次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestsRefreshMinites</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务每多少分钟刷新一次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerHatchDragonNeedMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化龙所需的时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeTerrainNeedGemCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改玩家地形所需宝石数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +700,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -763,8 +785,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,8 +821,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="98">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -825,6 +868,15 @@
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -860,6 +912,15 @@
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1309,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1329,522 +1390,250 @@
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1">
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1">
         <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="1">
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>600</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1">
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>600</v>
-      </c>
-      <c r="D4" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>600</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D8" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D10" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1">
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>500</v>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1860,52 +1649,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1924,48 +1667,48 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +1723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -2019,16 +1762,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -2074,6 +1817,89 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2092,7 +1918,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2105,28 +1931,28 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
@@ -2171,89 +1997,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -2271,91 +2014,91 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
@@ -2462,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2533,12 +2276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2557,7 +2300,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -2572,7 +2315,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2586,7 +2329,7 @@
         <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2600,7 +2343,7 @@
         <v>600</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2614,7 +2357,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2628,7 +2371,7 @@
         <v>1500</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2642,7 +2385,7 @@
         <v>2100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2656,7 +2399,7 @@
         <v>2800</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2670,7 +2413,7 @@
         <v>3600</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2684,7 +2427,7 @@
         <v>4500</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2698,7 +2441,7 @@
         <v>5000</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2712,7 +2455,7 @@
         <v>5500</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2726,7 +2469,7 @@
         <v>6000</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2740,7 +2483,7 @@
         <v>6500</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2754,7 +2497,7 @@
         <v>7000</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2768,7 +2511,7 @@
         <v>7500</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2782,7 +2525,7 @@
         <v>8000</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2796,7 +2539,7 @@
         <v>8500</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2810,7 +2553,7 @@
         <v>9000</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2824,7 +2567,7 @@
         <v>9500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2838,7 +2581,7 @@
         <v>10000</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2852,7 +2595,7 @@
         <v>10500</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2866,7 +2609,7 @@
         <v>11000</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2880,7 +2623,7 @@
         <v>11500</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2894,7 +2637,7 @@
         <v>12000</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2908,7 +2651,7 @@
         <v>12500</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2922,7 +2665,7 @@
         <v>13000</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2936,7 +2679,7 @@
         <v>13500</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2950,7 +2693,7 @@
         <v>14000</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2964,7 +2707,7 @@
         <v>14500</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2978,7 +2721,7 @@
         <v>15000</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2992,7 +2735,7 @@
         <v>15500</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3006,7 +2749,7 @@
         <v>16000</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3020,7 +2763,7 @@
         <v>16500</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3034,7 +2777,7 @@
         <v>17000</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3048,7 +2791,7 @@
         <v>17500</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3062,7 +2805,7 @@
         <v>18000</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3076,7 +2819,7 @@
         <v>18500</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3090,7 +2833,7 @@
         <v>19000</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3104,7 +2847,7 @@
         <v>19500</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3118,7 +2861,7 @@
         <v>20000</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3132,7 +2875,7 @@
         <v>20500</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3146,7 +2889,7 @@
         <v>21000</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3160,7 +2903,7 @@
         <v>21500</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3174,7 +2917,7 @@
         <v>22000</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3188,7 +2931,7 @@
         <v>22500</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3202,7 +2945,7 @@
         <v>23000</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3216,7 +2959,7 @@
         <v>23500</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3230,7 +2973,7 @@
         <v>24000</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3244,7 +2987,7 @@
         <v>24500</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3258,7 +3001,7 @@
         <v>25000</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3272,7 +3015,7 @@
         <v>25500</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3286,7 +3029,7 @@
         <v>26000</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3300,7 +3043,7 @@
         <v>26500</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3314,7 +3057,7 @@
         <v>27000</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3328,7 +3071,7 @@
         <v>27500</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3342,7 +3085,7 @@
         <v>28000</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3356,7 +3099,7 @@
         <v>28500</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3370,7 +3113,7 @@
         <v>29000</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3384,7 +3127,7 @@
         <v>29500</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3398,7 +3141,7 @@
         <v>30000</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3412,7 +3155,7 @@
         <v>30500</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3426,7 +3169,7 @@
         <v>31000</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3440,7 +3183,7 @@
         <v>31500</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3454,7 +3197,7 @@
         <v>32000</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3468,7 +3211,7 @@
         <v>32500</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3482,7 +3225,7 @@
         <v>33000</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3496,7 +3239,7 @@
         <v>33500</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3510,7 +3253,7 @@
         <v>34000</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3524,7 +3267,7 @@
         <v>34500</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3538,7 +3281,7 @@
         <v>35000</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3552,7 +3295,7 @@
         <v>35500</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3566,7 +3309,7 @@
         <v>36000</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3580,7 +3323,7 @@
         <v>36500</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3594,7 +3337,7 @@
         <v>37000</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3608,7 +3351,7 @@
         <v>37500</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3622,7 +3365,7 @@
         <v>38000</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3636,7 +3379,7 @@
         <v>38500</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3650,7 +3393,7 @@
         <v>39000</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3664,7 +3407,7 @@
         <v>39500</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3678,7 +3421,7 @@
         <v>40000</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3692,7 +3435,7 @@
         <v>40500</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3706,7 +3449,7 @@
         <v>41000</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3720,7 +3463,7 @@
         <v>41500</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3734,7 +3477,7 @@
         <v>42000</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3748,7 +3491,7 @@
         <v>42500</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3762,7 +3505,7 @@
         <v>43000</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3776,7 +3519,7 @@
         <v>43500</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3790,7 +3533,7 @@
         <v>44000</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3804,7 +3547,7 @@
         <v>44500</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3818,7 +3561,7 @@
         <v>45000</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -3832,7 +3575,7 @@
         <v>45500</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -3846,7 +3589,7 @@
         <v>46000</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -3860,7 +3603,7 @@
         <v>46500</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -3874,7 +3617,7 @@
         <v>47000</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -3888,7 +3631,7 @@
         <v>47500</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -3902,7 +3645,7 @@
         <v>48000</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -3916,7 +3659,7 @@
         <v>48500</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -3930,7 +3673,7 @@
         <v>49000</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -3944,7 +3687,7 @@
         <v>49500</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -3958,7 +3701,187 @@
         <v>50000</v>
       </c>
       <c r="D101" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>600</v>
+      </c>
+      <c r="D4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D8" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -1373,13 +1373,15 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
@@ -1586,7 +1588,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>114</v>
@@ -1659,7 +1661,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="42" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
@@ -1835,7 +1838,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1877,28 +1880,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1921,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1960,28 +1963,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2004,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2286,7 +2289,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="3" width="20.6640625" style="1"/>
+    <col min="4" max="4" width="65.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -551,6 +551,14 @@
   </si>
   <si>
     <t>修改玩家地形所需宝石数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftExpireHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品过期时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1636,6 +1644,17 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6760" yWindow="2880" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -559,6 +559,62 @@
   </si>
   <si>
     <t>礼品过期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>initCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始城民数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLoyaltyGetPerDay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最大忠诚值获取数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyaltyCountPerHelp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次帮助获取多少点忠诚值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialSoldierRecruitAbleDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡之路日常奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>征服者日常奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟会日常奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国崛起日常奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊兵种在每周几可招募</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -723,6 +779,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -833,7 +897,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="106">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -885,6 +949,10 @@
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -929,6 +997,10 @@
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1378,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1655,6 +1727,39 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1671,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1700,6 +1805,9 @@
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1708,6 +1816,9 @@
       <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1716,13 +1827,19 @@
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -1731,6 +1848,20 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1">
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2434,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="2880" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="4580" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -764,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -779,6 +779,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,7 +899,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="108">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -953,6 +955,7 @@
     <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1001,6 +1004,7 @@
     <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1450,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1760,6 +1764,17 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1">
+        <v>256</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1776,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1851,17 +1866,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="1">
-        <v>256</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1880,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1947,13 +1951,13 @@
         <v>25000</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
         <v>50000</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>1000</v>
@@ -1987,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2153,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="3780" yWindow="900" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -15,10 +15,8 @@
     <sheet name="dragonMaterials" sheetId="20" r:id="rId6"/>
     <sheet name="houses" sheetId="18" r:id="rId7"/>
     <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
-    <sheet name="collectLevel" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
@@ -26,21 +24,18 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="236">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -191,10 +186,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT_collectPercentPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -443,17 +434,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000</t>
-  </si>
-  <si>
     <t>dragonMarchSpeed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -616,6 +596,306 @@
   <si>
     <t>特殊兵种在每周几可招募</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:575,resources:stone:575,resources:iron:575,resources:food:575,resources:coin:288,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:1080,resources:stone:1080,resources:iron:1080,resources:food:1080,resources:coin:540,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:1584,resources:stone:1584,resources:iron:1584,resources:food:1584,resources:coin:792,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:2088,resources:stone:2088,resources:iron:2088,resources:food:2088,resources:coin:1044,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:2592,resources:stone:2592,resources:iron:2592,resources:food:2592,resources:coin:1296,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:3096,resources:stone:3096,resources:iron:3096,resources:food:3096,resources:coin:1548,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:3600,resources:stone:3600,resources:iron:3600,resources:food:3600,resources:coin:1800,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:4104,resources:stone:4104,resources:iron:4104,resources:food:4104,resources:coin:2052,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:4608,resources:stone:4608,resources:iron:4608,resources:food:4608,resources:coin:2304,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:5112,resources:stone:5112,resources:iron:5112,resources:food:5112,resources:coin:2556,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:5616,resources:stone:5616,resources:iron:5616,resources:food:5616,resources:coin:2808,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:6120,resources:stone:6120,resources:iron:6120,resources:food:6120,resources:coin:3060,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:6630,resources:stone:6630,resources:iron:6630,resources:food:6630,resources:coin:3315,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:7145,resources:stone:7145,resources:iron:7145,resources:food:7145,resources:coin:3572,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:7661,resources:stone:7661,resources:iron:7661,resources:food:7661,resources:coin:3830,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:8179,resources:stone:8179,resources:iron:8179,resources:food:8179,resources:coin:4089,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:8699,resources:stone:8699,resources:iron:8699,resources:food:8699,resources:coin:4349,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:9221,resources:stone:9221,resources:iron:9221,resources:food:9221,resources:coin:4610,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:9745,resources:stone:9745,resources:iron:9745,resources:food:9745,resources:coin:4873,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:10273,resources:stone:10273,resources:iron:10273,resources:food:10273,resources:coin:5136,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:10803,resources:stone:10803,resources:iron:10803,resources:food:10803,resources:coin:5401,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:11337,resources:stone:11337,resources:iron:11337,resources:food:11337,resources:coin:5668,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:11874,resources:stone:11874,resources:iron:11874,resources:food:11874,resources:coin:5937,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:12416,resources:stone:12416,resources:iron:12416,resources:food:12416,resources:coin:6208,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:12962,resources:stone:12962,resources:iron:12962,resources:food:12962,resources:coin:6481,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:13513,resources:stone:13513,resources:iron:13513,resources:food:13513,resources:coin:6757,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:14070,resources:stone:14070,resources:iron:14070,resources:food:14070,resources:coin:7035,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:14634,resources:stone:14634,resources:iron:14634,resources:food:14634,resources:coin:7317,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:15204,resources:stone:15204,resources:iron:15204,resources:food:15204,resources:coin:7602,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:15783,resources:stone:15783,resources:iron:15783,resources:food:15783,resources:coin:7891,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:16370,resources:stone:16370,resources:iron:16370,resources:food:16370,resources:coin:8185,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16966,resources:stone:16966,resources:iron:16966,resources:food:16966,resources:coin:8483,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:17574,resources:stone:17574,resources:iron:17574,resources:food:17574,resources:coin:8787,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:18193,resources:stone:18193,resources:iron:18193,resources:food:18193,resources:coin:9097,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:18826,resources:stone:18826,resources:iron:18826,resources:food:18826,resources:coin:9413,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:19473,resources:stone:19473,resources:iron:19473,resources:food:19473,resources:coin:9737,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:20137,resources:stone:20137,resources:iron:20137,resources:food:20137,resources:coin:10069,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:20819,resources:stone:20819,resources:iron:20819,resources:food:20819,resources:coin:10409,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:21521,resources:stone:21521,resources:iron:21521,resources:food:21521,resources:coin:10761,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22246,resources:stone:22246,resources:iron:22246,resources:food:22246,resources:coin:11123,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22995,resources:stone:22995,resources:iron:22995,resources:food:22995,resources:coin:11498,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:23773,resources:stone:23773,resources:iron:23773,resources:food:23773,resources:coin:11886,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:24581,resources:stone:24581,resources:iron:24581,resources:food:24581,resources:coin:12290,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:25423,resources:stone:25423,resources:iron:25423,resources:food:25423,resources:coin:12712,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:26304,resources:stone:26304,resources:iron:26304,resources:food:26304,resources:coin:13152,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:27226,resources:stone:27226,resources:iron:27226,resources:food:27226,resources:coin:13613,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:28196,resources:stone:28196,resources:iron:28196,resources:food:28196,resources:coin:14098,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:29218,resources:stone:29218,resources:iron:29218,resources:food:29218,resources:coin:14609,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:30297,resources:stone:30297,resources:iron:30297,resources:food:30297,resources:coin:15149,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:31442,resources:stone:31442,resources:iron:31442,resources:food:31442,resources:coin:15721,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:32658,resources:stone:32658,resources:iron:32658,resources:food:32658,resources:coin:16329,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:33953,resources:stone:33953,resources:iron:33953,resources:food:33953,resources:coin:16976,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:35337,resources:stone:35337,resources:iron:35337,resources:food:35337,resources:coin:17668,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:36818,resources:stone:36818,resources:iron:36818,resources:food:36818,resources:coin:18409,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:38409,resources:stone:38409,resources:iron:38409,resources:food:38409,resources:coin:19205,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:40122,resources:stone:40122,resources:iron:40122,resources:food:40122,resources:coin:20061,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:41969,resources:stone:41969,resources:iron:41969,resources:food:41969,resources:coin:20984,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:43965,resources:stone:43965,resources:iron:43965,resources:food:43965,resources:coin:21983,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:46128,resources:stone:46128,resources:iron:46128,resources:food:46128,resources:coin:23064,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:48476,resources:stone:48476,resources:iron:48476,resources:food:48476,resources:coin:24238,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:51029,resources:stone:51029,resources:iron:51029,resources:food:51029,resources:coin:25514,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:53810,resources:stone:53810,resources:iron:53810,resources:food:53810,resources:coin:26905,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:56844,resources:stone:56844,resources:iron:56844,resources:food:56844,resources:coin:28422,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:60160,resources:stone:60160,resources:iron:60160,resources:food:60160,resources:coin:30080,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:63789,resources:stone:63789,resources:iron:63789,resources:food:63789,resources:coin:31894,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:67766,resources:stone:67766,resources:iron:67766,resources:food:67766,resources:coin:33883,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:72128,resources:stone:72128,resources:iron:72128,resources:food:72128,resources:coin:36064,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:76921,resources:stone:76921,resources:iron:76921,resources:food:76921,resources:coin:38460,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:82190,resources:stone:82190,resources:iron:82190,resources:food:82190,resources:coin:41095,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:87988,resources:stone:87988,resources:iron:87988,resources:food:87988,resources:coin:43994,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:94376,resources:stone:94376,resources:iron:94376,resources:food:94376,resources:coin:47188,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:101418,resources:stone:101418,resources:iron:101418,resources:food:101418,resources:coin:50709,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:109187,resources:stone:109187,resources:iron:109187,resources:food:109187,resources:coin:54593,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:117763,resources:stone:117763,resources:iron:117763,resources:food:117763,resources:coin:58882,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:127237,resources:stone:127237,resources:iron:127237,resources:food:127237,resources:coin:63618,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:137708,resources:stone:137708,resources:iron:137708,resources:food:137708,resources:coin:68854,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:149286,resources:stone:149286,resources:iron:149286,resources:food:149286,resources:coin:74643,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:162096,resources:stone:162096,resources:iron:162096,resources:food:162096,resources:coin:81048,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:176273,resources:stone:176273,resources:iron:176273,resources:food:176273,resources:coin:88137,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:191970,resources:stone:191970,resources:iron:191970,resources:food:191970,resources:coin:95985,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:209356,resources:stone:209356,resources:iron:209356,resources:food:209356,resources:coin:104678,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:228618,resources:stone:228618,resources:iron:228618,resources:food:228618,resources:coin:114309,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:249964,resources:stone:249964,resources:iron:249964,resources:food:249964,resources:coin:124982,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:273627,resources:stone:273627,resources:iron:273627,resources:food:273627,resources:coin:136814,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:299863,resources:stone:299863,resources:iron:299863,resources:food:299863,resources:coin:149932,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:328959,resources:stone:328959,resources:iron:328959,resources:food:328959,resources:coin:164480,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:361233,resources:stone:361233,resources:iron:361233,resources:food:361233,resources:coin:180616,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:397036,resources:stone:397036,resources:iron:397036,resources:food:397036,resources:coin:198518,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:436763,resources:stone:436763,resources:iron:436763,resources:food:436763,resources:coin:218381,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:480848,resources:stone:480848,resources:iron:480848,resources:food:480848,resources:coin:240424,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:529775,resources:stone:529775,resources:iron:529775,resources:food:529775,resources:coin:264888,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:584084,resources:stone:584084,resources:iron:584084,resources:food:584084,resources:coin:292042,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:644371,resources:stone:644371,resources:iron:644371,resources:food:644371,resources:coin:322185,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:711301,resources:stone:711301,resources:iron:711301,resources:food:711301,resources:coin:355650,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:785612,resources:stone:785612,resources:iron:785612,resources:food:785612,resources:coin:392806,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:868125,resources:stone:868125,resources:iron:868125,resources:food:868125,resources:coin:434062,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:959750,resources:stone:959750,resources:iron:959750,resources:food:959750,resources:coin:479875,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:1061500,resources:stone:1061500,resources:iron:1061500,resources:food:1061500,resources:coin:530750,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:2174500,resources:stone:2174500,resources:iron:2174500,resources:food:2174500,resources:coin:1087250,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:4050000,resources:stone:4050000,resources:iron:4050000,resources:food:4050000,resources:coin:2025000,resources:gem:200</t>
   </si>
 </sst>
 </file>
@@ -764,7 +1044,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -877,8 +1157,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,14 +1174,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="110">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -956,6 +1241,7 @@
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1005,6 +1291,7 @@
     <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1457,7 +1744,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1470,311 +1757,311 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1">
         <v>480</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1">
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1">
         <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="6">
+        <v>116</v>
+      </c>
+      <c r="B22" s="5">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1">
         <v>10000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1">
         <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1806,66 +2093,66 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +2172,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1919,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -1991,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2171,91 +2458,91 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
@@ -2437,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2459,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -2467,14 +2754,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2482,27 +2769,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
+        <v>311</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>300</v>
+      <c r="B4" s="1">
+        <v>312</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>479</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2510,13 +2797,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>655</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2524,13 +2811,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1000</v>
+        <v>656</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
+        <v>839</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2538,13 +2825,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1500</v>
+        <v>840</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>1031</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2552,13 +2839,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2100</v>
+        <v>1032</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>1231</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2566,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2800</v>
+        <v>1232</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>1439</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2580,13 +2867,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3600</v>
+        <v>1440</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>1655</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2594,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4500</v>
+        <v>1656</v>
       </c>
       <c r="C11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>1879</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2608,13 +2895,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>5000</v>
+        <v>1880</v>
       </c>
       <c r="C12" s="1">
-        <v>5500</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>98</v>
+        <v>2111</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2622,13 +2909,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5500</v>
+        <v>2112</v>
       </c>
       <c r="C13" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>98</v>
+        <v>2351</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2636,13 +2923,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>6000</v>
+        <v>2352</v>
       </c>
       <c r="C14" s="1">
-        <v>6500</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>2612</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2650,13 +2937,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6500</v>
+        <v>2613</v>
       </c>
       <c r="C15" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>2903</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2664,13 +2951,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>7000</v>
+        <v>2904</v>
       </c>
       <c r="C16" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>98</v>
+        <v>3225</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2678,13 +2965,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>7500</v>
+        <v>3226</v>
       </c>
       <c r="C17" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>98</v>
+        <v>3584</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2692,13 +2979,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>8000</v>
+        <v>3585</v>
       </c>
       <c r="C18" s="1">
-        <v>8500</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>3982</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2706,13 +2993,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>8500</v>
+        <v>3983</v>
       </c>
       <c r="C19" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>98</v>
+        <v>4424</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2720,13 +3007,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>9000</v>
+        <v>4425</v>
       </c>
       <c r="C20" s="1">
-        <v>9500</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
+        <v>4916</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2734,13 +3021,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>9500</v>
+        <v>4917</v>
       </c>
       <c r="C21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>5462</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2748,13 +3035,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>10000</v>
+        <v>5463</v>
       </c>
       <c r="C22" s="1">
-        <v>10500</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>98</v>
+        <v>6069</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2762,13 +3049,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>10500</v>
+        <v>6070</v>
       </c>
       <c r="C23" s="1">
-        <v>11000</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>98</v>
+        <v>6743</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2776,13 +3063,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>11000</v>
+        <v>6744</v>
       </c>
       <c r="C24" s="1">
-        <v>11500</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>98</v>
+        <v>7492</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2790,13 +3077,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>11500</v>
+        <v>7493</v>
       </c>
       <c r="C25" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>98</v>
+        <v>8325</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2804,13 +3091,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>12000</v>
+        <v>8326</v>
       </c>
       <c r="C26" s="1">
-        <v>12500</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>9250</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2818,13 +3105,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>12500</v>
+        <v>9251</v>
       </c>
       <c r="C27" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>98</v>
+        <v>10277</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2832,13 +3119,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>13000</v>
+        <v>10278</v>
       </c>
       <c r="C28" s="1">
-        <v>13500</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>98</v>
+        <v>11419</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2846,13 +3133,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>13500</v>
+        <v>11420</v>
       </c>
       <c r="C29" s="1">
-        <v>14000</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>98</v>
+        <v>12688</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2860,13 +3147,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>14000</v>
+        <v>12689</v>
       </c>
       <c r="C30" s="1">
-        <v>14500</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>98</v>
+        <v>14098</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2874,13 +3161,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>14500</v>
+        <v>14099</v>
       </c>
       <c r="C31" s="1">
-        <v>15000</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>98</v>
+        <v>15664</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2888,13 +3175,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>15000</v>
+        <v>15665</v>
       </c>
       <c r="C32" s="1">
-        <v>15500</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>98</v>
+        <v>17405</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -2902,13 +3189,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>15500</v>
+        <v>17406</v>
       </c>
       <c r="C33" s="1">
-        <v>16000</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>19339</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -2916,13 +3203,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>16000</v>
+        <v>19340</v>
       </c>
       <c r="C34" s="1">
-        <v>16500</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>21488</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -2930,13 +3217,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>16500</v>
+        <v>21489</v>
       </c>
       <c r="C35" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>98</v>
+        <v>23875</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -2944,13 +3231,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>17000</v>
+        <v>23876</v>
       </c>
       <c r="C36" s="1">
-        <v>17500</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>26528</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -2958,13 +3245,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>17500</v>
+        <v>26529</v>
       </c>
       <c r="C37" s="1">
-        <v>18000</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>98</v>
+        <v>29475</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -2972,13 +3259,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>18000</v>
+        <v>29476</v>
       </c>
       <c r="C38" s="1">
-        <v>18500</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>98</v>
+        <v>32751</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -2986,13 +3273,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>18500</v>
+        <v>32752</v>
       </c>
       <c r="C39" s="1">
-        <v>19000</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>98</v>
+        <v>36389</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3000,13 +3287,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>19000</v>
+        <v>36390</v>
       </c>
       <c r="C40" s="1">
-        <v>19500</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>98</v>
+        <v>40433</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3014,13 +3301,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>19500</v>
+        <v>40434</v>
       </c>
       <c r="C41" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>44925</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3028,13 +3315,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>20000</v>
+        <v>44926</v>
       </c>
       <c r="C42" s="1">
-        <v>20500</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>98</v>
+        <v>49917</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3042,13 +3329,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>20500</v>
+        <v>49918</v>
       </c>
       <c r="C43" s="1">
-        <v>21000</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>55463</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3056,13 +3343,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>21000</v>
+        <v>55464</v>
       </c>
       <c r="C44" s="1">
-        <v>21500</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>61626</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3070,13 +3357,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>21500</v>
+        <v>61627</v>
       </c>
       <c r="C45" s="1">
-        <v>22000</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>98</v>
+        <v>68473</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3084,13 +3371,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>22000</v>
+        <v>68474</v>
       </c>
       <c r="C46" s="1">
-        <v>22500</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>98</v>
+        <v>76081</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3098,13 +3385,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>22500</v>
+        <v>76082</v>
       </c>
       <c r="C47" s="1">
-        <v>23000</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>98</v>
+        <v>84535</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3112,13 +3399,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>23000</v>
+        <v>84536</v>
       </c>
       <c r="C48" s="1">
-        <v>23500</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>98</v>
+        <v>93928</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3126,13 +3413,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>23500</v>
+        <v>93929</v>
       </c>
       <c r="C49" s="1">
-        <v>24000</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>98</v>
+        <v>104364</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3140,13 +3427,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>24000</v>
+        <v>104365</v>
       </c>
       <c r="C50" s="1">
-        <v>24500</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>98</v>
+        <v>115960</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3154,13 +3441,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>24500</v>
+        <v>115961</v>
       </c>
       <c r="C51" s="1">
-        <v>25000</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>98</v>
+        <v>128844</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3168,13 +3455,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>25000</v>
+        <v>128845</v>
       </c>
       <c r="C52" s="1">
-        <v>25500</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>98</v>
+        <v>143160</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3182,13 +3469,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>25500</v>
+        <v>143161</v>
       </c>
       <c r="C53" s="1">
-        <v>26000</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>98</v>
+        <v>159067</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3196,13 +3483,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>26000</v>
+        <v>159068</v>
       </c>
       <c r="C54" s="1">
-        <v>26500</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>98</v>
+        <v>176741</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3210,13 +3497,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>26500</v>
+        <v>176742</v>
       </c>
       <c r="C55" s="1">
-        <v>27000</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>98</v>
+        <v>196379</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3224,13 +3511,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>27000</v>
+        <v>196380</v>
       </c>
       <c r="C56" s="1">
-        <v>27500</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>98</v>
+        <v>218199</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3238,13 +3525,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>27500</v>
+        <v>218200</v>
       </c>
       <c r="C57" s="1">
-        <v>28000</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>98</v>
+        <v>242443</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3252,13 +3539,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>28000</v>
+        <v>242444</v>
       </c>
       <c r="C58" s="1">
-        <v>28500</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>98</v>
+        <v>269382</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3266,13 +3553,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>28500</v>
+        <v>269383</v>
       </c>
       <c r="C59" s="1">
-        <v>29000</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>98</v>
+        <v>299313</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3280,13 +3567,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>29000</v>
+        <v>299314</v>
       </c>
       <c r="C60" s="1">
-        <v>29500</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>98</v>
+        <v>332570</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3294,13 +3581,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>29500</v>
+        <v>332571</v>
       </c>
       <c r="C61" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>98</v>
+        <v>369522</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3308,13 +3595,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>30000</v>
+        <v>369523</v>
       </c>
       <c r="C62" s="1">
-        <v>30500</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>98</v>
+        <v>410580</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3322,13 +3609,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>30500</v>
+        <v>410581</v>
       </c>
       <c r="C63" s="1">
-        <v>31000</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>98</v>
+        <v>456200</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3336,13 +3623,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>31000</v>
+        <v>456201</v>
       </c>
       <c r="C64" s="1">
-        <v>31500</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>98</v>
+        <v>506889</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3350,13 +3637,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>31500</v>
+        <v>506890</v>
       </c>
       <c r="C65" s="1">
-        <v>32000</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>98</v>
+        <v>563210</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3364,13 +3651,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>32000</v>
+        <v>563211</v>
       </c>
       <c r="C66" s="1">
-        <v>32500</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>98</v>
+        <v>625789</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3378,13 +3665,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>32500</v>
+        <v>625790</v>
       </c>
       <c r="C67" s="1">
-        <v>33000</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>98</v>
+        <v>695321</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3392,13 +3679,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>33000</v>
+        <v>695322</v>
       </c>
       <c r="C68" s="1">
-        <v>33500</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>98</v>
+        <v>772579</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3406,13 +3693,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>33500</v>
+        <v>772580</v>
       </c>
       <c r="C69" s="1">
-        <v>34000</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>98</v>
+        <v>858421</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3420,13 +3707,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>34000</v>
+        <v>858422</v>
       </c>
       <c r="C70" s="1">
-        <v>34500</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>98</v>
+        <v>953801</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3434,13 +3721,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>34500</v>
+        <v>953802</v>
       </c>
       <c r="C71" s="1">
-        <v>35000</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>98</v>
+        <v>1059779</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3448,13 +3735,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>35000</v>
+        <v>1059780</v>
       </c>
       <c r="C72" s="1">
-        <v>35500</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>98</v>
+        <v>1177532</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3462,13 +3749,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>35500</v>
+        <v>1177533</v>
       </c>
       <c r="C73" s="1">
-        <v>36000</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>98</v>
+        <v>1308369</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3476,13 +3763,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>36000</v>
+        <v>1308370</v>
       </c>
       <c r="C74" s="1">
-        <v>36500</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>98</v>
+        <v>1453743</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3490,13 +3777,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>36500</v>
+        <v>1453744</v>
       </c>
       <c r="C75" s="1">
-        <v>37000</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>98</v>
+        <v>1615270</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3504,13 +3791,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>37000</v>
+        <v>1615271</v>
       </c>
       <c r="C76" s="1">
-        <v>37500</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>98</v>
+        <v>1794745</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3518,13 +3805,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>37500</v>
+        <v>1794746</v>
       </c>
       <c r="C77" s="1">
-        <v>38000</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>98</v>
+        <v>1994161</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3532,13 +3819,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>38000</v>
+        <v>1994162</v>
       </c>
       <c r="C78" s="1">
-        <v>38500</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>98</v>
+        <v>2215735</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3546,13 +3833,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>38500</v>
+        <v>2215736</v>
       </c>
       <c r="C79" s="1">
-        <v>39000</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>98</v>
+        <v>2461927</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3560,13 +3847,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>39000</v>
+        <v>2461928</v>
       </c>
       <c r="C80" s="1">
-        <v>39500</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>98</v>
+        <v>2735475</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3574,13 +3861,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>39500</v>
+        <v>2735476</v>
       </c>
       <c r="C81" s="1">
-        <v>40000</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>98</v>
+        <v>3039416</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3588,13 +3875,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>40000</v>
+        <v>3039417</v>
       </c>
       <c r="C82" s="1">
-        <v>40500</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>98</v>
+        <v>3377129</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3602,13 +3889,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>40500</v>
+        <v>3377130</v>
       </c>
       <c r="C83" s="1">
-        <v>41000</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>98</v>
+        <v>3752366</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3616,13 +3903,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>41000</v>
+        <v>3752367</v>
       </c>
       <c r="C84" s="1">
-        <v>41500</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>98</v>
+        <v>4169295</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3630,13 +3917,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>41500</v>
+        <v>4169296</v>
       </c>
       <c r="C85" s="1">
-        <v>42000</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>98</v>
+        <v>4632550</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3644,13 +3931,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>42000</v>
+        <v>4632551</v>
       </c>
       <c r="C86" s="1">
-        <v>42500</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>98</v>
+        <v>5147278</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3658,13 +3945,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>42500</v>
+        <v>5147279</v>
       </c>
       <c r="C87" s="1">
-        <v>43000</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>98</v>
+        <v>5719198</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3672,13 +3959,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>43000</v>
+        <v>5719199</v>
       </c>
       <c r="C88" s="1">
-        <v>43500</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>98</v>
+        <v>6354665</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3686,13 +3973,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>43500</v>
+        <v>6354666</v>
       </c>
       <c r="C89" s="1">
-        <v>44000</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>98</v>
+        <v>7060738</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3700,13 +3987,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>44000</v>
+        <v>7060739</v>
       </c>
       <c r="C90" s="1">
-        <v>44500</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>98</v>
+        <v>7845265</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3714,13 +4001,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>44500</v>
+        <v>7845266</v>
       </c>
       <c r="C91" s="1">
-        <v>45000</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>98</v>
+        <v>8716961</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -3728,13 +4015,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>45000</v>
+        <v>8716962</v>
       </c>
       <c r="C92" s="1">
-        <v>45500</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>98</v>
+        <v>9685512</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -3742,13 +4029,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>45500</v>
+        <v>9685513</v>
       </c>
       <c r="C93" s="1">
-        <v>46000</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>98</v>
+        <v>10761680</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -3756,13 +4043,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>46000</v>
+        <v>10761681</v>
       </c>
       <c r="C94" s="1">
-        <v>46500</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>98</v>
+        <v>11957423</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -3770,13 +4057,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>46500</v>
+        <v>11957424</v>
       </c>
       <c r="C95" s="1">
-        <v>47000</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>98</v>
+        <v>13286025</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -3784,13 +4071,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>47000</v>
+        <v>13286026</v>
       </c>
       <c r="C96" s="1">
-        <v>47500</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>98</v>
+        <v>14762250</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -3798,13 +4085,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>47500</v>
+        <v>14762251</v>
       </c>
       <c r="C97" s="1">
-        <v>48000</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>98</v>
+        <v>16402500</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -3812,13 +4099,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>48000</v>
+        <v>16402501</v>
       </c>
       <c r="C98" s="1">
-        <v>48500</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>98</v>
+        <v>18225000</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -3826,13 +4113,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>48500</v>
+        <v>18225001</v>
       </c>
       <c r="C99" s="1">
-        <v>49000</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>98</v>
+        <v>20250000</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -3840,13 +4127,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>49000</v>
+        <v>20250001</v>
       </c>
       <c r="C100" s="1">
-        <v>49500</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>98</v>
+        <v>24500000</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -3854,193 +4141,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>49500</v>
+        <v>24500001</v>
       </c>
       <c r="C101" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>600</v>
-      </c>
-      <c r="D4" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>600</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D8" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D10" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4500</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>500</v>
+        <v>32500000</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="900" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="-180" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -598,304 +598,304 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:575,resources:stone:575,resources:iron:575,resources:food:575,resources:coin:288,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:1080,resources:stone:1080,resources:iron:1080,resources:food:1080,resources:coin:540,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:1584,resources:stone:1584,resources:iron:1584,resources:food:1584,resources:coin:792,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:2088,resources:stone:2088,resources:iron:2088,resources:food:2088,resources:coin:1044,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:2592,resources:stone:2592,resources:iron:2592,resources:food:2592,resources:coin:1296,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:3096,resources:stone:3096,resources:iron:3096,resources:food:3096,resources:coin:1548,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:3600,resources:stone:3600,resources:iron:3600,resources:food:3600,resources:coin:1800,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:4104,resources:stone:4104,resources:iron:4104,resources:food:4104,resources:coin:2052,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:4608,resources:stone:4608,resources:iron:4608,resources:food:4608,resources:coin:2304,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:5112,resources:stone:5112,resources:iron:5112,resources:food:5112,resources:coin:2556,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:5616,resources:stone:5616,resources:iron:5616,resources:food:5616,resources:coin:2808,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:6120,resources:stone:6120,resources:iron:6120,resources:food:6120,resources:coin:3060,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:6630,resources:stone:6630,resources:iron:6630,resources:food:6630,resources:coin:3315,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:7145,resources:stone:7145,resources:iron:7145,resources:food:7145,resources:coin:3572,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:7661,resources:stone:7661,resources:iron:7661,resources:food:7661,resources:coin:3830,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:8179,resources:stone:8179,resources:iron:8179,resources:food:8179,resources:coin:4089,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:8699,resources:stone:8699,resources:iron:8699,resources:food:8699,resources:coin:4349,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:9221,resources:stone:9221,resources:iron:9221,resources:food:9221,resources:coin:4610,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:9745,resources:stone:9745,resources:iron:9745,resources:food:9745,resources:coin:4873,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:10273,resources:stone:10273,resources:iron:10273,resources:food:10273,resources:coin:5136,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:10803,resources:stone:10803,resources:iron:10803,resources:food:10803,resources:coin:5401,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:11337,resources:stone:11337,resources:iron:11337,resources:food:11337,resources:coin:5668,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:11874,resources:stone:11874,resources:iron:11874,resources:food:11874,resources:coin:5937,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:12416,resources:stone:12416,resources:iron:12416,resources:food:12416,resources:coin:6208,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:12962,resources:stone:12962,resources:iron:12962,resources:food:12962,resources:coin:6481,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:13513,resources:stone:13513,resources:iron:13513,resources:food:13513,resources:coin:6757,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:14070,resources:stone:14070,resources:iron:14070,resources:food:14070,resources:coin:7035,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:14634,resources:stone:14634,resources:iron:14634,resources:food:14634,resources:coin:7317,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:15204,resources:stone:15204,resources:iron:15204,resources:food:15204,resources:coin:7602,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:15783,resources:stone:15783,resources:iron:15783,resources:food:15783,resources:coin:7891,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:16370,resources:stone:16370,resources:iron:16370,resources:food:16370,resources:coin:8185,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16966,resources:stone:16966,resources:iron:16966,resources:food:16966,resources:coin:8483,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:17574,resources:stone:17574,resources:iron:17574,resources:food:17574,resources:coin:8787,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:18193,resources:stone:18193,resources:iron:18193,resources:food:18193,resources:coin:9097,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:18826,resources:stone:18826,resources:iron:18826,resources:food:18826,resources:coin:9413,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:19473,resources:stone:19473,resources:iron:19473,resources:food:19473,resources:coin:9737,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:20137,resources:stone:20137,resources:iron:20137,resources:food:20137,resources:coin:10069,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:20819,resources:stone:20819,resources:iron:20819,resources:food:20819,resources:coin:10409,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:21521,resources:stone:21521,resources:iron:21521,resources:food:21521,resources:coin:10761,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22246,resources:stone:22246,resources:iron:22246,resources:food:22246,resources:coin:11123,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22995,resources:stone:22995,resources:iron:22995,resources:food:22995,resources:coin:11498,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:23773,resources:stone:23773,resources:iron:23773,resources:food:23773,resources:coin:11886,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:24581,resources:stone:24581,resources:iron:24581,resources:food:24581,resources:coin:12290,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:25423,resources:stone:25423,resources:iron:25423,resources:food:25423,resources:coin:12712,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:26304,resources:stone:26304,resources:iron:26304,resources:food:26304,resources:coin:13152,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:27226,resources:stone:27226,resources:iron:27226,resources:food:27226,resources:coin:13613,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:28196,resources:stone:28196,resources:iron:28196,resources:food:28196,resources:coin:14098,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:29218,resources:stone:29218,resources:iron:29218,resources:food:29218,resources:coin:14609,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30297,resources:stone:30297,resources:iron:30297,resources:food:30297,resources:coin:15149,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:31442,resources:stone:31442,resources:iron:31442,resources:food:31442,resources:coin:15721,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:32658,resources:stone:32658,resources:iron:32658,resources:food:32658,resources:coin:16329,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:33953,resources:stone:33953,resources:iron:33953,resources:food:33953,resources:coin:16976,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:35337,resources:stone:35337,resources:iron:35337,resources:food:35337,resources:coin:17668,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:36818,resources:stone:36818,resources:iron:36818,resources:food:36818,resources:coin:18409,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:38409,resources:stone:38409,resources:iron:38409,resources:food:38409,resources:coin:19205,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:40122,resources:stone:40122,resources:iron:40122,resources:food:40122,resources:coin:20061,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:41969,resources:stone:41969,resources:iron:41969,resources:food:41969,resources:coin:20984,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:43965,resources:stone:43965,resources:iron:43965,resources:food:43965,resources:coin:21983,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:46128,resources:stone:46128,resources:iron:46128,resources:food:46128,resources:coin:23064,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:48476,resources:stone:48476,resources:iron:48476,resources:food:48476,resources:coin:24238,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:51029,resources:stone:51029,resources:iron:51029,resources:food:51029,resources:coin:25514,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:53810,resources:stone:53810,resources:iron:53810,resources:food:53810,resources:coin:26905,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:56844,resources:stone:56844,resources:iron:56844,resources:food:56844,resources:coin:28422,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:60160,resources:stone:60160,resources:iron:60160,resources:food:60160,resources:coin:30080,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:63789,resources:stone:63789,resources:iron:63789,resources:food:63789,resources:coin:31894,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:67766,resources:stone:67766,resources:iron:67766,resources:food:67766,resources:coin:33883,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:72128,resources:stone:72128,resources:iron:72128,resources:food:72128,resources:coin:36064,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:76921,resources:stone:76921,resources:iron:76921,resources:food:76921,resources:coin:38460,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:82190,resources:stone:82190,resources:iron:82190,resources:food:82190,resources:coin:41095,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:87988,resources:stone:87988,resources:iron:87988,resources:food:87988,resources:coin:43994,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:94376,resources:stone:94376,resources:iron:94376,resources:food:94376,resources:coin:47188,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:101418,resources:stone:101418,resources:iron:101418,resources:food:101418,resources:coin:50709,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:109187,resources:stone:109187,resources:iron:109187,resources:food:109187,resources:coin:54593,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:117763,resources:stone:117763,resources:iron:117763,resources:food:117763,resources:coin:58882,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:127237,resources:stone:127237,resources:iron:127237,resources:food:127237,resources:coin:63618,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:137708,resources:stone:137708,resources:iron:137708,resources:food:137708,resources:coin:68854,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:149286,resources:stone:149286,resources:iron:149286,resources:food:149286,resources:coin:74643,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:162096,resources:stone:162096,resources:iron:162096,resources:food:162096,resources:coin:81048,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:176273,resources:stone:176273,resources:iron:176273,resources:food:176273,resources:coin:88137,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:191970,resources:stone:191970,resources:iron:191970,resources:food:191970,resources:coin:95985,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:209356,resources:stone:209356,resources:iron:209356,resources:food:209356,resources:coin:104678,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:228618,resources:stone:228618,resources:iron:228618,resources:food:228618,resources:coin:114309,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:249964,resources:stone:249964,resources:iron:249964,resources:food:249964,resources:coin:124982,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:273627,resources:stone:273627,resources:iron:273627,resources:food:273627,resources:coin:136814,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:299863,resources:stone:299863,resources:iron:299863,resources:food:299863,resources:coin:149932,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:328959,resources:stone:328959,resources:iron:328959,resources:food:328959,resources:coin:164480,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:361233,resources:stone:361233,resources:iron:361233,resources:food:361233,resources:coin:180616,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:397036,resources:stone:397036,resources:iron:397036,resources:food:397036,resources:coin:198518,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:436763,resources:stone:436763,resources:iron:436763,resources:food:436763,resources:coin:218381,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:480848,resources:stone:480848,resources:iron:480848,resources:food:480848,resources:coin:240424,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:529775,resources:stone:529775,resources:iron:529775,resources:food:529775,resources:coin:264888,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:584084,resources:stone:584084,resources:iron:584084,resources:food:584084,resources:coin:292042,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:644371,resources:stone:644371,resources:iron:644371,resources:food:644371,resources:coin:322185,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:711301,resources:stone:711301,resources:iron:711301,resources:food:711301,resources:coin:355650,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:785612,resources:stone:785612,resources:iron:785612,resources:food:785612,resources:coin:392806,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:868125,resources:stone:868125,resources:iron:868125,resources:food:868125,resources:coin:434062,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:959750,resources:stone:959750,resources:iron:959750,resources:food:959750,resources:coin:479875,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:1061500,resources:stone:1061500,resources:iron:1061500,resources:food:1061500,resources:coin:530750,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:2174500,resources:stone:2174500,resources:iron:2174500,resources:food:2174500,resources:coin:1087250,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:4050000,resources:stone:4050000,resources:iron:4050000,resources:food:4050000,resources:coin:2025000,resources:gem:200</t>
+    <t>resources:wood:5575,resources:stone:5575,resources:iron:5575,resources:food:5575,resources:coin:2788,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:11079,resources:stone:11079,resources:iron:11079,resources:food:11079,resources:coin:5540,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16583,resources:stone:16583,resources:iron:16583,resources:food:16583,resources:coin:8292,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22087,resources:stone:22087,resources:iron:22087,resources:food:22087,resources:coin:11044,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:27591,resources:stone:27591,resources:iron:27591,resources:food:27591,resources:coin:13796,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:33095,resources:stone:33095,resources:iron:33095,resources:food:33095,resources:coin:16548,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:38599,resources:stone:38599,resources:iron:38599,resources:food:38599,resources:coin:19300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:44103,resources:stone:44103,resources:iron:44103,resources:food:44103,resources:coin:22052,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:49607,resources:stone:49607,resources:iron:49607,resources:food:49607,resources:coin:24804,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:55111,resources:stone:55111,resources:iron:55111,resources:food:55111,resources:coin:27556,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:60615,resources:stone:60615,resources:iron:60615,resources:food:60615,resources:coin:30308,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:66119,resources:stone:66119,resources:iron:66119,resources:food:66119,resources:coin:33060,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:71630,resources:stone:71630,resources:iron:71630,resources:food:71630,resources:coin:35815,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:77144,resources:stone:77144,resources:iron:77144,resources:food:77144,resources:coin:38572,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:82660,resources:stone:82660,resources:iron:82660,resources:food:82660,resources:coin:41330,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:88178,resources:stone:88178,resources:iron:88178,resources:food:88178,resources:coin:44089,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:93698,resources:stone:93698,resources:iron:93698,resources:food:93698,resources:coin:46849,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:99220,resources:stone:99220,resources:iron:99220,resources:food:99220,resources:coin:49610,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:104745,resources:stone:104745,resources:iron:104745,resources:food:104745,resources:coin:52373,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:110272,resources:stone:110272,resources:iron:110272,resources:food:110272,resources:coin:55136,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:115802,resources:stone:115802,resources:iron:115802,resources:food:115802,resources:coin:57901,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:121336,resources:stone:121336,resources:iron:121336,resources:food:121336,resources:coin:60668,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:126874,resources:stone:126874,resources:iron:126874,resources:food:126874,resources:coin:63437,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:132415,resources:stone:132415,resources:iron:132415,resources:food:132415,resources:coin:66208,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:137961,resources:stone:137961,resources:iron:137961,resources:food:137961,resources:coin:68981,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:143513,resources:stone:143513,resources:iron:143513,resources:food:143513,resources:coin:71757,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:149070,resources:stone:149070,resources:iron:149070,resources:food:149070,resources:coin:74535,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:154633,resources:stone:154633,resources:iron:154633,resources:food:154633,resources:coin:77317,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:160204,resources:stone:160204,resources:iron:160204,resources:food:160204,resources:coin:80102,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:165782,resources:stone:165782,resources:iron:165782,resources:food:165782,resources:coin:82891,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:171369,resources:stone:171369,resources:iron:171369,resources:food:171369,resources:coin:85685,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:176966,resources:stone:176966,resources:iron:176966,resources:food:176966,resources:coin:88483,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:182573,resources:stone:182573,resources:iron:182573,resources:food:182573,resources:coin:91287,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:188193,resources:stone:188193,resources:iron:188193,resources:food:188193,resources:coin:94097,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:193825,resources:stone:193825,resources:iron:193825,resources:food:193825,resources:coin:96913,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:199473,resources:stone:199473,resources:iron:199473,resources:food:199473,resources:coin:99737,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:205137,resources:stone:205137,resources:iron:205137,resources:food:205137,resources:coin:102569,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:210818,resources:stone:210818,resources:iron:210818,resources:food:210818,resources:coin:105409,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:216521,resources:stone:216521,resources:iron:216521,resources:food:216521,resources:coin:108261,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:222245,resources:stone:222245,resources:iron:222245,resources:food:222245,resources:coin:111123,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:227995,resources:stone:227995,resources:iron:227995,resources:food:227995,resources:coin:113998,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:233772,resources:stone:233772,resources:iron:233772,resources:food:233772,resources:coin:116886,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:239580,resources:stone:239580,resources:iron:239580,resources:food:239580,resources:coin:119790,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:245423,resources:stone:245423,resources:iron:245423,resources:food:245423,resources:coin:122712,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:251303,resources:stone:251303,resources:iron:251303,resources:food:251303,resources:coin:125652,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:257226,resources:stone:257226,resources:iron:257226,resources:food:257226,resources:coin:128613,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:263195,resources:stone:263195,resources:iron:263195,resources:food:263195,resources:coin:131598,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:269217,resources:stone:269217,resources:iron:269217,resources:food:269217,resources:coin:134609,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:275297,resources:stone:275297,resources:iron:275297,resources:food:275297,resources:coin:137649,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:281441,resources:stone:281441,resources:iron:281441,resources:food:281441,resources:coin:140721,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:287657,resources:stone:287657,resources:iron:287657,resources:food:287657,resources:coin:143829,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:293952,resources:stone:293952,resources:iron:293952,resources:food:293952,resources:coin:146976,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:300336,resources:stone:300336,resources:iron:300336,resources:food:300336,resources:coin:150168,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:306818,resources:stone:306818,resources:iron:306818,resources:food:306818,resources:coin:153409,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:313409,resources:stone:313409,resources:iron:313409,resources:food:313409,resources:coin:156705,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:320121,resources:stone:320121,resources:iron:320121,resources:food:320121,resources:coin:160061,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:326968,resources:stone:326968,resources:iron:326968,resources:food:326968,resources:coin:163484,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:333965,resources:stone:333965,resources:iron:333965,resources:food:333965,resources:coin:166983,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:341127,resources:stone:341127,resources:iron:341127,resources:food:341127,resources:coin:170564,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:348475,resources:stone:348475,resources:iron:348475,resources:food:348475,resources:coin:174238,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:356028,resources:stone:356028,resources:iron:356028,resources:food:356028,resources:coin:178014,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:363809,resources:stone:363809,resources:iron:363809,resources:food:363809,resources:coin:181905,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:371843,resources:stone:371843,resources:iron:371843,resources:food:371843,resources:coin:185922,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:380159,resources:stone:380159,resources:iron:380159,resources:food:380159,resources:coin:190080,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:388788,resources:stone:388788,resources:iron:388788,resources:food:388788,resources:coin:194394,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:397765,resources:stone:397765,resources:iron:397765,resources:food:397765,resources:coin:198883,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:407128,resources:stone:407128,resources:iron:407128,resources:food:407128,resources:coin:203564,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:416920,resources:stone:416920,resources:iron:416920,resources:food:416920,resources:coin:208460,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:427189,resources:stone:427189,resources:iron:427189,resources:food:427189,resources:coin:213595,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:437988,resources:stone:437988,resources:iron:437988,resources:food:437988,resources:coin:218994,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:449376,resources:stone:449376,resources:iron:449376,resources:food:449376,resources:coin:224688,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:461417,resources:stone:461417,resources:iron:461417,resources:food:461417,resources:coin:230709,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:474186,resources:stone:474186,resources:iron:474186,resources:food:474186,resources:coin:237093,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:487763,resources:stone:487763,resources:iron:487763,resources:food:487763,resources:coin:243882,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:502236,resources:stone:502236,resources:iron:502236,resources:food:502236,resources:coin:251118,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:517707,resources:stone:517707,resources:iron:517707,resources:food:517707,resources:coin:258854,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:534286,resources:stone:534286,resources:iron:534286,resources:food:534286,resources:coin:267143,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:552095,resources:stone:552095,resources:iron:552095,resources:food:552095,resources:coin:276048,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:571273,resources:stone:571273,resources:iron:571273,resources:food:571273,resources:coin:285637,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:591970,resources:stone:591970,resources:iron:591970,resources:food:591970,resources:coin:295985,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:614355,resources:stone:614355,resources:iron:614355,resources:food:614355,resources:coin:307178,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:638617,resources:stone:638617,resources:iron:638617,resources:food:638617,resources:coin:319309,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:664964,resources:stone:664964,resources:iron:664964,resources:food:664964,resources:coin:332482,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:693627,resources:stone:693627,resources:iron:693627,resources:food:693627,resources:coin:346814,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:724863,resources:stone:724863,resources:iron:724863,resources:food:724863,resources:coin:362432,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:758959,resources:stone:758959,resources:iron:758959,resources:food:758959,resources:coin:379480,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:796232,resources:stone:796232,resources:iron:796232,resources:food:796232,resources:coin:398116,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:837036,resources:stone:837036,resources:iron:837036,resources:food:837036,resources:coin:418518,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:881762,resources:stone:881762,resources:iron:881762,resources:food:881762,resources:coin:440881,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:930847,resources:stone:930847,resources:iron:930847,resources:food:930847,resources:coin:465424,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:984775,resources:stone:984775,resources:iron:984775,resources:food:984775,resources:coin:492388,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1044083,resources:stone:1044083,resources:iron:1044083,resources:food:1044083,resources:coin:522042,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1109370,resources:stone:1109370,resources:iron:1109370,resources:food:1109370,resources:coin:554685,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1181300,resources:stone:1181300,resources:iron:1181300,resources:food:1181300,resources:coin:590650,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1260612,resources:stone:1260612,resources:iron:1260612,resources:food:1260612,resources:coin:630306,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1348124,resources:stone:1348124,resources:iron:1348124,resources:food:1348124,resources:coin:674062,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1444749,resources:stone:1444749,resources:iron:1444749,resources:food:1444749,resources:coin:722375,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1551499,resources:stone:1551499,resources:iron:1551499,resources:food:1551499,resources:coin:775750,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2669499,resources:stone:2669499,resources:iron:2669499,resources:food:2669499,resources:coin:1334750,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4549999,resources:stone:4549999,resources:iron:4549999,resources:food:4549999,resources:coin:2275000,resources:gem:500</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1059,6 +1059,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1184,7 +1186,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="112">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1242,6 +1244,7 @@
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1292,6 +1295,7 @@
     <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2724,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4132,7 +4136,7 @@
       <c r="C100" s="1">
         <v>24500000</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4146,7 +4150,7 @@
       <c r="C101" s="1">
         <v>32500000</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="1" t="s">
         <v>235</v>
       </c>
     </row>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="6220" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="238">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -896,6 +896,14 @@
   </si>
   <si>
     <t>resources:wood:4549999,resources:stone:4549999,resources:iron:4549999,resources:food:4549999,resources:coin:2275000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>unlockPlayerSecondMarchQueue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁第二条队列</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1745,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2066,6 +2074,17 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A80" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="242">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -903,6 +903,22 @@
   </si>
   <si>
     <t>解锁第二条队列</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家资源保护基础百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerResourceProtectPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonStrengthTerrainAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙在相应地形下的力量加成比例</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1068,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1067,6 +1083,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1194,7 +1214,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="116">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1253,6 +1273,8 @@
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1304,6 +1326,8 @@
     <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1753,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2085,6 +2109,28 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4900" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1929,7 +1929,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>91</v>
@@ -1940,7 +1940,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>150000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
@@ -2105,7 +2105,7 @@
         <v>236</v>
       </c>
       <c r="B29" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>237</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1120" yWindow="840" windowWidth="33440" windowHeight="19100" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -15,30 +15,35 @@
     <sheet name="dragonMaterials" sheetId="20" r:id="rId6"/>
     <sheet name="houses" sheetId="18" r:id="rId7"/>
     <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
+    <sheet name="pveLevel" sheetId="27" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="268">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -598,306 +603,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:5575,resources:stone:5575,resources:iron:5575,resources:food:5575,resources:coin:2788,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:11079,resources:stone:11079,resources:iron:11079,resources:food:11079,resources:coin:5540,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16583,resources:stone:16583,resources:iron:16583,resources:food:16583,resources:coin:8292,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22087,resources:stone:22087,resources:iron:22087,resources:food:22087,resources:coin:11044,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:27591,resources:stone:27591,resources:iron:27591,resources:food:27591,resources:coin:13796,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:33095,resources:stone:33095,resources:iron:33095,resources:food:33095,resources:coin:16548,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:38599,resources:stone:38599,resources:iron:38599,resources:food:38599,resources:coin:19300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:44103,resources:stone:44103,resources:iron:44103,resources:food:44103,resources:coin:22052,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:49607,resources:stone:49607,resources:iron:49607,resources:food:49607,resources:coin:24804,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:55111,resources:stone:55111,resources:iron:55111,resources:food:55111,resources:coin:27556,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:60615,resources:stone:60615,resources:iron:60615,resources:food:60615,resources:coin:30308,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:66119,resources:stone:66119,resources:iron:66119,resources:food:66119,resources:coin:33060,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:71630,resources:stone:71630,resources:iron:71630,resources:food:71630,resources:coin:35815,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:77144,resources:stone:77144,resources:iron:77144,resources:food:77144,resources:coin:38572,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:82660,resources:stone:82660,resources:iron:82660,resources:food:82660,resources:coin:41330,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:88178,resources:stone:88178,resources:iron:88178,resources:food:88178,resources:coin:44089,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:93698,resources:stone:93698,resources:iron:93698,resources:food:93698,resources:coin:46849,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:99220,resources:stone:99220,resources:iron:99220,resources:food:99220,resources:coin:49610,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:104745,resources:stone:104745,resources:iron:104745,resources:food:104745,resources:coin:52373,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:110272,resources:stone:110272,resources:iron:110272,resources:food:110272,resources:coin:55136,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:115802,resources:stone:115802,resources:iron:115802,resources:food:115802,resources:coin:57901,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:121336,resources:stone:121336,resources:iron:121336,resources:food:121336,resources:coin:60668,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:126874,resources:stone:126874,resources:iron:126874,resources:food:126874,resources:coin:63437,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:132415,resources:stone:132415,resources:iron:132415,resources:food:132415,resources:coin:66208,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:137961,resources:stone:137961,resources:iron:137961,resources:food:137961,resources:coin:68981,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:143513,resources:stone:143513,resources:iron:143513,resources:food:143513,resources:coin:71757,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:149070,resources:stone:149070,resources:iron:149070,resources:food:149070,resources:coin:74535,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:154633,resources:stone:154633,resources:iron:154633,resources:food:154633,resources:coin:77317,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:160204,resources:stone:160204,resources:iron:160204,resources:food:160204,resources:coin:80102,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:165782,resources:stone:165782,resources:iron:165782,resources:food:165782,resources:coin:82891,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:171369,resources:stone:171369,resources:iron:171369,resources:food:171369,resources:coin:85685,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:176966,resources:stone:176966,resources:iron:176966,resources:food:176966,resources:coin:88483,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:182573,resources:stone:182573,resources:iron:182573,resources:food:182573,resources:coin:91287,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:188193,resources:stone:188193,resources:iron:188193,resources:food:188193,resources:coin:94097,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:193825,resources:stone:193825,resources:iron:193825,resources:food:193825,resources:coin:96913,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:199473,resources:stone:199473,resources:iron:199473,resources:food:199473,resources:coin:99737,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:205137,resources:stone:205137,resources:iron:205137,resources:food:205137,resources:coin:102569,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:210818,resources:stone:210818,resources:iron:210818,resources:food:210818,resources:coin:105409,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:216521,resources:stone:216521,resources:iron:216521,resources:food:216521,resources:coin:108261,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:222245,resources:stone:222245,resources:iron:222245,resources:food:222245,resources:coin:111123,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:227995,resources:stone:227995,resources:iron:227995,resources:food:227995,resources:coin:113998,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:233772,resources:stone:233772,resources:iron:233772,resources:food:233772,resources:coin:116886,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:239580,resources:stone:239580,resources:iron:239580,resources:food:239580,resources:coin:119790,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:245423,resources:stone:245423,resources:iron:245423,resources:food:245423,resources:coin:122712,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:251303,resources:stone:251303,resources:iron:251303,resources:food:251303,resources:coin:125652,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:257226,resources:stone:257226,resources:iron:257226,resources:food:257226,resources:coin:128613,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:263195,resources:stone:263195,resources:iron:263195,resources:food:263195,resources:coin:131598,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:269217,resources:stone:269217,resources:iron:269217,resources:food:269217,resources:coin:134609,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:275297,resources:stone:275297,resources:iron:275297,resources:food:275297,resources:coin:137649,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:281441,resources:stone:281441,resources:iron:281441,resources:food:281441,resources:coin:140721,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:287657,resources:stone:287657,resources:iron:287657,resources:food:287657,resources:coin:143829,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:293952,resources:stone:293952,resources:iron:293952,resources:food:293952,resources:coin:146976,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:300336,resources:stone:300336,resources:iron:300336,resources:food:300336,resources:coin:150168,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:306818,resources:stone:306818,resources:iron:306818,resources:food:306818,resources:coin:153409,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:313409,resources:stone:313409,resources:iron:313409,resources:food:313409,resources:coin:156705,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:320121,resources:stone:320121,resources:iron:320121,resources:food:320121,resources:coin:160061,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:326968,resources:stone:326968,resources:iron:326968,resources:food:326968,resources:coin:163484,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:333965,resources:stone:333965,resources:iron:333965,resources:food:333965,resources:coin:166983,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:341127,resources:stone:341127,resources:iron:341127,resources:food:341127,resources:coin:170564,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:348475,resources:stone:348475,resources:iron:348475,resources:food:348475,resources:coin:174238,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:356028,resources:stone:356028,resources:iron:356028,resources:food:356028,resources:coin:178014,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:363809,resources:stone:363809,resources:iron:363809,resources:food:363809,resources:coin:181905,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:371843,resources:stone:371843,resources:iron:371843,resources:food:371843,resources:coin:185922,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:380159,resources:stone:380159,resources:iron:380159,resources:food:380159,resources:coin:190080,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:388788,resources:stone:388788,resources:iron:388788,resources:food:388788,resources:coin:194394,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:397765,resources:stone:397765,resources:iron:397765,resources:food:397765,resources:coin:198883,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:407128,resources:stone:407128,resources:iron:407128,resources:food:407128,resources:coin:203564,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:416920,resources:stone:416920,resources:iron:416920,resources:food:416920,resources:coin:208460,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:427189,resources:stone:427189,resources:iron:427189,resources:food:427189,resources:coin:213595,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:437988,resources:stone:437988,resources:iron:437988,resources:food:437988,resources:coin:218994,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:449376,resources:stone:449376,resources:iron:449376,resources:food:449376,resources:coin:224688,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:461417,resources:stone:461417,resources:iron:461417,resources:food:461417,resources:coin:230709,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:474186,resources:stone:474186,resources:iron:474186,resources:food:474186,resources:coin:237093,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:487763,resources:stone:487763,resources:iron:487763,resources:food:487763,resources:coin:243882,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:502236,resources:stone:502236,resources:iron:502236,resources:food:502236,resources:coin:251118,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:517707,resources:stone:517707,resources:iron:517707,resources:food:517707,resources:coin:258854,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:534286,resources:stone:534286,resources:iron:534286,resources:food:534286,resources:coin:267143,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:552095,resources:stone:552095,resources:iron:552095,resources:food:552095,resources:coin:276048,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:571273,resources:stone:571273,resources:iron:571273,resources:food:571273,resources:coin:285637,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:591970,resources:stone:591970,resources:iron:591970,resources:food:591970,resources:coin:295985,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:614355,resources:stone:614355,resources:iron:614355,resources:food:614355,resources:coin:307178,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:638617,resources:stone:638617,resources:iron:638617,resources:food:638617,resources:coin:319309,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:664964,resources:stone:664964,resources:iron:664964,resources:food:664964,resources:coin:332482,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:693627,resources:stone:693627,resources:iron:693627,resources:food:693627,resources:coin:346814,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:724863,resources:stone:724863,resources:iron:724863,resources:food:724863,resources:coin:362432,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:758959,resources:stone:758959,resources:iron:758959,resources:food:758959,resources:coin:379480,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:796232,resources:stone:796232,resources:iron:796232,resources:food:796232,resources:coin:398116,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:837036,resources:stone:837036,resources:iron:837036,resources:food:837036,resources:coin:418518,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:881762,resources:stone:881762,resources:iron:881762,resources:food:881762,resources:coin:440881,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:930847,resources:stone:930847,resources:iron:930847,resources:food:930847,resources:coin:465424,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:984775,resources:stone:984775,resources:iron:984775,resources:food:984775,resources:coin:492388,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1044083,resources:stone:1044083,resources:iron:1044083,resources:food:1044083,resources:coin:522042,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1109370,resources:stone:1109370,resources:iron:1109370,resources:food:1109370,resources:coin:554685,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1181300,resources:stone:1181300,resources:iron:1181300,resources:food:1181300,resources:coin:590650,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1260612,resources:stone:1260612,resources:iron:1260612,resources:food:1260612,resources:coin:630306,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1348124,resources:stone:1348124,resources:iron:1348124,resources:food:1348124,resources:coin:674062,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1444749,resources:stone:1444749,resources:iron:1444749,resources:food:1444749,resources:coin:722375,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1551499,resources:stone:1551499,resources:iron:1551499,resources:food:1551499,resources:coin:775750,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2669499,resources:stone:2669499,resources:iron:2669499,resources:food:2669499,resources:coin:1334750,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4549999,resources:stone:4549999,resources:iron:4549999,resources:food:4549999,resources:coin:2275000,resources:gem:500</t>
-  </si>
-  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -906,19 +611,397 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>resources:wood:2500,resources:stone:2500,resources:iron:2500,resources:food:2500,resources:coin:1250,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:5000,resources:stone:5000,resources:iron:5000,resources:food:5000,resources:coin:2500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:7500,resources:coin:3750,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:10000,resources:stone:10000,resources:iron:10000,resources:food:10000,resources:coin:5000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:12500,resources:stone:12500,resources:iron:12500,resources:food:12500,resources:coin:6250,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:15000,resources:stone:15000,resources:iron:15000,resources:food:15000,resources:coin:7500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:17500,resources:stone:17500,resources:iron:17500,resources:food:17500,resources:coin:8750,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:20100,resources:stone:20100,resources:iron:20100,resources:food:20100,resources:coin:10050,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:22600,resources:coin:11300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:25100,resources:stone:25100,resources:iron:25100,resources:food:25100,resources:coin:12550,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:27600,resources:stone:27600,resources:iron:27600,resources:food:27600,resources:coin:13800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:30100,resources:stone:30100,resources:iron:30100,resources:food:30100,resources:coin:15050,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:32600,resources:stone:32600,resources:iron:32600,resources:food:32600,resources:coin:16300,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:35100,resources:stone:35100,resources:iron:35100,resources:food:35100,resources:coin:17550,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:37600,resources:stone:37600,resources:iron:37600,resources:food:37600,resources:coin:18800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:40100,resources:stone:40100,resources:iron:40100,resources:food:40100,resources:coin:20050,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:42600,resources:coin:21300,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:45200,resources:stone:45200,resources:iron:45200,resources:food:45200,resources:coin:22600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:47700,resources:stone:47700,resources:iron:47700,resources:food:47700,resources:coin:23850,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:50200,resources:stone:50200,resources:iron:50200,resources:food:50200,resources:coin:25100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:52800,resources:stone:52800,resources:iron:52800,resources:food:52800,resources:coin:26400,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:55300,resources:stone:55300,resources:iron:55300,resources:food:55300,resources:coin:27650,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:57800,resources:stone:57800,resources:iron:57800,resources:food:57800,resources:coin:28900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:60400,resources:stone:60400,resources:iron:60400,resources:food:60400,resources:coin:30200,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:62900,resources:stone:62900,resources:iron:62900,resources:food:62900,resources:coin:31450,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:65500,resources:stone:65500,resources:iron:65500,resources:food:65500,resources:coin:32750,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:68000,resources:stone:68000,resources:iron:68000,resources:food:68000,resources:coin:34000,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:70600,resources:stone:70600,resources:iron:70600,resources:food:70600,resources:coin:35300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:73200,resources:coin:36600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:75700,resources:stone:75700,resources:iron:75700,resources:food:75700,resources:coin:37850,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:78300,resources:stone:78300,resources:iron:78300,resources:food:78300,resources:coin:39150,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:80900,resources:stone:80900,resources:iron:80900,resources:food:80900,resources:coin:40450,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:83500,resources:stone:83500,resources:iron:83500,resources:food:83500,resources:coin:41750,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:86100,resources:stone:86100,resources:iron:86100,resources:food:86100,resources:coin:43050,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:88800,resources:stone:88800,resources:iron:88800,resources:food:88800,resources:coin:44400,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:91400,resources:stone:91400,resources:iron:91400,resources:food:91400,resources:coin:45700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:94100,resources:stone:94100,resources:iron:94100,resources:food:94100,resources:coin:47050,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:96800,resources:stone:96800,resources:iron:96800,resources:food:96800,resources:coin:48400,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:99500,resources:stone:99500,resources:iron:99500,resources:food:99500,resources:coin:49750,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:102200,resources:stone:102200,resources:iron:102200,resources:food:102200,resources:coin:51100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:104900,resources:stone:104900,resources:iron:104900,resources:food:104900,resources:coin:52450,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:107700,resources:stone:107700,resources:iron:107700,resources:food:107700,resources:coin:53850,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:110500,resources:stone:110500,resources:iron:110500,resources:food:110500,resources:coin:55250,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:113400,resources:stone:113400,resources:iron:113400,resources:food:113400,resources:coin:56700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:116300,resources:stone:116300,resources:iron:116300,resources:food:116300,resources:coin:58150,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:119200,resources:stone:119200,resources:iron:119200,resources:food:119200,resources:coin:59600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:122100,resources:stone:122100,resources:iron:122100,resources:food:122100,resources:coin:61050,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:125200,resources:stone:125200,resources:iron:125200,resources:food:125200,resources:coin:62600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:128200,resources:stone:128200,resources:iron:128200,resources:food:128200,resources:coin:64100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:131400,resources:stone:131400,resources:iron:131400,resources:food:131400,resources:coin:65700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:134600,resources:coin:67300,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:137900,resources:stone:137900,resources:iron:137900,resources:food:137900,resources:coin:68950,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:141300,resources:stone:141300,resources:iron:141300,resources:food:141300,resources:coin:70650,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:144800,resources:stone:144800,resources:iron:144800,resources:food:144800,resources:coin:72400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:148400,resources:stone:148400,resources:iron:148400,resources:food:148400,resources:coin:74200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:152100,resources:stone:152100,resources:iron:152100,resources:food:152100,resources:coin:76050,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:155900,resources:stone:155900,resources:iron:155900,resources:food:155900,resources:coin:77950,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:159900,resources:stone:159900,resources:iron:159900,resources:food:159900,resources:coin:79950,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:164100,resources:stone:164100,resources:iron:164100,resources:food:164100,resources:coin:82050,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:168400,resources:stone:168400,resources:iron:168400,resources:food:168400,resources:coin:84200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:173000,resources:stone:173000,resources:iron:173000,resources:food:173000,resources:coin:86500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:177800,resources:stone:177800,resources:iron:177800,resources:food:177800,resources:coin:88900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:182800,resources:stone:182800,resources:iron:182800,resources:food:182800,resources:coin:91400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:188100,resources:stone:188100,resources:iron:188100,resources:food:188100,resources:coin:94050,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:193700,resources:stone:193700,resources:iron:193700,resources:food:193700,resources:coin:96850,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:199700,resources:stone:199700,resources:iron:199700,resources:food:199700,resources:coin:99850,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:206100,resources:stone:206100,resources:iron:206100,resources:food:206100,resources:coin:103050,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:212900,resources:stone:212900,resources:iron:212900,resources:food:212900,resources:coin:106450,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:220100,resources:stone:220100,resources:iron:220100,resources:food:220100,resources:coin:110050,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:227900,resources:stone:227900,resources:iron:227900,resources:food:227900,resources:coin:113950,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:236300,resources:stone:236300,resources:iron:236300,resources:food:236300,resources:coin:118150,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:245400,resources:stone:245400,resources:iron:245400,resources:food:245400,resources:coin:122700,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:255100,resources:stone:255100,resources:iron:255100,resources:food:255100,resources:coin:127550,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:265700,resources:stone:265700,resources:iron:265700,resources:food:265700,resources:coin:132850,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:277200,resources:stone:277200,resources:iron:277200,resources:food:277200,resources:coin:138600,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:289700,resources:stone:289700,resources:iron:289700,resources:food:289700,resources:coin:144850,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:303200,resources:stone:303200,resources:iron:303200,resources:food:303200,resources:coin:151600,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:318000,resources:stone:318000,resources:iron:318000,resources:food:318000,resources:coin:159000,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:334200,resources:stone:334200,resources:iron:334200,resources:food:334200,resources:coin:167100,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:351900,resources:stone:351900,resources:iron:351900,resources:food:351900,resources:coin:175950,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:371300,resources:stone:371300,resources:iron:371300,resources:food:371300,resources:coin:185650,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:392600,resources:stone:392600,resources:iron:392600,resources:food:392600,resources:coin:196300,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:415900,resources:stone:415900,resources:iron:415900,resources:food:415900,resources:coin:207950,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:441600,resources:stone:441600,resources:iron:441600,resources:food:441600,resources:coin:220800,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:469800,resources:stone:469800,resources:iron:469800,resources:food:469800,resources:coin:234900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:500900,resources:stone:500900,resources:iron:500900,resources:food:500900,resources:coin:250450,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:535200,resources:stone:535200,resources:iron:535200,resources:food:535200,resources:coin:267600,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:573000,resources:stone:573000,resources:iron:573000,resources:food:573000,resources:coin:286500,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:614700,resources:stone:614700,resources:iron:614700,resources:food:614700,resources:coin:307350,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:660800,resources:stone:660800,resources:iron:660800,resources:food:660800,resources:coin:330400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:711700,resources:stone:711700,resources:iron:711700,resources:food:711700,resources:coin:355850,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:768000,resources:stone:768000,resources:iron:768000,resources:food:768000,resources:coin:384000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:830300,resources:stone:830300,resources:iron:830300,resources:food:830300,resources:coin:415150,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:899300,resources:stone:899300,resources:iron:899300,resources:food:899300,resources:coin:449650,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:975600,resources:stone:975600,resources:iron:975600,resources:food:975600,resources:coin:487800,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1060100,resources:stone:1060100,resources:iron:1060100,resources:food:1060100,resources:coin:530050,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1153700,resources:stone:1153700,resources:iron:1153700,resources:food:1153700,resources:coin:576850,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1257400,resources:stone:1257400,resources:iron:1257400,resources:food:1257400,resources:coin:628700,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4249900,resources:stone:4249900,resources:iron:4249900,resources:food:4249900,resources:coin:2124950,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2372400,resources:stone:2372400,resources:iron:2372400,resources:food:2372400,resources:coin:1186200,resources:gem:500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+  </si>
+  <si>
+    <t>speedup_2</t>
+  </si>
+  <si>
+    <t>chest_1</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>moveTheCity</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>dragonCoinClass_2</t>
+  </si>
+  <si>
+    <t>stamina_2</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+  </si>
+  <si>
+    <t>vipPoint_1</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>dragonHp_3</t>
+  </si>
+  <si>
+    <t>dragonExp_1</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>heroBlood_1</t>
+  </si>
+  <si>
+    <t>dragonCoinClass_3</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>chest_4</t>
+  </si>
+  <si>
+    <t>vipActive_4</t>
+  </si>
+  <si>
+    <t>playerResourceProtectPercent</t>
+  </si>
+  <si>
     <t>玩家资源保护基础百分比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerResourceProtectPercent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙在相应地形下的力量加成比例</t>
   </si>
   <si>
     <t>dragonStrengthTerrainAddPercent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙在相应地形下的力量加成比例</t>
+  </si>
+  <si>
+    <t>STR_itemName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_count</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_floor</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1083,6 +1166,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1208,13 +1293,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="118">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1275,6 +1360,7 @@
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1328,6 +1414,7 @@
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1779,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2102,35 +2189,35 @@
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B31" s="1">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2793,14 +2880,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
-    <col min="4" max="4" width="65.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2830,7 +2917,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2844,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2858,7 +2945,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2872,7 +2959,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2886,7 +2973,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2900,7 +2987,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2914,7 +3001,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2928,7 +3015,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2942,7 +3029,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2956,7 +3043,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2970,7 +3057,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2984,7 +3071,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2998,7 +3085,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3012,7 +3099,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3026,7 +3113,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3040,7 +3127,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3054,7 +3141,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3068,7 +3155,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3082,7 +3169,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3096,7 +3183,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3110,7 +3197,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3124,7 +3211,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3138,7 +3225,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3152,7 +3239,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3166,7 +3253,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3180,7 +3267,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3194,7 +3281,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3208,7 +3295,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3222,7 +3309,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3236,7 +3323,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3250,7 +3337,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3264,7 +3351,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3278,7 +3365,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3292,7 +3379,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3306,7 +3393,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3320,7 +3407,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3334,7 +3421,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3348,7 +3435,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3362,7 +3449,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3376,7 +3463,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3390,7 +3477,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3404,7 +3491,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3418,7 +3505,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3432,7 +3519,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3446,7 +3533,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3460,7 +3547,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3474,7 +3561,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3488,7 +3575,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3502,7 +3589,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3516,7 +3603,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3530,7 +3617,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3544,7 +3631,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3558,7 +3645,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3572,7 +3659,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3586,7 +3673,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3600,7 +3687,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3614,7 +3701,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3628,7 +3715,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3642,7 +3729,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3656,7 +3743,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3670,7 +3757,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3684,7 +3771,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3698,7 +3785,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3712,7 +3799,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3726,7 +3813,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3740,7 +3827,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3754,7 +3841,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3768,7 +3855,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3782,7 +3869,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3796,7 +3883,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3810,7 +3897,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3824,7 +3911,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3838,7 +3925,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3852,7 +3939,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3866,7 +3953,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3880,7 +3967,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3894,7 +3981,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3908,7 +3995,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3922,7 +4009,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3936,7 +4023,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3950,7 +4037,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3964,7 +4051,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3978,7 +4065,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3992,7 +4079,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4006,7 +4093,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4020,7 +4107,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4034,7 +4121,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4048,7 +4135,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4062,7 +4149,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4076,7 +4163,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4090,7 +4177,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4104,7 +4191,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4118,7 +4205,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4132,7 +4219,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4146,7 +4233,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4160,7 +4247,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4174,7 +4261,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4187,8 +4274,8 @@
       <c r="C99" s="1">
         <v>20250000</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>233</v>
+      <c r="D99" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4202,7 +4289,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4215,8 +4302,311 @@
       <c r="C101" s="1">
         <v>32500000</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>235</v>
+      <c r="D101" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="840" windowWidth="33440" windowHeight="19100" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="1560" yWindow="1780" windowWidth="33440" windowHeight="19100" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="270">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1002,6 +1002,14 @@
   </si>
   <si>
     <t>INT_floor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpRecoverTerrainAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙在相应地形下的hp回复加成比例</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1159,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1166,6 +1174,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1299,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="122">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1361,6 +1373,8 @@
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1415,6 +1429,8 @@
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1864,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2214,10 +2230,21 @@
         <v>264</v>
       </c>
       <c r="B31" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1780" windowWidth="33440" windowHeight="19100" tabRatio="883"/>
+    <workbookView xWindow="240" yWindow="260" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
     <sheet name="pveLevel" sheetId="27" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="273">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -451,10 +454,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>firstIAPRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -571,10 +570,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_3:1,resource:stoneClass_3:1,resource:ironClass_3:1,resource:foodClass_3:1,resource:coinClass_2:1,resource:casinoTokenClass_1:1,speedup:speedup_3:2,speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>specialSoldierRecruitAbleDays</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -603,6 +598,306 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>resources:wood:5575,resources:stone:5575,resources:iron:5575,resources:food:5575,resources:coin:2788,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:11079,resources:stone:11079,resources:iron:11079,resources:food:11079,resources:coin:5540,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16583,resources:stone:16583,resources:iron:16583,resources:food:16583,resources:coin:8292,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22087,resources:stone:22087,resources:iron:22087,resources:food:22087,resources:coin:11044,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:27591,resources:stone:27591,resources:iron:27591,resources:food:27591,resources:coin:13796,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:33095,resources:stone:33095,resources:iron:33095,resources:food:33095,resources:coin:16548,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:38599,resources:stone:38599,resources:iron:38599,resources:food:38599,resources:coin:19300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:44103,resources:stone:44103,resources:iron:44103,resources:food:44103,resources:coin:22052,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:49607,resources:stone:49607,resources:iron:49607,resources:food:49607,resources:coin:24804,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:55111,resources:stone:55111,resources:iron:55111,resources:food:55111,resources:coin:27556,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:60615,resources:stone:60615,resources:iron:60615,resources:food:60615,resources:coin:30308,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:66119,resources:stone:66119,resources:iron:66119,resources:food:66119,resources:coin:33060,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:71630,resources:stone:71630,resources:iron:71630,resources:food:71630,resources:coin:35815,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:77144,resources:stone:77144,resources:iron:77144,resources:food:77144,resources:coin:38572,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:82660,resources:stone:82660,resources:iron:82660,resources:food:82660,resources:coin:41330,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:88178,resources:stone:88178,resources:iron:88178,resources:food:88178,resources:coin:44089,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:93698,resources:stone:93698,resources:iron:93698,resources:food:93698,resources:coin:46849,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:99220,resources:stone:99220,resources:iron:99220,resources:food:99220,resources:coin:49610,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:104745,resources:stone:104745,resources:iron:104745,resources:food:104745,resources:coin:52373,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:110272,resources:stone:110272,resources:iron:110272,resources:food:110272,resources:coin:55136,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:115802,resources:stone:115802,resources:iron:115802,resources:food:115802,resources:coin:57901,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:121336,resources:stone:121336,resources:iron:121336,resources:food:121336,resources:coin:60668,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:126874,resources:stone:126874,resources:iron:126874,resources:food:126874,resources:coin:63437,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:132415,resources:stone:132415,resources:iron:132415,resources:food:132415,resources:coin:66208,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:137961,resources:stone:137961,resources:iron:137961,resources:food:137961,resources:coin:68981,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:143513,resources:stone:143513,resources:iron:143513,resources:food:143513,resources:coin:71757,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:149070,resources:stone:149070,resources:iron:149070,resources:food:149070,resources:coin:74535,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:154633,resources:stone:154633,resources:iron:154633,resources:food:154633,resources:coin:77317,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:160204,resources:stone:160204,resources:iron:160204,resources:food:160204,resources:coin:80102,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:165782,resources:stone:165782,resources:iron:165782,resources:food:165782,resources:coin:82891,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:171369,resources:stone:171369,resources:iron:171369,resources:food:171369,resources:coin:85685,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:176966,resources:stone:176966,resources:iron:176966,resources:food:176966,resources:coin:88483,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:182573,resources:stone:182573,resources:iron:182573,resources:food:182573,resources:coin:91287,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:188193,resources:stone:188193,resources:iron:188193,resources:food:188193,resources:coin:94097,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:193825,resources:stone:193825,resources:iron:193825,resources:food:193825,resources:coin:96913,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:199473,resources:stone:199473,resources:iron:199473,resources:food:199473,resources:coin:99737,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:205137,resources:stone:205137,resources:iron:205137,resources:food:205137,resources:coin:102569,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:210818,resources:stone:210818,resources:iron:210818,resources:food:210818,resources:coin:105409,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:216521,resources:stone:216521,resources:iron:216521,resources:food:216521,resources:coin:108261,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:222245,resources:stone:222245,resources:iron:222245,resources:food:222245,resources:coin:111123,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:227995,resources:stone:227995,resources:iron:227995,resources:food:227995,resources:coin:113998,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:233772,resources:stone:233772,resources:iron:233772,resources:food:233772,resources:coin:116886,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:239580,resources:stone:239580,resources:iron:239580,resources:food:239580,resources:coin:119790,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:245423,resources:stone:245423,resources:iron:245423,resources:food:245423,resources:coin:122712,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:251303,resources:stone:251303,resources:iron:251303,resources:food:251303,resources:coin:125652,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:257226,resources:stone:257226,resources:iron:257226,resources:food:257226,resources:coin:128613,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:263195,resources:stone:263195,resources:iron:263195,resources:food:263195,resources:coin:131598,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:269217,resources:stone:269217,resources:iron:269217,resources:food:269217,resources:coin:134609,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:275297,resources:stone:275297,resources:iron:275297,resources:food:275297,resources:coin:137649,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:281441,resources:stone:281441,resources:iron:281441,resources:food:281441,resources:coin:140721,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:287657,resources:stone:287657,resources:iron:287657,resources:food:287657,resources:coin:143829,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:293952,resources:stone:293952,resources:iron:293952,resources:food:293952,resources:coin:146976,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:300336,resources:stone:300336,resources:iron:300336,resources:food:300336,resources:coin:150168,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:306818,resources:stone:306818,resources:iron:306818,resources:food:306818,resources:coin:153409,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:313409,resources:stone:313409,resources:iron:313409,resources:food:313409,resources:coin:156705,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:320121,resources:stone:320121,resources:iron:320121,resources:food:320121,resources:coin:160061,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:326968,resources:stone:326968,resources:iron:326968,resources:food:326968,resources:coin:163484,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:333965,resources:stone:333965,resources:iron:333965,resources:food:333965,resources:coin:166983,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:341127,resources:stone:341127,resources:iron:341127,resources:food:341127,resources:coin:170564,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:348475,resources:stone:348475,resources:iron:348475,resources:food:348475,resources:coin:174238,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:356028,resources:stone:356028,resources:iron:356028,resources:food:356028,resources:coin:178014,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:363809,resources:stone:363809,resources:iron:363809,resources:food:363809,resources:coin:181905,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:371843,resources:stone:371843,resources:iron:371843,resources:food:371843,resources:coin:185922,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:380159,resources:stone:380159,resources:iron:380159,resources:food:380159,resources:coin:190080,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:388788,resources:stone:388788,resources:iron:388788,resources:food:388788,resources:coin:194394,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:397765,resources:stone:397765,resources:iron:397765,resources:food:397765,resources:coin:198883,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:407128,resources:stone:407128,resources:iron:407128,resources:food:407128,resources:coin:203564,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:416920,resources:stone:416920,resources:iron:416920,resources:food:416920,resources:coin:208460,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:427189,resources:stone:427189,resources:iron:427189,resources:food:427189,resources:coin:213595,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:437988,resources:stone:437988,resources:iron:437988,resources:food:437988,resources:coin:218994,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:449376,resources:stone:449376,resources:iron:449376,resources:food:449376,resources:coin:224688,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:461417,resources:stone:461417,resources:iron:461417,resources:food:461417,resources:coin:230709,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:474186,resources:stone:474186,resources:iron:474186,resources:food:474186,resources:coin:237093,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:487763,resources:stone:487763,resources:iron:487763,resources:food:487763,resources:coin:243882,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:502236,resources:stone:502236,resources:iron:502236,resources:food:502236,resources:coin:251118,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:517707,resources:stone:517707,resources:iron:517707,resources:food:517707,resources:coin:258854,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:534286,resources:stone:534286,resources:iron:534286,resources:food:534286,resources:coin:267143,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:552095,resources:stone:552095,resources:iron:552095,resources:food:552095,resources:coin:276048,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:571273,resources:stone:571273,resources:iron:571273,resources:food:571273,resources:coin:285637,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:591970,resources:stone:591970,resources:iron:591970,resources:food:591970,resources:coin:295985,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:614355,resources:stone:614355,resources:iron:614355,resources:food:614355,resources:coin:307178,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:638617,resources:stone:638617,resources:iron:638617,resources:food:638617,resources:coin:319309,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:664964,resources:stone:664964,resources:iron:664964,resources:food:664964,resources:coin:332482,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:693627,resources:stone:693627,resources:iron:693627,resources:food:693627,resources:coin:346814,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:724863,resources:stone:724863,resources:iron:724863,resources:food:724863,resources:coin:362432,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:758959,resources:stone:758959,resources:iron:758959,resources:food:758959,resources:coin:379480,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:796232,resources:stone:796232,resources:iron:796232,resources:food:796232,resources:coin:398116,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:837036,resources:stone:837036,resources:iron:837036,resources:food:837036,resources:coin:418518,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:881762,resources:stone:881762,resources:iron:881762,resources:food:881762,resources:coin:440881,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:930847,resources:stone:930847,resources:iron:930847,resources:food:930847,resources:coin:465424,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:984775,resources:stone:984775,resources:iron:984775,resources:food:984775,resources:coin:492388,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1044083,resources:stone:1044083,resources:iron:1044083,resources:food:1044083,resources:coin:522042,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1109370,resources:stone:1109370,resources:iron:1109370,resources:food:1109370,resources:coin:554685,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1181300,resources:stone:1181300,resources:iron:1181300,resources:food:1181300,resources:coin:590650,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1260612,resources:stone:1260612,resources:iron:1260612,resources:food:1260612,resources:coin:630306,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1348124,resources:stone:1348124,resources:iron:1348124,resources:food:1348124,resources:coin:674062,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1444749,resources:stone:1444749,resources:iron:1444749,resources:food:1444749,resources:coin:722375,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1551499,resources:stone:1551499,resources:iron:1551499,resources:food:1551499,resources:coin:775750,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2669499,resources:stone:2669499,resources:iron:2669499,resources:food:2669499,resources:coin:1334750,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4549999,resources:stone:4549999,resources:iron:4549999,resources:food:4549999,resources:coin:2275000,resources:gem:500</t>
+  </si>
+  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -611,405 +906,126 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:2500,resources:stone:2500,resources:iron:2500,resources:food:2500,resources:coin:1250,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:5000,resources:stone:5000,resources:iron:5000,resources:food:5000,resources:coin:2500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:7500,resources:coin:3750,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10000,resources:stone:10000,resources:iron:10000,resources:food:10000,resources:coin:5000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:12500,resources:stone:12500,resources:iron:12500,resources:food:12500,resources:coin:6250,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:15000,resources:stone:15000,resources:iron:15000,resources:food:15000,resources:coin:7500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:17500,resources:stone:17500,resources:iron:17500,resources:food:17500,resources:coin:8750,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:20100,resources:stone:20100,resources:iron:20100,resources:food:20100,resources:coin:10050,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:22600,resources:coin:11300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:25100,resources:stone:25100,resources:iron:25100,resources:food:25100,resources:coin:12550,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:27600,resources:stone:27600,resources:iron:27600,resources:food:27600,resources:coin:13800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30100,resources:stone:30100,resources:iron:30100,resources:food:30100,resources:coin:15050,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:32600,resources:stone:32600,resources:iron:32600,resources:food:32600,resources:coin:16300,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:35100,resources:stone:35100,resources:iron:35100,resources:food:35100,resources:coin:17550,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:37600,resources:stone:37600,resources:iron:37600,resources:food:37600,resources:coin:18800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:40100,resources:stone:40100,resources:iron:40100,resources:food:40100,resources:coin:20050,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:42600,resources:coin:21300,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:45200,resources:stone:45200,resources:iron:45200,resources:food:45200,resources:coin:22600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:47700,resources:stone:47700,resources:iron:47700,resources:food:47700,resources:coin:23850,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:50200,resources:stone:50200,resources:iron:50200,resources:food:50200,resources:coin:25100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:52800,resources:stone:52800,resources:iron:52800,resources:food:52800,resources:coin:26400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:55300,resources:stone:55300,resources:iron:55300,resources:food:55300,resources:coin:27650,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:57800,resources:stone:57800,resources:iron:57800,resources:food:57800,resources:coin:28900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:60400,resources:stone:60400,resources:iron:60400,resources:food:60400,resources:coin:30200,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:62900,resources:stone:62900,resources:iron:62900,resources:food:62900,resources:coin:31450,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:65500,resources:stone:65500,resources:iron:65500,resources:food:65500,resources:coin:32750,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:68000,resources:stone:68000,resources:iron:68000,resources:food:68000,resources:coin:34000,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:70600,resources:stone:70600,resources:iron:70600,resources:food:70600,resources:coin:35300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:73200,resources:coin:36600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:75700,resources:stone:75700,resources:iron:75700,resources:food:75700,resources:coin:37850,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:78300,resources:stone:78300,resources:iron:78300,resources:food:78300,resources:coin:39150,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:80900,resources:stone:80900,resources:iron:80900,resources:food:80900,resources:coin:40450,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:83500,resources:stone:83500,resources:iron:83500,resources:food:83500,resources:coin:41750,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:86100,resources:stone:86100,resources:iron:86100,resources:food:86100,resources:coin:43050,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:88800,resources:stone:88800,resources:iron:88800,resources:food:88800,resources:coin:44400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:91400,resources:stone:91400,resources:iron:91400,resources:food:91400,resources:coin:45700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:94100,resources:stone:94100,resources:iron:94100,resources:food:94100,resources:coin:47050,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:96800,resources:stone:96800,resources:iron:96800,resources:food:96800,resources:coin:48400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:99500,resources:stone:99500,resources:iron:99500,resources:food:99500,resources:coin:49750,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:102200,resources:stone:102200,resources:iron:102200,resources:food:102200,resources:coin:51100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:104900,resources:stone:104900,resources:iron:104900,resources:food:104900,resources:coin:52450,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:107700,resources:stone:107700,resources:iron:107700,resources:food:107700,resources:coin:53850,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:110500,resources:stone:110500,resources:iron:110500,resources:food:110500,resources:coin:55250,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:113400,resources:stone:113400,resources:iron:113400,resources:food:113400,resources:coin:56700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:116300,resources:stone:116300,resources:iron:116300,resources:food:116300,resources:coin:58150,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:119200,resources:stone:119200,resources:iron:119200,resources:food:119200,resources:coin:59600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:122100,resources:stone:122100,resources:iron:122100,resources:food:122100,resources:coin:61050,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:125200,resources:stone:125200,resources:iron:125200,resources:food:125200,resources:coin:62600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:128200,resources:stone:128200,resources:iron:128200,resources:food:128200,resources:coin:64100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:131400,resources:stone:131400,resources:iron:131400,resources:food:131400,resources:coin:65700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:134600,resources:coin:67300,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:137900,resources:stone:137900,resources:iron:137900,resources:food:137900,resources:coin:68950,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:141300,resources:stone:141300,resources:iron:141300,resources:food:141300,resources:coin:70650,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:144800,resources:stone:144800,resources:iron:144800,resources:food:144800,resources:coin:72400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:148400,resources:stone:148400,resources:iron:148400,resources:food:148400,resources:coin:74200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:152100,resources:stone:152100,resources:iron:152100,resources:food:152100,resources:coin:76050,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:155900,resources:stone:155900,resources:iron:155900,resources:food:155900,resources:coin:77950,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:159900,resources:stone:159900,resources:iron:159900,resources:food:159900,resources:coin:79950,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:164100,resources:stone:164100,resources:iron:164100,resources:food:164100,resources:coin:82050,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:168400,resources:stone:168400,resources:iron:168400,resources:food:168400,resources:coin:84200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:173000,resources:stone:173000,resources:iron:173000,resources:food:173000,resources:coin:86500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:177800,resources:stone:177800,resources:iron:177800,resources:food:177800,resources:coin:88900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:182800,resources:stone:182800,resources:iron:182800,resources:food:182800,resources:coin:91400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:188100,resources:stone:188100,resources:iron:188100,resources:food:188100,resources:coin:94050,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:193700,resources:stone:193700,resources:iron:193700,resources:food:193700,resources:coin:96850,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:199700,resources:stone:199700,resources:iron:199700,resources:food:199700,resources:coin:99850,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:206100,resources:stone:206100,resources:iron:206100,resources:food:206100,resources:coin:103050,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:212900,resources:stone:212900,resources:iron:212900,resources:food:212900,resources:coin:106450,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:220100,resources:stone:220100,resources:iron:220100,resources:food:220100,resources:coin:110050,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:227900,resources:stone:227900,resources:iron:227900,resources:food:227900,resources:coin:113950,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:236300,resources:stone:236300,resources:iron:236300,resources:food:236300,resources:coin:118150,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:245400,resources:stone:245400,resources:iron:245400,resources:food:245400,resources:coin:122700,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:255100,resources:stone:255100,resources:iron:255100,resources:food:255100,resources:coin:127550,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:265700,resources:stone:265700,resources:iron:265700,resources:food:265700,resources:coin:132850,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:277200,resources:stone:277200,resources:iron:277200,resources:food:277200,resources:coin:138600,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:289700,resources:stone:289700,resources:iron:289700,resources:food:289700,resources:coin:144850,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:303200,resources:stone:303200,resources:iron:303200,resources:food:303200,resources:coin:151600,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:318000,resources:stone:318000,resources:iron:318000,resources:food:318000,resources:coin:159000,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:334200,resources:stone:334200,resources:iron:334200,resources:food:334200,resources:coin:167100,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:351900,resources:stone:351900,resources:iron:351900,resources:food:351900,resources:coin:175950,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:371300,resources:stone:371300,resources:iron:371300,resources:food:371300,resources:coin:185650,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:392600,resources:stone:392600,resources:iron:392600,resources:food:392600,resources:coin:196300,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:415900,resources:stone:415900,resources:iron:415900,resources:food:415900,resources:coin:207950,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:441600,resources:stone:441600,resources:iron:441600,resources:food:441600,resources:coin:220800,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:469800,resources:stone:469800,resources:iron:469800,resources:food:469800,resources:coin:234900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:500900,resources:stone:500900,resources:iron:500900,resources:food:500900,resources:coin:250450,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:535200,resources:stone:535200,resources:iron:535200,resources:food:535200,resources:coin:267600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:573000,resources:stone:573000,resources:iron:573000,resources:food:573000,resources:coin:286500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:614700,resources:stone:614700,resources:iron:614700,resources:food:614700,resources:coin:307350,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:660800,resources:stone:660800,resources:iron:660800,resources:food:660800,resources:coin:330400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:711700,resources:stone:711700,resources:iron:711700,resources:food:711700,resources:coin:355850,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:768000,resources:stone:768000,resources:iron:768000,resources:food:768000,resources:coin:384000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:830300,resources:stone:830300,resources:iron:830300,resources:food:830300,resources:coin:415150,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:899300,resources:stone:899300,resources:iron:899300,resources:food:899300,resources:coin:449650,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:975600,resources:stone:975600,resources:iron:975600,resources:food:975600,resources:coin:487800,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1060100,resources:stone:1060100,resources:iron:1060100,resources:food:1060100,resources:coin:530050,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1153700,resources:stone:1153700,resources:iron:1153700,resources:food:1153700,resources:coin:576850,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1257400,resources:stone:1257400,resources:iron:1257400,resources:food:1257400,resources:coin:628700,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4249900,resources:stone:4249900,resources:iron:4249900,resources:food:4249900,resources:coin:2124950,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2372400,resources:stone:2372400,resources:iron:2372400,resources:food:2372400,resources:coin:1186200,resources:gem:500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>玩家资源保护基础百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerResourceProtectPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonStrengthTerrainAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙在相应地形下的力量加成比例</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff:quarterMaster_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpRecoverTerrainAddPercent</t>
+  </si>
+  <si>
+    <t>龙在相应地形下的hp回复加成比例</t>
+  </si>
+  <si>
+    <t>vipActive_4</t>
+  </si>
+  <si>
+    <t>chest_4</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>dragonCoinClass_3</t>
+  </si>
+  <si>
+    <t>heroBlood_1</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExp_1</t>
+  </si>
+  <si>
+    <t>dragonHp_3</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>vipPoint_1</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>stamina_2</t>
+  </si>
+  <si>
+    <t>chest_1</t>
+  </si>
+  <si>
+    <t>dragonCoinClass_2</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>moveTheCity</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>speedup_2</t>
   </si>
   <si>
     <t>speedup_1</t>
   </si>
   <si>
-    <t>speedup_2</t>
-  </si>
-  <si>
-    <t>chest_1</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>moveTheCity</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>dragonCoinClass_2</t>
-  </si>
-  <si>
-    <t>stamina_2</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-  </si>
-  <si>
-    <t>vipPoint_1</t>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>dragonHp_3</t>
-  </si>
-  <si>
-    <t>dragonExp_1</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>heroBlood_1</t>
-  </si>
-  <si>
-    <t>dragonCoinClass_3</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>chest_4</t>
-  </si>
-  <si>
-    <t>vipActive_4</t>
-  </si>
-  <si>
-    <t>playerResourceProtectPercent</t>
-  </si>
-  <si>
-    <t>玩家资源保护基础百分比</t>
-  </si>
-  <si>
-    <t>龙在相应地形下的力量加成比例</t>
-  </si>
-  <si>
-    <t>dragonStrengthTerrainAddPercent</t>
+    <t>INT_count</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>STR_itemName</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_count</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_floor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpRecoverTerrainAddPercent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙在相应地形下的hp回复加成比例</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1303,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,9 +1321,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,6 +1525,33 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="intInit"/>
+      <sheetName val="stringInit"/>
+      <sheetName val="resources"/>
+      <sheetName val="materials"/>
+      <sheetName val="soldierMaterials"/>
+      <sheetName val="dragonMaterials"/>
+      <sheetName val="houses"/>
+      <sheetName val="playerLevel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1882,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2062,189 +2108,189 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1">
         <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1">
         <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
         <v>10000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1">
         <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B32" s="1">
         <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2264,13 +2310,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" customWidth="1"/>
+    <col min="2" max="2" width="162.83203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2285,57 +2331,57 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2907,14 +2953,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView showRuler="0" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
-    <col min="4" max="4" width="123.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2944,7 +2990,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2958,7 +3004,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2972,7 +3018,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2986,7 +3032,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3000,7 +3046,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3014,7 +3060,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3028,7 +3074,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3042,7 +3088,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3056,7 +3102,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3070,7 +3116,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3084,7 +3130,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3098,7 +3144,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3112,7 +3158,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3126,7 +3172,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3140,7 +3186,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3154,7 +3200,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3168,7 +3214,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3182,7 +3228,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3196,7 +3242,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3210,7 +3256,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3224,7 +3270,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3238,7 +3284,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3252,7 +3298,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3266,7 +3312,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3280,7 +3326,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3294,7 +3340,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3308,7 +3354,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3322,7 +3368,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3336,7 +3382,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3350,7 +3396,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3364,7 +3410,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3378,7 +3424,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3392,7 +3438,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3406,7 +3452,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3420,7 +3466,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3434,7 +3480,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3448,7 +3494,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3462,7 +3508,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3476,7 +3522,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3490,7 +3536,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3504,7 +3550,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3518,7 +3564,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3532,7 +3578,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3546,7 +3592,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3560,7 +3606,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3574,7 +3620,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3588,7 +3634,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3602,7 +3648,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3616,7 +3662,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3630,7 +3676,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3644,7 +3690,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3658,7 +3704,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3672,7 +3718,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3686,7 +3732,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3700,7 +3746,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3714,7 +3760,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3728,7 +3774,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3742,7 +3788,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3756,7 +3802,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3770,7 +3816,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3784,7 +3830,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3798,7 +3844,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3812,7 +3858,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3826,7 +3872,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3840,7 +3886,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3854,7 +3900,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3868,7 +3914,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3882,7 +3928,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3896,7 +3942,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3910,7 +3956,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3924,7 +3970,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3938,7 +3984,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3952,7 +3998,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3966,7 +4012,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3980,7 +4026,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3994,7 +4040,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4008,7 +4054,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4022,7 +4068,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4036,7 +4082,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4050,7 +4096,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4064,7 +4110,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4078,7 +4124,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4092,7 +4138,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4106,7 +4152,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4120,7 +4166,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4134,7 +4180,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4148,7 +4194,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4162,7 +4208,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4176,7 +4222,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4190,7 +4236,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4204,7 +4250,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4218,7 +4264,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4232,7 +4278,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4246,7 +4292,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4260,7 +4306,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4274,7 +4320,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4288,7 +4334,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4301,8 +4347,8 @@
       <c r="C99" s="1">
         <v>20250000</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>235</v>
+      <c r="D99" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4316,7 +4362,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4329,8 +4375,8 @@
       <c r="C101" s="1">
         <v>32500000</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>236</v>
+      <c r="D101" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4349,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4362,13 +4408,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4376,8 +4422,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>238</v>
+      <c r="B2" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -4387,8 +4433,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>239</v>
+      <c r="B3" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -4398,8 +4444,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>240</v>
+      <c r="B4" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4409,8 +4455,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>241</v>
+      <c r="B5" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -4420,8 +4466,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>242</v>
+      <c r="B6" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -4431,8 +4477,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>243</v>
+      <c r="B7" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4442,8 +4488,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>244</v>
+      <c r="B8" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4453,8 +4499,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>245</v>
+      <c r="B9" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -4464,8 +4510,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>240</v>
+      <c r="B10" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -4475,8 +4521,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>246</v>
+      <c r="B11" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4486,8 +4532,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>247</v>
+      <c r="B12" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -4497,8 +4543,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>248</v>
+      <c r="B13" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -4508,8 +4554,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>249</v>
+      <c r="B14" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -4519,8 +4565,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>250</v>
+      <c r="B15" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4530,8 +4576,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>251</v>
+      <c r="B16" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4541,8 +4587,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>252</v>
+      <c r="B17" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -4552,8 +4598,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>253</v>
+      <c r="B18" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4563,8 +4609,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>254</v>
+      <c r="B19" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4574,8 +4620,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>255</v>
+      <c r="B20" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -4585,8 +4631,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>256</v>
+      <c r="B21" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -4596,8 +4642,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>257</v>
+      <c r="B22" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -4607,8 +4653,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>258</v>
+      <c r="B23" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -4618,8 +4664,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>259</v>
+      <c r="B24" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4629,8 +4675,8 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>260</v>
+      <c r="B25" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="260" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
     <sheet name="pveLevel" sheetId="27" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="267">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -598,306 +595,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:5575,resources:stone:5575,resources:iron:5575,resources:food:5575,resources:coin:2788,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:11079,resources:stone:11079,resources:iron:11079,resources:food:11079,resources:coin:5540,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16583,resources:stone:16583,resources:iron:16583,resources:food:16583,resources:coin:8292,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22087,resources:stone:22087,resources:iron:22087,resources:food:22087,resources:coin:11044,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:27591,resources:stone:27591,resources:iron:27591,resources:food:27591,resources:coin:13796,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:33095,resources:stone:33095,resources:iron:33095,resources:food:33095,resources:coin:16548,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:38599,resources:stone:38599,resources:iron:38599,resources:food:38599,resources:coin:19300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:44103,resources:stone:44103,resources:iron:44103,resources:food:44103,resources:coin:22052,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:49607,resources:stone:49607,resources:iron:49607,resources:food:49607,resources:coin:24804,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:55111,resources:stone:55111,resources:iron:55111,resources:food:55111,resources:coin:27556,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:60615,resources:stone:60615,resources:iron:60615,resources:food:60615,resources:coin:30308,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:66119,resources:stone:66119,resources:iron:66119,resources:food:66119,resources:coin:33060,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:71630,resources:stone:71630,resources:iron:71630,resources:food:71630,resources:coin:35815,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:77144,resources:stone:77144,resources:iron:77144,resources:food:77144,resources:coin:38572,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:82660,resources:stone:82660,resources:iron:82660,resources:food:82660,resources:coin:41330,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:88178,resources:stone:88178,resources:iron:88178,resources:food:88178,resources:coin:44089,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:93698,resources:stone:93698,resources:iron:93698,resources:food:93698,resources:coin:46849,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:99220,resources:stone:99220,resources:iron:99220,resources:food:99220,resources:coin:49610,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:104745,resources:stone:104745,resources:iron:104745,resources:food:104745,resources:coin:52373,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:110272,resources:stone:110272,resources:iron:110272,resources:food:110272,resources:coin:55136,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:115802,resources:stone:115802,resources:iron:115802,resources:food:115802,resources:coin:57901,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:121336,resources:stone:121336,resources:iron:121336,resources:food:121336,resources:coin:60668,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:126874,resources:stone:126874,resources:iron:126874,resources:food:126874,resources:coin:63437,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:132415,resources:stone:132415,resources:iron:132415,resources:food:132415,resources:coin:66208,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:137961,resources:stone:137961,resources:iron:137961,resources:food:137961,resources:coin:68981,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:143513,resources:stone:143513,resources:iron:143513,resources:food:143513,resources:coin:71757,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:149070,resources:stone:149070,resources:iron:149070,resources:food:149070,resources:coin:74535,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:154633,resources:stone:154633,resources:iron:154633,resources:food:154633,resources:coin:77317,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:160204,resources:stone:160204,resources:iron:160204,resources:food:160204,resources:coin:80102,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:165782,resources:stone:165782,resources:iron:165782,resources:food:165782,resources:coin:82891,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:171369,resources:stone:171369,resources:iron:171369,resources:food:171369,resources:coin:85685,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:176966,resources:stone:176966,resources:iron:176966,resources:food:176966,resources:coin:88483,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:182573,resources:stone:182573,resources:iron:182573,resources:food:182573,resources:coin:91287,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:188193,resources:stone:188193,resources:iron:188193,resources:food:188193,resources:coin:94097,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:193825,resources:stone:193825,resources:iron:193825,resources:food:193825,resources:coin:96913,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:199473,resources:stone:199473,resources:iron:199473,resources:food:199473,resources:coin:99737,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:205137,resources:stone:205137,resources:iron:205137,resources:food:205137,resources:coin:102569,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:210818,resources:stone:210818,resources:iron:210818,resources:food:210818,resources:coin:105409,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:216521,resources:stone:216521,resources:iron:216521,resources:food:216521,resources:coin:108261,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:222245,resources:stone:222245,resources:iron:222245,resources:food:222245,resources:coin:111123,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:227995,resources:stone:227995,resources:iron:227995,resources:food:227995,resources:coin:113998,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:233772,resources:stone:233772,resources:iron:233772,resources:food:233772,resources:coin:116886,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:239580,resources:stone:239580,resources:iron:239580,resources:food:239580,resources:coin:119790,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:245423,resources:stone:245423,resources:iron:245423,resources:food:245423,resources:coin:122712,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:251303,resources:stone:251303,resources:iron:251303,resources:food:251303,resources:coin:125652,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:257226,resources:stone:257226,resources:iron:257226,resources:food:257226,resources:coin:128613,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:263195,resources:stone:263195,resources:iron:263195,resources:food:263195,resources:coin:131598,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:269217,resources:stone:269217,resources:iron:269217,resources:food:269217,resources:coin:134609,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:275297,resources:stone:275297,resources:iron:275297,resources:food:275297,resources:coin:137649,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:281441,resources:stone:281441,resources:iron:281441,resources:food:281441,resources:coin:140721,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:287657,resources:stone:287657,resources:iron:287657,resources:food:287657,resources:coin:143829,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:293952,resources:stone:293952,resources:iron:293952,resources:food:293952,resources:coin:146976,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:300336,resources:stone:300336,resources:iron:300336,resources:food:300336,resources:coin:150168,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:306818,resources:stone:306818,resources:iron:306818,resources:food:306818,resources:coin:153409,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:313409,resources:stone:313409,resources:iron:313409,resources:food:313409,resources:coin:156705,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:320121,resources:stone:320121,resources:iron:320121,resources:food:320121,resources:coin:160061,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:326968,resources:stone:326968,resources:iron:326968,resources:food:326968,resources:coin:163484,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:333965,resources:stone:333965,resources:iron:333965,resources:food:333965,resources:coin:166983,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:341127,resources:stone:341127,resources:iron:341127,resources:food:341127,resources:coin:170564,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:348475,resources:stone:348475,resources:iron:348475,resources:food:348475,resources:coin:174238,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:356028,resources:stone:356028,resources:iron:356028,resources:food:356028,resources:coin:178014,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:363809,resources:stone:363809,resources:iron:363809,resources:food:363809,resources:coin:181905,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:371843,resources:stone:371843,resources:iron:371843,resources:food:371843,resources:coin:185922,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:380159,resources:stone:380159,resources:iron:380159,resources:food:380159,resources:coin:190080,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:388788,resources:stone:388788,resources:iron:388788,resources:food:388788,resources:coin:194394,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:397765,resources:stone:397765,resources:iron:397765,resources:food:397765,resources:coin:198883,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:407128,resources:stone:407128,resources:iron:407128,resources:food:407128,resources:coin:203564,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:416920,resources:stone:416920,resources:iron:416920,resources:food:416920,resources:coin:208460,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:427189,resources:stone:427189,resources:iron:427189,resources:food:427189,resources:coin:213595,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:437988,resources:stone:437988,resources:iron:437988,resources:food:437988,resources:coin:218994,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:449376,resources:stone:449376,resources:iron:449376,resources:food:449376,resources:coin:224688,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:461417,resources:stone:461417,resources:iron:461417,resources:food:461417,resources:coin:230709,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:474186,resources:stone:474186,resources:iron:474186,resources:food:474186,resources:coin:237093,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:487763,resources:stone:487763,resources:iron:487763,resources:food:487763,resources:coin:243882,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:502236,resources:stone:502236,resources:iron:502236,resources:food:502236,resources:coin:251118,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:517707,resources:stone:517707,resources:iron:517707,resources:food:517707,resources:coin:258854,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:534286,resources:stone:534286,resources:iron:534286,resources:food:534286,resources:coin:267143,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:552095,resources:stone:552095,resources:iron:552095,resources:food:552095,resources:coin:276048,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:571273,resources:stone:571273,resources:iron:571273,resources:food:571273,resources:coin:285637,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:591970,resources:stone:591970,resources:iron:591970,resources:food:591970,resources:coin:295985,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:614355,resources:stone:614355,resources:iron:614355,resources:food:614355,resources:coin:307178,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:638617,resources:stone:638617,resources:iron:638617,resources:food:638617,resources:coin:319309,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:664964,resources:stone:664964,resources:iron:664964,resources:food:664964,resources:coin:332482,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:693627,resources:stone:693627,resources:iron:693627,resources:food:693627,resources:coin:346814,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:724863,resources:stone:724863,resources:iron:724863,resources:food:724863,resources:coin:362432,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:758959,resources:stone:758959,resources:iron:758959,resources:food:758959,resources:coin:379480,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:796232,resources:stone:796232,resources:iron:796232,resources:food:796232,resources:coin:398116,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:837036,resources:stone:837036,resources:iron:837036,resources:food:837036,resources:coin:418518,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:881762,resources:stone:881762,resources:iron:881762,resources:food:881762,resources:coin:440881,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:930847,resources:stone:930847,resources:iron:930847,resources:food:930847,resources:coin:465424,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:984775,resources:stone:984775,resources:iron:984775,resources:food:984775,resources:coin:492388,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1044083,resources:stone:1044083,resources:iron:1044083,resources:food:1044083,resources:coin:522042,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1109370,resources:stone:1109370,resources:iron:1109370,resources:food:1109370,resources:coin:554685,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1181300,resources:stone:1181300,resources:iron:1181300,resources:food:1181300,resources:coin:590650,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1260612,resources:stone:1260612,resources:iron:1260612,resources:food:1260612,resources:coin:630306,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1348124,resources:stone:1348124,resources:iron:1348124,resources:food:1348124,resources:coin:674062,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1444749,resources:stone:1444749,resources:iron:1444749,resources:food:1444749,resources:coin:722375,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1551499,resources:stone:1551499,resources:iron:1551499,resources:food:1551499,resources:coin:775750,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2669499,resources:stone:2669499,resources:iron:2669499,resources:food:2669499,resources:coin:1334750,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4549999,resources:stone:4549999,resources:iron:4549999,resources:food:4549999,resources:coin:2275000,resources:gem:500</t>
-  </si>
-  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -948,75 +645,6 @@
     <t>龙在相应地形下的hp回复加成比例</t>
   </si>
   <si>
-    <t>vipActive_4</t>
-  </si>
-  <si>
-    <t>chest_4</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>dragonCoinClass_3</t>
-  </si>
-  <si>
-    <t>heroBlood_1</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExp_1</t>
-  </si>
-  <si>
-    <t>dragonHp_3</t>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>vipPoint_1</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>stamina_2</t>
-  </si>
-  <si>
-    <t>chest_1</t>
-  </si>
-  <si>
-    <t>dragonCoinClass_2</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>moveTheCity</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>speedup_2</t>
-  </si>
-  <si>
-    <t>speedup_1</t>
-  </si>
-  <si>
     <t>INT_count</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1026,6 +654,374 @@
   </si>
   <si>
     <t>INT_floor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000,resources:coin:500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:2000,resources:stone:2000,resources:iron:2000,resources:food:2000,resources:coin:1000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:3000,resources:coin:1500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:4000,resources:stone:4000,resources:iron:4000,resources:food:4000,resources:coin:2000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:5000,resources:stone:5000,resources:iron:5000,resources:food:5000,resources:coin:2500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:6000,resources:coin:3000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:7000,resources:stone:7000,resources:iron:7000,resources:food:7000,resources:coin:3500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:8100,resources:stone:8100,resources:iron:8100,resources:food:8100,resources:coin:4050,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:9100,resources:stone:9100,resources:iron:9100,resources:food:9100,resources:coin:4550,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:10100,resources:stone:10100,resources:iron:10100,resources:food:10100,resources:coin:5050,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:11100,resources:stone:11100,resources:iron:11100,resources:food:11100,resources:coin:5550,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:12100,resources:coin:6050,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:13100,resources:stone:13100,resources:iron:13100,resources:food:13100,resources:coin:6550,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:14100,resources:stone:14100,resources:iron:14100,resources:food:14100,resources:coin:7050,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:15100,resources:coin:7550,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:16100,resources:coin:8050,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:17100,resources:stone:17100,resources:iron:17100,resources:food:17100,resources:coin:8550,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:18200,resources:coin:9100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:19200,resources:stone:19200,resources:iron:19200,resources:food:19200,resources:coin:9600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:20200,resources:stone:20200,resources:iron:20200,resources:food:20200,resources:coin:10100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:21300,resources:coin:10650,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:22300,resources:stone:22300,resources:iron:22300,resources:food:22300,resources:coin:11150,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:23300,resources:stone:23300,resources:iron:23300,resources:food:23300,resources:coin:11650,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:24400,resources:coin:12200,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:25400,resources:stone:25400,resources:iron:25400,resources:food:25400,resources:coin:12700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:26500,resources:stone:26500,resources:iron:26500,resources:food:26500,resources:coin:13250,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:27500,resources:stone:27500,resources:iron:27500,resources:food:27500,resources:coin:13750,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:28600,resources:stone:28600,resources:iron:28600,resources:food:28600,resources:coin:14300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:29700,resources:stone:29700,resources:iron:29700,resources:food:29700,resources:coin:14850,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:30700,resources:stone:30700,resources:iron:30700,resources:food:30700,resources:coin:15350,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:31800,resources:coin:15900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:32900,resources:stone:32900,resources:iron:32900,resources:food:32900,resources:coin:16450,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:34000,resources:stone:34000,resources:iron:34000,resources:food:34000,resources:coin:17000,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:35100,resources:stone:35100,resources:iron:35100,resources:food:35100,resources:coin:17550,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:36300,resources:stone:36300,resources:iron:36300,resources:food:36300,resources:coin:18150,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:37400,resources:stone:37400,resources:iron:37400,resources:food:37400,resources:coin:18700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:38600,resources:coin:19300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:39800,resources:stone:39800,resources:iron:39800,resources:food:39800,resources:coin:19900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:41000,resources:coin:20500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:42200,resources:stone:42200,resources:iron:42200,resources:food:42200,resources:coin:21100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:43400,resources:stone:43400,resources:iron:43400,resources:food:43400,resources:coin:21700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:44700,resources:stone:44700,resources:iron:44700,resources:food:44700,resources:coin:22350,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:46000,resources:stone:46000,resources:iron:46000,resources:food:46000,resources:coin:23000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:47400,resources:stone:47400,resources:iron:47400,resources:food:47400,resources:coin:23700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:48800,resources:stone:48800,resources:iron:48800,resources:food:48800,resources:coin:24400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:50200,resources:stone:50200,resources:iron:50200,resources:food:50200,resources:coin:25100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:51600,resources:stone:51600,resources:iron:51600,resources:food:51600,resources:coin:25800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:53200,resources:stone:53200,resources:iron:53200,resources:food:53200,resources:coin:26600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:54700,resources:stone:54700,resources:iron:54700,resources:food:54700,resources:coin:27350,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:56400,resources:stone:56400,resources:iron:56400,resources:food:56400,resources:coin:28200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:58100,resources:stone:58100,resources:iron:58100,resources:food:58100,resources:coin:29050,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:59900,resources:coin:29950,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:61800,resources:stone:61800,resources:iron:61800,resources:food:61800,resources:coin:30900,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:63800,resources:stone:63800,resources:iron:63800,resources:food:63800,resources:coin:31900,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:65900,resources:stone:65900,resources:iron:65900,resources:food:65900,resources:coin:32950,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:68100,resources:stone:68100,resources:iron:68100,resources:food:68100,resources:coin:34050,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:70400,resources:stone:70400,resources:iron:70400,resources:food:70400,resources:coin:35200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:72900,resources:stone:72900,resources:iron:72900,resources:food:72900,resources:coin:36450,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:75600,resources:stone:75600,resources:iron:75600,resources:food:75600,resources:coin:37800,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:78400,resources:stone:78400,resources:iron:78400,resources:food:78400,resources:coin:39200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:81500,resources:stone:81500,resources:iron:81500,resources:food:81500,resources:coin:40750,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:84800,resources:stone:84800,resources:iron:84800,resources:food:84800,resources:coin:42400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:88300,resources:coin:44150,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:92100,resources:stone:92100,resources:iron:92100,resources:food:92100,resources:coin:46050,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:96200,resources:stone:96200,resources:iron:96200,resources:food:96200,resources:coin:48100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:100700,resources:stone:100700,resources:iron:100700,resources:food:100700,resources:coin:50350,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:105600,resources:stone:105600,resources:iron:105600,resources:food:105600,resources:coin:52800,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:110900,resources:stone:110900,resources:iron:110900,resources:food:110900,resources:coin:55450,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:116600,resources:stone:116600,resources:iron:116600,resources:food:116600,resources:coin:58300,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:122900,resources:stone:122900,resources:iron:122900,resources:food:122900,resources:coin:61450,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:129800,resources:stone:129800,resources:iron:129800,resources:food:129800,resources:coin:64900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:137400,resources:stone:137400,resources:iron:137400,resources:food:137400,resources:coin:68700,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:145600,resources:stone:145600,resources:iron:145600,resources:food:145600,resources:coin:72800,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:154700,resources:stone:154700,resources:iron:154700,resources:food:154700,resources:coin:77350,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:164700,resources:stone:164700,resources:iron:164700,resources:food:164700,resources:coin:82350,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:175700,resources:stone:175700,resources:iron:175700,resources:food:175700,resources:coin:87850,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:187700,resources:stone:187700,resources:iron:187700,resources:food:187700,resources:coin:93850,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:201000,resources:stone:201000,resources:iron:201000,resources:food:201000,resources:coin:100500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:215700,resources:stone:215700,resources:iron:215700,resources:food:215700,resources:coin:107850,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:231900,resources:stone:231900,resources:iron:231900,resources:food:231900,resources:coin:115950,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:249800,resources:stone:249800,resources:iron:249800,resources:food:249800,resources:coin:124900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:269600,resources:stone:269600,resources:iron:269600,resources:food:269600,resources:coin:134800,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:291400,resources:stone:291400,resources:iron:291400,resources:food:291400,resources:coin:145700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:315600,resources:stone:315600,resources:iron:315600,resources:food:315600,resources:coin:157800,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:342300,resources:stone:342300,resources:iron:342300,resources:food:342300,resources:coin:171150,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:371900,resources:stone:371900,resources:iron:371900,resources:food:371900,resources:coin:185950,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:404700,resources:stone:404700,resources:iron:404700,resources:food:404700,resources:coin:202350,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:441000,resources:stone:441000,resources:iron:441000,resources:food:441000,resources:coin:220500,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:481200,resources:stone:481200,resources:iron:481200,resources:food:481200,resources:coin:240600,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:525800,resources:stone:525800,resources:iron:525800,resources:food:525800,resources:coin:262900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:575200,resources:stone:575200,resources:iron:575200,resources:food:575200,resources:coin:287600,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:630000,resources:stone:630000,resources:iron:630000,resources:food:630000,resources:coin:315000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:690800,resources:stone:690800,resources:iron:690800,resources:food:690800,resources:coin:345400,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:758300,resources:stone:758300,resources:iron:758300,resources:food:758300,resources:coin:379150,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:833100,resources:stone:833100,resources:iron:833100,resources:food:833100,resources:coin:416550,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:916100,resources:stone:916100,resources:iron:916100,resources:food:916100,resources:coin:458050,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1008200,resources:stone:1008200,resources:iron:1008200,resources:food:1008200,resources:coin:504100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1110400,resources:stone:1110400,resources:iron:1110400,resources:food:1110400,resources:coin:555200,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2223900,resources:stone:2223900,resources:iron:2223900,resources:food:2223900,resources:coin:1111950,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4099900,resources:stone:4099900,resources:iron:4099900,resources:food:4099900,resources:coin:2049950,resources:gem:500</t>
+  </si>
+  <si>
+    <t>special:dragonChest_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonExp_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:heroBlood_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:moveTheCity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:chest_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonExp_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:heroBlood_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1302,8 +1298,144 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,11 +1458,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="258">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1394,6 +1523,74 @@
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1450,6 +1647,74 @@
     <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1525,33 +1790,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="intInit"/>
-      <sheetName val="stringInit"/>
-      <sheetName val="resources"/>
-      <sheetName val="materials"/>
-      <sheetName val="soldierMaterials"/>
-      <sheetName val="dragonMaterials"/>
-      <sheetName val="houses"/>
-      <sheetName val="playerLevel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2251,46 +2489,46 @@
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1">
         <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2572,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>128</v>
@@ -2345,7 +2583,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>132</v>
@@ -2356,7 +2594,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>130</v>
@@ -2367,7 +2605,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>131</v>
@@ -2378,7 +2616,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>129</v>
@@ -2953,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A80" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
@@ -2990,7 +3228,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3004,7 +3242,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3018,7 +3256,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3032,7 +3270,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3046,7 +3284,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3060,7 +3298,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3074,7 +3312,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3088,7 +3326,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3102,7 +3340,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3116,7 +3354,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3130,7 +3368,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3144,7 +3382,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3158,7 +3396,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3172,7 +3410,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3186,7 +3424,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3200,7 +3438,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3214,7 +3452,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3228,7 +3466,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3242,7 +3480,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3256,7 +3494,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3270,7 +3508,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3284,7 +3522,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3298,7 +3536,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3312,7 +3550,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3326,7 +3564,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3340,7 +3578,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3354,7 +3592,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3368,7 +3606,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3382,7 +3620,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3396,7 +3634,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3410,7 +3648,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3424,7 +3662,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3438,7 +3676,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3452,7 +3690,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3466,7 +3704,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3480,7 +3718,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3494,7 +3732,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3508,7 +3746,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3522,7 +3760,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3536,7 +3774,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3550,7 +3788,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3564,7 +3802,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3578,7 +3816,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3592,7 +3830,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3606,7 +3844,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3620,7 +3858,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3634,7 +3872,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3648,7 +3886,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3662,7 +3900,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3676,7 +3914,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3690,7 +3928,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3704,7 +3942,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3718,7 +3956,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3732,7 +3970,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3746,7 +3984,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3760,7 +3998,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3774,7 +4012,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3788,7 +4026,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3802,7 +4040,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3816,7 +4054,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3830,7 +4068,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3844,7 +4082,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3858,7 +4096,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3872,7 +4110,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3886,7 +4124,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3900,7 +4138,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3914,7 +4152,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3928,7 +4166,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3942,7 +4180,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3956,7 +4194,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3970,7 +4208,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3984,7 +4222,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3998,7 +4236,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4012,7 +4250,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4026,7 +4264,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4040,7 +4278,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4054,7 +4292,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4068,7 +4306,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4082,7 +4320,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4096,7 +4334,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4110,7 +4348,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4124,7 +4362,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4138,7 +4376,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4152,7 +4390,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4166,7 +4404,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4180,7 +4418,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4194,7 +4432,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4208,7 +4446,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4222,7 +4460,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4236,7 +4474,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4250,7 +4488,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4264,7 +4502,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4278,7 +4516,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4292,7 +4530,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4306,7 +4544,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4320,7 +4558,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4334,7 +4572,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4347,8 +4585,8 @@
       <c r="C99" s="1">
         <v>20250000</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>231</v>
+      <c r="D99" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4361,8 +4599,8 @@
       <c r="C100" s="1">
         <v>24500000</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>232</v>
+      <c r="D100" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4376,7 +4614,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4393,28 +4631,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4422,63 +4660,63 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>269</v>
+      <c r="B2" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>268</v>
+      <c r="B3" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>262</v>
+      <c r="B4" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>267</v>
+      <c r="B5" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>266</v>
+      <c r="B6" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>265</v>
+      <c r="B7" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4488,63 +4726,63 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>264</v>
+      <c r="B8" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>263</v>
+      <c r="B9" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>262</v>
+      <c r="B10" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>261</v>
+      <c r="B11" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>260</v>
+      <c r="B12" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>259</v>
+      <c r="B13" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -4554,8 +4792,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>258</v>
+      <c r="B14" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -4565,41 +4803,41 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>256</v>
+      <c r="B16" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>255</v>
+      <c r="B17" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>254</v>
+      <c r="B18" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4609,8 +4847,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>253</v>
+      <c r="B19" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4620,67 +4858,76 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>252</v>
+      <c r="B20" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C20" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>251</v>
+      <c r="B21" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>250</v>
+      <c r="B22" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>249</v>
+      <c r="B23" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>248</v>
+      <c r="B24" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>247</v>
+      <c r="B25" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="269">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1022,6 +1022,14 @@
   </si>
   <si>
     <t>special:heroBlood_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstJoinAllianceGemGeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次加入联盟送宝石</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2164,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2529,6 +2537,17 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="1">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="267">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1022,14 +1022,6 @@
   </si>
   <si>
     <t>special:heroBlood_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstJoinAllianceGemGeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次加入联盟送宝石</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2172,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2236,7 +2228,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>79</v>
@@ -2537,17 +2529,6 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" s="1">
-        <v>200</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883"/>
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2305,7 +2305,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>3600</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>89</v>
@@ -2404,7 +2404,7 @@
         <v>113</v>
       </c>
       <c r="B21" s="1">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>114</v>
@@ -2415,7 +2415,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>7200</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>116</v>
@@ -2426,7 +2426,7 @@
         <v>117</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>118</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2305,7 +2305,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="1">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>89</v>
@@ -2415,7 +2415,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="5">
-        <v>7200</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>116</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -657,306 +657,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000,resources:food:1000,resources:coin:500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:2000,resources:stone:2000,resources:iron:2000,resources:food:2000,resources:coin:1000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:3000,resources:coin:1500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:4000,resources:stone:4000,resources:iron:4000,resources:food:4000,resources:coin:2000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:5000,resources:stone:5000,resources:iron:5000,resources:food:5000,resources:coin:2500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:6000,resources:coin:3000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:7000,resources:stone:7000,resources:iron:7000,resources:food:7000,resources:coin:3500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:8100,resources:stone:8100,resources:iron:8100,resources:food:8100,resources:coin:4050,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:9100,resources:stone:9100,resources:iron:9100,resources:food:9100,resources:coin:4550,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10100,resources:stone:10100,resources:iron:10100,resources:food:10100,resources:coin:5050,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:11100,resources:stone:11100,resources:iron:11100,resources:food:11100,resources:coin:5550,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:12100,resources:coin:6050,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:13100,resources:stone:13100,resources:iron:13100,resources:food:13100,resources:coin:6550,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:14100,resources:stone:14100,resources:iron:14100,resources:food:14100,resources:coin:7050,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:15100,resources:coin:7550,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:16100,resources:coin:8050,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:17100,resources:stone:17100,resources:iron:17100,resources:food:17100,resources:coin:8550,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:18200,resources:coin:9100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:19200,resources:stone:19200,resources:iron:19200,resources:food:19200,resources:coin:9600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:20200,resources:stone:20200,resources:iron:20200,resources:food:20200,resources:coin:10100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:21300,resources:coin:10650,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:22300,resources:stone:22300,resources:iron:22300,resources:food:22300,resources:coin:11150,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:23300,resources:stone:23300,resources:iron:23300,resources:food:23300,resources:coin:11650,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:24400,resources:coin:12200,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:25400,resources:stone:25400,resources:iron:25400,resources:food:25400,resources:coin:12700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:26500,resources:stone:26500,resources:iron:26500,resources:food:26500,resources:coin:13250,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:27500,resources:stone:27500,resources:iron:27500,resources:food:27500,resources:coin:13750,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:28600,resources:stone:28600,resources:iron:28600,resources:food:28600,resources:coin:14300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:29700,resources:stone:29700,resources:iron:29700,resources:food:29700,resources:coin:14850,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:30700,resources:stone:30700,resources:iron:30700,resources:food:30700,resources:coin:15350,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:31800,resources:coin:15900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:32900,resources:stone:32900,resources:iron:32900,resources:food:32900,resources:coin:16450,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:34000,resources:stone:34000,resources:iron:34000,resources:food:34000,resources:coin:17000,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:35100,resources:stone:35100,resources:iron:35100,resources:food:35100,resources:coin:17550,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:36300,resources:stone:36300,resources:iron:36300,resources:food:36300,resources:coin:18150,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:37400,resources:stone:37400,resources:iron:37400,resources:food:37400,resources:coin:18700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:38600,resources:coin:19300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:39800,resources:stone:39800,resources:iron:39800,resources:food:39800,resources:coin:19900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:41000,resources:coin:20500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:42200,resources:stone:42200,resources:iron:42200,resources:food:42200,resources:coin:21100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:43400,resources:stone:43400,resources:iron:43400,resources:food:43400,resources:coin:21700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:44700,resources:stone:44700,resources:iron:44700,resources:food:44700,resources:coin:22350,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:46000,resources:stone:46000,resources:iron:46000,resources:food:46000,resources:coin:23000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:47400,resources:stone:47400,resources:iron:47400,resources:food:47400,resources:coin:23700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:48800,resources:stone:48800,resources:iron:48800,resources:food:48800,resources:coin:24400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:50200,resources:stone:50200,resources:iron:50200,resources:food:50200,resources:coin:25100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:51600,resources:stone:51600,resources:iron:51600,resources:food:51600,resources:coin:25800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:53200,resources:stone:53200,resources:iron:53200,resources:food:53200,resources:coin:26600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:54700,resources:stone:54700,resources:iron:54700,resources:food:54700,resources:coin:27350,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:56400,resources:stone:56400,resources:iron:56400,resources:food:56400,resources:coin:28200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:58100,resources:stone:58100,resources:iron:58100,resources:food:58100,resources:coin:29050,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:59900,resources:coin:29950,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:61800,resources:stone:61800,resources:iron:61800,resources:food:61800,resources:coin:30900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:63800,resources:stone:63800,resources:iron:63800,resources:food:63800,resources:coin:31900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:65900,resources:stone:65900,resources:iron:65900,resources:food:65900,resources:coin:32950,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:68100,resources:stone:68100,resources:iron:68100,resources:food:68100,resources:coin:34050,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:70400,resources:stone:70400,resources:iron:70400,resources:food:70400,resources:coin:35200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:72900,resources:stone:72900,resources:iron:72900,resources:food:72900,resources:coin:36450,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:75600,resources:stone:75600,resources:iron:75600,resources:food:75600,resources:coin:37800,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:78400,resources:stone:78400,resources:iron:78400,resources:food:78400,resources:coin:39200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:81500,resources:stone:81500,resources:iron:81500,resources:food:81500,resources:coin:40750,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:84800,resources:stone:84800,resources:iron:84800,resources:food:84800,resources:coin:42400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:88300,resources:coin:44150,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:92100,resources:stone:92100,resources:iron:92100,resources:food:92100,resources:coin:46050,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:96200,resources:stone:96200,resources:iron:96200,resources:food:96200,resources:coin:48100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:100700,resources:stone:100700,resources:iron:100700,resources:food:100700,resources:coin:50350,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:105600,resources:stone:105600,resources:iron:105600,resources:food:105600,resources:coin:52800,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:110900,resources:stone:110900,resources:iron:110900,resources:food:110900,resources:coin:55450,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:116600,resources:stone:116600,resources:iron:116600,resources:food:116600,resources:coin:58300,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:122900,resources:stone:122900,resources:iron:122900,resources:food:122900,resources:coin:61450,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:129800,resources:stone:129800,resources:iron:129800,resources:food:129800,resources:coin:64900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:137400,resources:stone:137400,resources:iron:137400,resources:food:137400,resources:coin:68700,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:145600,resources:stone:145600,resources:iron:145600,resources:food:145600,resources:coin:72800,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:154700,resources:stone:154700,resources:iron:154700,resources:food:154700,resources:coin:77350,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:164700,resources:stone:164700,resources:iron:164700,resources:food:164700,resources:coin:82350,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:175700,resources:stone:175700,resources:iron:175700,resources:food:175700,resources:coin:87850,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:187700,resources:stone:187700,resources:iron:187700,resources:food:187700,resources:coin:93850,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:201000,resources:stone:201000,resources:iron:201000,resources:food:201000,resources:coin:100500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:215700,resources:stone:215700,resources:iron:215700,resources:food:215700,resources:coin:107850,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:231900,resources:stone:231900,resources:iron:231900,resources:food:231900,resources:coin:115950,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:249800,resources:stone:249800,resources:iron:249800,resources:food:249800,resources:coin:124900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:269600,resources:stone:269600,resources:iron:269600,resources:food:269600,resources:coin:134800,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:291400,resources:stone:291400,resources:iron:291400,resources:food:291400,resources:coin:145700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:315600,resources:stone:315600,resources:iron:315600,resources:food:315600,resources:coin:157800,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:342300,resources:stone:342300,resources:iron:342300,resources:food:342300,resources:coin:171150,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:371900,resources:stone:371900,resources:iron:371900,resources:food:371900,resources:coin:185950,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:404700,resources:stone:404700,resources:iron:404700,resources:food:404700,resources:coin:202350,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:441000,resources:stone:441000,resources:iron:441000,resources:food:441000,resources:coin:220500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:481200,resources:stone:481200,resources:iron:481200,resources:food:481200,resources:coin:240600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:525800,resources:stone:525800,resources:iron:525800,resources:food:525800,resources:coin:262900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:575200,resources:stone:575200,resources:iron:575200,resources:food:575200,resources:coin:287600,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:630000,resources:stone:630000,resources:iron:630000,resources:food:630000,resources:coin:315000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:690800,resources:stone:690800,resources:iron:690800,resources:food:690800,resources:coin:345400,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:758300,resources:stone:758300,resources:iron:758300,resources:food:758300,resources:coin:379150,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:833100,resources:stone:833100,resources:iron:833100,resources:food:833100,resources:coin:416550,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:916100,resources:stone:916100,resources:iron:916100,resources:food:916100,resources:coin:458050,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1008200,resources:stone:1008200,resources:iron:1008200,resources:food:1008200,resources:coin:504100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1110400,resources:stone:1110400,resources:iron:1110400,resources:food:1110400,resources:coin:555200,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2223900,resources:stone:2223900,resources:iron:2223900,resources:food:2223900,resources:coin:1111950,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4099900,resources:stone:4099900,resources:iron:4099900,resources:food:4099900,resources:coin:2049950,resources:gem:500</t>
-  </si>
-  <si>
     <t>special:dragonChest_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1023,6 +723,306 @@
   <si>
     <t>special:heroBlood_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:2000,resources:stone:2000,resources:iron:2000,resources:food:200,resources:coin:500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:4000,resources:stone:4000,resources:iron:4000,resources:food:500,resources:coin:1000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:700,resources:coin:1500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:8000,resources:stone:8000,resources:iron:8000,resources:food:1000,resources:coin:2000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:10000,resources:stone:10000,resources:iron:10000,resources:food:1200,resources:coin:2500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:1500,resources:coin:3000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:14000,resources:stone:14000,resources:iron:14000,resources:food:1700,resources:coin:3500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:2000,resources:coin:4000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:2200,resources:coin:4500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:20100,resources:stone:20100,resources:iron:20100,resources:food:2500,resources:coin:5000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:2700,resources:coin:5500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:3000,resources:coin:6000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:26100,resources:stone:26100,resources:iron:26100,resources:food:3200,resources:coin:6500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:28100,resources:stone:28100,resources:iron:28100,resources:food:3500,resources:coin:7000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:30100,resources:stone:30100,resources:iron:30100,resources:food:3700,resources:coin:7500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:32100,resources:stone:32100,resources:iron:32100,resources:food:4000,resources:coin:8000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:34100,resources:stone:34100,resources:iron:34100,resources:food:4200,resources:coin:8500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:36200,resources:stone:36200,resources:iron:36200,resources:food:4500,resources:coin:9000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:38200,resources:stone:38200,resources:iron:38200,resources:food:4700,resources:coin:9500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:40200,resources:stone:40200,resources:iron:40200,resources:food:5000,resources:coin:10000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:42300,resources:stone:42300,resources:iron:42300,resources:food:5200,resources:coin:10500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:44300,resources:stone:44300,resources:iron:44300,resources:food:5500,resources:coin:11000,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:46300,resources:stone:46300,resources:iron:46300,resources:food:5700,resources:coin:11500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:48400,resources:stone:48400,resources:iron:48400,resources:food:6000,resources:coin:12100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:50400,resources:stone:50400,resources:iron:50400,resources:food:6300,resources:coin:12600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:6500,resources:coin:13100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:54500,resources:stone:54500,resources:iron:54500,resources:food:6800,resources:coin:13600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:56600,resources:stone:56600,resources:iron:56600,resources:food:7000,resources:coin:14100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:58700,resources:stone:58700,resources:iron:58700,resources:food:7300,resources:coin:14600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:60700,resources:stone:60700,resources:iron:60700,resources:food:7500,resources:coin:15100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:62800,resources:stone:62800,resources:iron:62800,resources:food:7800,resources:coin:15700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:64900,resources:stone:64900,resources:iron:64900,resources:food:8100,resources:coin:16200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:67000,resources:stone:67000,resources:iron:67000,resources:food:8300,resources:coin:16700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:69100,resources:stone:69100,resources:iron:69100,resources:food:8600,resources:coin:17200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:8900,resources:coin:17800,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:73400,resources:stone:73400,resources:iron:73400,resources:food:9100,resources:coin:18300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:75600,resources:stone:75600,resources:iron:75600,resources:food:9400,resources:coin:18900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:77800,resources:stone:77800,resources:iron:77800,resources:food:9700,resources:coin:19400,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:80000,resources:stone:80000,resources:iron:80000,resources:food:10000,resources:coin:20000,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:82200,resources:stone:82200,resources:iron:82200,resources:food:10200,resources:coin:20500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:84400,resources:stone:84400,resources:iron:84400,resources:food:10500,resources:coin:21100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:10800,resources:coin:21600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:89000,resources:stone:89000,resources:iron:89000,resources:food:11100,resources:coin:22200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:91400,resources:stone:91400,resources:iron:91400,resources:food:11400,resources:coin:22800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:93800,resources:stone:93800,resources:iron:93800,resources:food:11700,resources:coin:23400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:96200,resources:stone:96200,resources:iron:96200,resources:food:12000,resources:coin:24000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:98600,resources:stone:98600,resources:iron:98600,resources:food:12300,resources:coin:24600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:101200,resources:stone:101200,resources:iron:101200,resources:food:12600,resources:coin:25300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:103700,resources:stone:103700,resources:iron:103700,resources:food:12900,resources:coin:25900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:106400,resources:stone:106400,resources:iron:106400,resources:food:13300,resources:coin:26600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:109100,resources:stone:109100,resources:iron:109100,resources:food:13600,resources:coin:27200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:111900,resources:stone:111900,resources:iron:111900,resources:food:13900,resources:coin:27900,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:114800,resources:stone:114800,resources:iron:114800,resources:food:14300,resources:coin:28700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:117800,resources:stone:117800,resources:iron:117800,resources:food:14700,resources:coin:29400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:120900,resources:stone:120900,resources:iron:120900,resources:food:15100,resources:coin:30200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:15500,resources:coin:31000,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:127400,resources:stone:127400,resources:iron:127400,resources:food:15900,resources:coin:31800,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:130900,resources:stone:130900,resources:iron:130900,resources:food:16300,resources:coin:32700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:16800,resources:coin:33600,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:138400,resources:stone:138400,resources:iron:138400,resources:food:17300,resources:coin:34600,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:142500,resources:stone:142500,resources:iron:142500,resources:food:17800,resources:coin:35600,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:146800,resources:stone:146800,resources:iron:146800,resources:food:18300,resources:coin:36700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:151300,resources:stone:151300,resources:iron:151300,resources:food:18900,resources:coin:37800,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:156100,resources:stone:156100,resources:iron:156100,resources:food:19500,resources:coin:39000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:161200,resources:stone:161200,resources:iron:161200,resources:food:20100,resources:coin:40300,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:166700,resources:stone:166700,resources:iron:166700,resources:food:20800,resources:coin:41600,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:172600,resources:stone:172600,resources:iron:172600,resources:food:21500,resources:coin:43100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:178900,resources:stone:178900,resources:iron:178900,resources:food:22300,resources:coin:44700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:185600,resources:stone:185600,resources:iron:185600,resources:food:23200,resources:coin:46400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:192900,resources:stone:192900,resources:iron:192900,resources:food:24100,resources:coin:48200,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:200800,resources:stone:200800,resources:iron:200800,resources:food:25100,resources:coin:50200,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:209400,resources:stone:209400,resources:iron:209400,resources:food:26100,resources:coin:52300,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:218600,resources:stone:218600,resources:iron:218600,resources:food:27300,resources:coin:54600,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:228700,resources:stone:228700,resources:iron:228700,resources:food:28500,resources:coin:57100,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:239700,resources:stone:239700,resources:iron:239700,resources:food:29900,resources:coin:59900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:251700,resources:stone:251700,resources:iron:251700,resources:food:31400,resources:coin:62900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:264700,resources:stone:264700,resources:iron:264700,resources:food:33000,resources:coin:66100,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:279000,resources:stone:279000,resources:iron:279000,resources:food:34800,resources:coin:69700,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:294700,resources:stone:294700,resources:iron:294700,resources:food:36800,resources:coin:73600,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:311900,resources:stone:311900,resources:iron:311900,resources:food:38900,resources:coin:77900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:330800,resources:stone:330800,resources:iron:330800,resources:food:41300,resources:coin:82700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:351600,resources:stone:351600,resources:iron:351600,resources:food:43900,resources:coin:87900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:374400,resources:stone:374400,resources:iron:374400,resources:food:46800,resources:coin:93600,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:399600,resources:stone:399600,resources:iron:399600,resources:food:49900,resources:coin:99900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:427300,resources:stone:427300,resources:iron:427300,resources:food:53400,resources:coin:106800,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:457900,resources:stone:457900,resources:iron:457900,resources:food:57200,resources:coin:114400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:491700,resources:stone:491700,resources:iron:491700,resources:food:61400,resources:coin:122900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:529000,resources:stone:529000,resources:iron:529000,resources:food:66100,resources:coin:132200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:570200,resources:stone:570200,resources:iron:570200,resources:food:71200,resources:coin:142500,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:615800,resources:stone:615800,resources:iron:615800,resources:food:76900,resources:coin:153900,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:666200,resources:stone:666200,resources:iron:666200,resources:food:83200,resources:coin:166500,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:722000,resources:stone:722000,resources:iron:722000,resources:food:90200,resources:coin:180500,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:783800,resources:stone:783800,resources:iron:783800,resources:food:97900,resources:coin:195900,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:852300,resources:stone:852300,resources:iron:852300,resources:food:106500,resources:coin:213000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:928100,resources:stone:928100,resources:iron:928100,resources:food:116000,resources:coin:232000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1012100,resources:stone:1012100,resources:iron:1012100,resources:food:126500,resources:coin:253000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1105200,resources:stone:1105200,resources:iron:1105200,resources:food:138100,resources:coin:276300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1208400,resources:stone:1208400,resources:iron:1208400,resources:food:151000,resources:coin:302100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2322900,resources:stone:2322900,resources:iron:2322900,resources:food:290300,resources:coin:580700,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4199900,resources:stone:4199900,resources:iron:4199900,resources:food:524900,resources:coin:1049900,resources:gem:500</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="258">
+  <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1434,8 +1434,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,8 +1460,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="258">
+  <cellStyles count="260">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1591,6 +1599,7 @@
     <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1715,6 +1724,7 @@
     <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2166,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3189,16 +3199,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
-    <col min="4" max="4" width="65.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="129.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -3227,8 +3237,8 @@
       <c r="C2" s="1">
         <v>151</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>150</v>
+      <c r="D2" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3241,8 +3251,8 @@
       <c r="C3" s="1">
         <v>311</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>151</v>
+      <c r="D3" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3255,8 +3265,8 @@
       <c r="C4" s="1">
         <v>479</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>152</v>
+      <c r="D4" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3269,8 +3279,8 @@
       <c r="C5" s="1">
         <v>655</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>153</v>
+      <c r="D5" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3283,8 +3293,8 @@
       <c r="C6" s="1">
         <v>839</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>154</v>
+      <c r="D6" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3297,8 +3307,8 @@
       <c r="C7" s="1">
         <v>1031</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>155</v>
+      <c r="D7" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3311,8 +3321,8 @@
       <c r="C8" s="1">
         <v>1231</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>156</v>
+      <c r="D8" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3325,8 +3335,8 @@
       <c r="C9" s="1">
         <v>1439</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>157</v>
+      <c r="D9" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3339,8 +3349,8 @@
       <c r="C10" s="1">
         <v>1655</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>158</v>
+      <c r="D10" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3353,8 +3363,8 @@
       <c r="C11" s="1">
         <v>1879</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>159</v>
+      <c r="D11" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3367,8 +3377,8 @@
       <c r="C12" s="1">
         <v>2111</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>160</v>
+      <c r="D12" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3381,8 +3391,8 @@
       <c r="C13" s="1">
         <v>2351</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>161</v>
+      <c r="D13" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3395,8 +3405,8 @@
       <c r="C14" s="1">
         <v>2612</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>162</v>
+      <c r="D14" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3409,8 +3419,8 @@
       <c r="C15" s="1">
         <v>2903</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>163</v>
+      <c r="D15" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3423,8 +3433,8 @@
       <c r="C16" s="1">
         <v>3225</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>164</v>
+      <c r="D16" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3437,8 +3447,8 @@
       <c r="C17" s="1">
         <v>3584</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>165</v>
+      <c r="D17" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3451,8 +3461,8 @@
       <c r="C18" s="1">
         <v>3982</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>166</v>
+      <c r="D18" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3465,8 +3475,8 @@
       <c r="C19" s="1">
         <v>4424</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>167</v>
+      <c r="D19" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3479,8 +3489,8 @@
       <c r="C20" s="1">
         <v>4916</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>168</v>
+      <c r="D20" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3493,8 +3503,8 @@
       <c r="C21" s="1">
         <v>5462</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>169</v>
+      <c r="D21" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3507,8 +3517,8 @@
       <c r="C22" s="1">
         <v>6069</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>170</v>
+      <c r="D22" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3521,8 +3531,8 @@
       <c r="C23" s="1">
         <v>6743</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>171</v>
+      <c r="D23" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3535,8 +3545,8 @@
       <c r="C24" s="1">
         <v>7492</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>172</v>
+      <c r="D24" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3549,8 +3559,8 @@
       <c r="C25" s="1">
         <v>8325</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>173</v>
+      <c r="D25" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3563,8 +3573,8 @@
       <c r="C26" s="1">
         <v>9250</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>174</v>
+      <c r="D26" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3577,8 +3587,8 @@
       <c r="C27" s="1">
         <v>10277</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>175</v>
+      <c r="D27" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3591,8 +3601,8 @@
       <c r="C28" s="1">
         <v>11419</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>176</v>
+      <c r="D28" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3605,8 +3615,8 @@
       <c r="C29" s="1">
         <v>12688</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>177</v>
+      <c r="D29" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3619,8 +3629,8 @@
       <c r="C30" s="1">
         <v>14098</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>178</v>
+      <c r="D30" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3633,8 +3643,8 @@
       <c r="C31" s="1">
         <v>15664</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>179</v>
+      <c r="D31" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3647,8 +3657,8 @@
       <c r="C32" s="1">
         <v>17405</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>180</v>
+      <c r="D32" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3661,8 +3671,8 @@
       <c r="C33" s="1">
         <v>19339</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>181</v>
+      <c r="D33" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3675,8 +3685,8 @@
       <c r="C34" s="1">
         <v>21488</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>182</v>
+      <c r="D34" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3689,8 +3699,8 @@
       <c r="C35" s="1">
         <v>23875</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>183</v>
+      <c r="D35" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3703,8 +3713,8 @@
       <c r="C36" s="1">
         <v>26528</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>184</v>
+      <c r="D36" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3717,8 +3727,8 @@
       <c r="C37" s="1">
         <v>29475</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>185</v>
+      <c r="D37" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3731,8 +3741,8 @@
       <c r="C38" s="1">
         <v>32751</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>186</v>
+      <c r="D38" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3745,8 +3755,8 @@
       <c r="C39" s="1">
         <v>36389</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>187</v>
+      <c r="D39" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3759,8 +3769,8 @@
       <c r="C40" s="1">
         <v>40433</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>188</v>
+      <c r="D40" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3773,8 +3783,8 @@
       <c r="C41" s="1">
         <v>44925</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>189</v>
+      <c r="D41" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3787,8 +3797,8 @@
       <c r="C42" s="1">
         <v>49917</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>190</v>
+      <c r="D42" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3801,8 +3811,8 @@
       <c r="C43" s="1">
         <v>55463</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>191</v>
+      <c r="D43" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3815,8 +3825,8 @@
       <c r="C44" s="1">
         <v>61626</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>192</v>
+      <c r="D44" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3829,8 +3839,8 @@
       <c r="C45" s="1">
         <v>68473</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>193</v>
+      <c r="D45" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3843,8 +3853,8 @@
       <c r="C46" s="1">
         <v>76081</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>194</v>
+      <c r="D46" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3857,8 +3867,8 @@
       <c r="C47" s="1">
         <v>84535</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>195</v>
+      <c r="D47" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3871,8 +3881,8 @@
       <c r="C48" s="1">
         <v>93928</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>196</v>
+      <c r="D48" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3885,8 +3895,8 @@
       <c r="C49" s="1">
         <v>104364</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>197</v>
+      <c r="D49" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3899,8 +3909,8 @@
       <c r="C50" s="1">
         <v>115960</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>198</v>
+      <c r="D50" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3913,8 +3923,8 @@
       <c r="C51" s="1">
         <v>128844</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>199</v>
+      <c r="D51" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3927,8 +3937,8 @@
       <c r="C52" s="1">
         <v>143160</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>200</v>
+      <c r="D52" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3941,8 +3951,8 @@
       <c r="C53" s="1">
         <v>159067</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>201</v>
+      <c r="D53" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3955,8 +3965,8 @@
       <c r="C54" s="1">
         <v>176741</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>202</v>
+      <c r="D54" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3969,8 +3979,8 @@
       <c r="C55" s="1">
         <v>196379</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>203</v>
+      <c r="D55" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3983,8 +3993,8 @@
       <c r="C56" s="1">
         <v>218199</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>204</v>
+      <c r="D56" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3997,8 +4007,8 @@
       <c r="C57" s="1">
         <v>242443</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>205</v>
+      <c r="D57" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -4011,8 +4021,8 @@
       <c r="C58" s="1">
         <v>269382</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>206</v>
+      <c r="D58" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -4025,8 +4035,8 @@
       <c r="C59" s="1">
         <v>299313</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>207</v>
+      <c r="D59" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -4039,8 +4049,8 @@
       <c r="C60" s="1">
         <v>332570</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>208</v>
+      <c r="D60" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -4053,8 +4063,8 @@
       <c r="C61" s="1">
         <v>369522</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>209</v>
+      <c r="D61" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -4067,8 +4077,8 @@
       <c r="C62" s="1">
         <v>410580</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>210</v>
+      <c r="D62" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4081,8 +4091,8 @@
       <c r="C63" s="1">
         <v>456200</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>211</v>
+      <c r="D63" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4095,8 +4105,8 @@
       <c r="C64" s="1">
         <v>506889</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>212</v>
+      <c r="D64" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4109,8 +4119,8 @@
       <c r="C65" s="1">
         <v>563210</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>213</v>
+      <c r="D65" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4123,8 +4133,8 @@
       <c r="C66" s="1">
         <v>625789</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>214</v>
+      <c r="D66" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4137,8 +4147,8 @@
       <c r="C67" s="1">
         <v>695321</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>215</v>
+      <c r="D67" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4151,8 +4161,8 @@
       <c r="C68" s="1">
         <v>772579</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>216</v>
+      <c r="D68" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4165,8 +4175,8 @@
       <c r="C69" s="1">
         <v>858421</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>217</v>
+      <c r="D69" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4179,8 +4189,8 @@
       <c r="C70" s="1">
         <v>953801</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>218</v>
+      <c r="D70" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4193,8 +4203,8 @@
       <c r="C71" s="1">
         <v>1059779</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>219</v>
+      <c r="D71" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4207,8 +4217,8 @@
       <c r="C72" s="1">
         <v>1177532</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>220</v>
+      <c r="D72" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4221,8 +4231,8 @@
       <c r="C73" s="1">
         <v>1308369</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>221</v>
+      <c r="D73" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4235,8 +4245,8 @@
       <c r="C74" s="1">
         <v>1453743</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>222</v>
+      <c r="D74" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4249,8 +4259,8 @@
       <c r="C75" s="1">
         <v>1615270</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>223</v>
+      <c r="D75" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4263,8 +4273,8 @@
       <c r="C76" s="1">
         <v>1794745</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>224</v>
+      <c r="D76" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4277,8 +4287,8 @@
       <c r="C77" s="1">
         <v>1994161</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>225</v>
+      <c r="D77" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4291,8 +4301,8 @@
       <c r="C78" s="1">
         <v>2215735</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>226</v>
+      <c r="D78" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4305,8 +4315,8 @@
       <c r="C79" s="1">
         <v>2461927</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>227</v>
+      <c r="D79" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4319,8 +4329,8 @@
       <c r="C80" s="1">
         <v>2735475</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>228</v>
+      <c r="D80" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4333,8 +4343,8 @@
       <c r="C81" s="1">
         <v>3039416</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>229</v>
+      <c r="D81" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4347,8 +4357,8 @@
       <c r="C82" s="1">
         <v>3377129</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>230</v>
+      <c r="D82" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4361,8 +4371,8 @@
       <c r="C83" s="1">
         <v>3752366</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>231</v>
+      <c r="D83" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4375,8 +4385,8 @@
       <c r="C84" s="1">
         <v>4169295</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>232</v>
+      <c r="D84" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4389,8 +4399,8 @@
       <c r="C85" s="1">
         <v>4632550</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>233</v>
+      <c r="D85" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4403,8 +4413,8 @@
       <c r="C86" s="1">
         <v>5147278</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>234</v>
+      <c r="D86" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4417,8 +4427,8 @@
       <c r="C87" s="1">
         <v>5719198</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>235</v>
+      <c r="D87" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4431,8 +4441,8 @@
       <c r="C88" s="1">
         <v>6354665</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>236</v>
+      <c r="D88" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4445,8 +4455,8 @@
       <c r="C89" s="1">
         <v>7060738</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>237</v>
+      <c r="D89" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4459,8 +4469,8 @@
       <c r="C90" s="1">
         <v>7845265</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>238</v>
+      <c r="D90" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4473,8 +4483,8 @@
       <c r="C91" s="1">
         <v>8716961</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>239</v>
+      <c r="D91" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4487,8 +4497,8 @@
       <c r="C92" s="1">
         <v>9685512</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>240</v>
+      <c r="D92" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4501,8 +4511,8 @@
       <c r="C93" s="1">
         <v>10761680</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>241</v>
+      <c r="D93" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4515,8 +4525,8 @@
       <c r="C94" s="1">
         <v>11957423</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>242</v>
+      <c r="D94" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4529,8 +4539,8 @@
       <c r="C95" s="1">
         <v>13286025</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>243</v>
+      <c r="D95" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4543,8 +4553,8 @@
       <c r="C96" s="1">
         <v>14762250</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>244</v>
+      <c r="D96" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4557,8 +4567,8 @@
       <c r="C97" s="1">
         <v>16402500</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>245</v>
+      <c r="D97" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4571,8 +4581,8 @@
       <c r="C98" s="1">
         <v>18225000</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>246</v>
+      <c r="D98" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4585,8 +4595,8 @@
       <c r="C99" s="1">
         <v>20250000</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>247</v>
+      <c r="D99" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4599,8 +4609,8 @@
       <c r="C100" s="1">
         <v>24500000</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>248</v>
+      <c r="D100" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4613,9 +4623,30 @@
       <c r="C101" s="1">
         <v>32500000</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D101" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="D108" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4661,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4672,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4683,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -4694,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4705,7 +4736,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -4716,7 +4747,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4727,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -4738,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -4749,7 +4780,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -4760,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -4771,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -4782,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -4793,7 +4824,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -4804,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4815,7 +4846,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
@@ -4826,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -4837,7 +4868,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4848,7 +4879,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4859,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4870,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -4881,7 +4912,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -4892,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4903,7 +4934,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -4914,7 +4945,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2176,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2392,7 +2392,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>109</v>
@@ -3201,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A83" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A83" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -725,304 +725,304 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:2000,resources:stone:2000,resources:iron:2000,resources:food:200,resources:coin:500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:4000,resources:stone:4000,resources:iron:4000,resources:food:500,resources:coin:1000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:700,resources:coin:1500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:8000,resources:stone:8000,resources:iron:8000,resources:food:1000,resources:coin:2000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10000,resources:stone:10000,resources:iron:10000,resources:food:1200,resources:coin:2500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:1500,resources:coin:3000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:14000,resources:stone:14000,resources:iron:14000,resources:food:1700,resources:coin:3500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:2000,resources:coin:4000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:2200,resources:coin:4500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:20100,resources:stone:20100,resources:iron:20100,resources:food:2500,resources:coin:5000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:2700,resources:coin:5500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:3000,resources:coin:6000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:26100,resources:stone:26100,resources:iron:26100,resources:food:3200,resources:coin:6500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:28100,resources:stone:28100,resources:iron:28100,resources:food:3500,resources:coin:7000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30100,resources:stone:30100,resources:iron:30100,resources:food:3700,resources:coin:7500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:32100,resources:stone:32100,resources:iron:32100,resources:food:4000,resources:coin:8000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:34100,resources:stone:34100,resources:iron:34100,resources:food:4200,resources:coin:8500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:36200,resources:stone:36200,resources:iron:36200,resources:food:4500,resources:coin:9000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:38200,resources:stone:38200,resources:iron:38200,resources:food:4700,resources:coin:9500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:40200,resources:stone:40200,resources:iron:40200,resources:food:5000,resources:coin:10000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:42300,resources:stone:42300,resources:iron:42300,resources:food:5200,resources:coin:10500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:44300,resources:stone:44300,resources:iron:44300,resources:food:5500,resources:coin:11000,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:46300,resources:stone:46300,resources:iron:46300,resources:food:5700,resources:coin:11500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:48400,resources:stone:48400,resources:iron:48400,resources:food:6000,resources:coin:12100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:50400,resources:stone:50400,resources:iron:50400,resources:food:6300,resources:coin:12600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:6500,resources:coin:13100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:54500,resources:stone:54500,resources:iron:54500,resources:food:6800,resources:coin:13600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:56600,resources:stone:56600,resources:iron:56600,resources:food:7000,resources:coin:14100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:58700,resources:stone:58700,resources:iron:58700,resources:food:7300,resources:coin:14600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:60700,resources:stone:60700,resources:iron:60700,resources:food:7500,resources:coin:15100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:62800,resources:stone:62800,resources:iron:62800,resources:food:7800,resources:coin:15700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:64900,resources:stone:64900,resources:iron:64900,resources:food:8100,resources:coin:16200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:67000,resources:stone:67000,resources:iron:67000,resources:food:8300,resources:coin:16700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:69100,resources:stone:69100,resources:iron:69100,resources:food:8600,resources:coin:17200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:8900,resources:coin:17800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:73400,resources:stone:73400,resources:iron:73400,resources:food:9100,resources:coin:18300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:75600,resources:stone:75600,resources:iron:75600,resources:food:9400,resources:coin:18900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:77800,resources:stone:77800,resources:iron:77800,resources:food:9700,resources:coin:19400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:80000,resources:stone:80000,resources:iron:80000,resources:food:10000,resources:coin:20000,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:82200,resources:stone:82200,resources:iron:82200,resources:food:10200,resources:coin:20500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:84400,resources:stone:84400,resources:iron:84400,resources:food:10500,resources:coin:21100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:10800,resources:coin:21600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:89000,resources:stone:89000,resources:iron:89000,resources:food:11100,resources:coin:22200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:91400,resources:stone:91400,resources:iron:91400,resources:food:11400,resources:coin:22800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:93800,resources:stone:93800,resources:iron:93800,resources:food:11700,resources:coin:23400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:96200,resources:stone:96200,resources:iron:96200,resources:food:12000,resources:coin:24000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:98600,resources:stone:98600,resources:iron:98600,resources:food:12300,resources:coin:24600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:101200,resources:stone:101200,resources:iron:101200,resources:food:12600,resources:coin:25300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:103700,resources:stone:103700,resources:iron:103700,resources:food:12900,resources:coin:25900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:106400,resources:stone:106400,resources:iron:106400,resources:food:13300,resources:coin:26600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:109100,resources:stone:109100,resources:iron:109100,resources:food:13600,resources:coin:27200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:111900,resources:stone:111900,resources:iron:111900,resources:food:13900,resources:coin:27900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:114800,resources:stone:114800,resources:iron:114800,resources:food:14300,resources:coin:28700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:117800,resources:stone:117800,resources:iron:117800,resources:food:14700,resources:coin:29400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:120900,resources:stone:120900,resources:iron:120900,resources:food:15100,resources:coin:30200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:15500,resources:coin:31000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:127400,resources:stone:127400,resources:iron:127400,resources:food:15900,resources:coin:31800,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:130900,resources:stone:130900,resources:iron:130900,resources:food:16300,resources:coin:32700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:16800,resources:coin:33600,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:138400,resources:stone:138400,resources:iron:138400,resources:food:17300,resources:coin:34600,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:142500,resources:stone:142500,resources:iron:142500,resources:food:17800,resources:coin:35600,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:146800,resources:stone:146800,resources:iron:146800,resources:food:18300,resources:coin:36700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:151300,resources:stone:151300,resources:iron:151300,resources:food:18900,resources:coin:37800,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:156100,resources:stone:156100,resources:iron:156100,resources:food:19500,resources:coin:39000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:161200,resources:stone:161200,resources:iron:161200,resources:food:20100,resources:coin:40300,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:166700,resources:stone:166700,resources:iron:166700,resources:food:20800,resources:coin:41600,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:172600,resources:stone:172600,resources:iron:172600,resources:food:21500,resources:coin:43100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:178900,resources:stone:178900,resources:iron:178900,resources:food:22300,resources:coin:44700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:185600,resources:stone:185600,resources:iron:185600,resources:food:23200,resources:coin:46400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:192900,resources:stone:192900,resources:iron:192900,resources:food:24100,resources:coin:48200,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:200800,resources:stone:200800,resources:iron:200800,resources:food:25100,resources:coin:50200,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:209400,resources:stone:209400,resources:iron:209400,resources:food:26100,resources:coin:52300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:218600,resources:stone:218600,resources:iron:218600,resources:food:27300,resources:coin:54600,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:228700,resources:stone:228700,resources:iron:228700,resources:food:28500,resources:coin:57100,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:239700,resources:stone:239700,resources:iron:239700,resources:food:29900,resources:coin:59900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:251700,resources:stone:251700,resources:iron:251700,resources:food:31400,resources:coin:62900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:264700,resources:stone:264700,resources:iron:264700,resources:food:33000,resources:coin:66100,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:279000,resources:stone:279000,resources:iron:279000,resources:food:34800,resources:coin:69700,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:294700,resources:stone:294700,resources:iron:294700,resources:food:36800,resources:coin:73600,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:311900,resources:stone:311900,resources:iron:311900,resources:food:38900,resources:coin:77900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:330800,resources:stone:330800,resources:iron:330800,resources:food:41300,resources:coin:82700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:351600,resources:stone:351600,resources:iron:351600,resources:food:43900,resources:coin:87900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:374400,resources:stone:374400,resources:iron:374400,resources:food:46800,resources:coin:93600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:399600,resources:stone:399600,resources:iron:399600,resources:food:49900,resources:coin:99900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:427300,resources:stone:427300,resources:iron:427300,resources:food:53400,resources:coin:106800,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:457900,resources:stone:457900,resources:iron:457900,resources:food:57200,resources:coin:114400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:491700,resources:stone:491700,resources:iron:491700,resources:food:61400,resources:coin:122900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:529000,resources:stone:529000,resources:iron:529000,resources:food:66100,resources:coin:132200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:570200,resources:stone:570200,resources:iron:570200,resources:food:71200,resources:coin:142500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:615800,resources:stone:615800,resources:iron:615800,resources:food:76900,resources:coin:153900,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:666200,resources:stone:666200,resources:iron:666200,resources:food:83200,resources:coin:166500,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:722000,resources:stone:722000,resources:iron:722000,resources:food:90200,resources:coin:180500,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:783800,resources:stone:783800,resources:iron:783800,resources:food:97900,resources:coin:195900,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:852300,resources:stone:852300,resources:iron:852300,resources:food:106500,resources:coin:213000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:928100,resources:stone:928100,resources:iron:928100,resources:food:116000,resources:coin:232000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1012100,resources:stone:1012100,resources:iron:1012100,resources:food:126500,resources:coin:253000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1105200,resources:stone:1105200,resources:iron:1105200,resources:food:138100,resources:coin:276300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1208400,resources:stone:1208400,resources:iron:1208400,resources:food:151000,resources:coin:302100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2322900,resources:stone:2322900,resources:iron:2322900,resources:food:290300,resources:coin:580700,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4199900,resources:stone:4199900,resources:iron:4199900,resources:food:524900,resources:coin:1049900,resources:gem:500</t>
+    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:3000,resources:coin:3000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:4500,resources:coin:4500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:19600,resources:stone:19600,resources:iron:19600,resources:food:4900,resources:coin:4900,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:21100,resources:stone:21100,resources:iron:21100,resources:food:5200,resources:coin:5200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:5600,resources:coin:5600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:6000,resources:coin:6000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:25600,resources:stone:25600,resources:iron:25600,resources:food:6400,resources:coin:6400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:27200,resources:stone:27200,resources:iron:27200,resources:food:6800,resources:coin:6800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:28700,resources:stone:28700,resources:iron:28700,resources:food:7100,resources:coin:7100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:7900,resources:coin:7900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:33300,resources:stone:33300,resources:iron:33300,resources:food:8300,resources:coin:8300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:34800,resources:stone:34800,resources:iron:34800,resources:food:8700,resources:coin:8700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:37900,resources:stone:37900,resources:iron:37900,resources:food:9400,resources:coin:9400,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:39500,resources:stone:39500,resources:iron:39500,resources:food:9800,resources:coin:9800,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:10200,resources:coin:10200,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:44200,resources:stone:44200,resources:iron:44200,resources:food:11000,resources:coin:11000,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:45700,resources:stone:45700,resources:iron:45700,resources:food:11400,resources:coin:11400,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:47300,resources:stone:47300,resources:iron:47300,resources:food:11800,resources:coin:11800,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:48900,resources:stone:48900,resources:iron:48900,resources:food:12200,resources:coin:12200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:50500,resources:stone:50500,resources:iron:50500,resources:food:12600,resources:coin:12600,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:52100,resources:stone:52100,resources:iron:52100,resources:food:13000,resources:coin:13000,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:53800,resources:stone:53800,resources:iron:53800,resources:food:13400,resources:coin:13400,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:55400,resources:stone:55400,resources:iron:55400,resources:food:13800,resources:coin:13800,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:57100,resources:stone:57100,resources:iron:57100,resources:food:14200,resources:coin:14200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:58800,resources:stone:58800,resources:iron:58800,resources:food:14700,resources:coin:14700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:60500,resources:stone:60500,resources:iron:60500,resources:food:15100,resources:coin:15100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:62200,resources:stone:62200,resources:iron:62200,resources:food:15500,resources:coin:15500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:63900,resources:stone:63900,resources:iron:63900,resources:food:15900,resources:coin:15900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:65700,resources:stone:65700,resources:iron:65700,resources:food:16400,resources:coin:16400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:67500,resources:stone:67500,resources:iron:67500,resources:food:16800,resources:coin:16800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:69400,resources:stone:69400,resources:iron:69400,resources:food:17300,resources:coin:17300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:18300,resources:coin:18300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:75100,resources:stone:75100,resources:iron:75100,resources:food:18700,resources:coin:18700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:77200,resources:stone:77200,resources:iron:77200,resources:food:19300,resources:coin:19300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:79200,resources:stone:79200,resources:iron:79200,resources:food:19800,resources:coin:19800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:81400,resources:stone:81400,resources:iron:81400,resources:food:20300,resources:coin:20300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:83600,resources:stone:83600,resources:iron:83600,resources:food:20900,resources:coin:20900,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:22000,resources:coin:22000,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:90800,resources:stone:90800,resources:iron:90800,resources:food:22700,resources:coin:22700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:93400,resources:stone:93400,resources:iron:93400,resources:food:23300,resources:coin:23300,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:96100,resources:stone:96100,resources:iron:96100,resources:food:24000,resources:coin:24000,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:98900,resources:stone:98900,resources:iron:98900,resources:food:24700,resources:coin:24700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:101900,resources:stone:101900,resources:iron:101900,resources:food:25400,resources:coin:25400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:105100,resources:stone:105100,resources:iron:105100,resources:food:26200,resources:coin:26200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:108400,resources:stone:108400,resources:iron:108400,resources:food:27100,resources:coin:27100,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:112000,resources:stone:112000,resources:iron:112000,resources:food:28000,resources:coin:28000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:115800,resources:stone:115800,resources:iron:115800,resources:food:28900,resources:coin:28900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:119800,resources:stone:119800,resources:iron:119800,resources:food:29900,resources:coin:29900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:31000,resources:coin:31000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:128700,resources:stone:128700,resources:iron:128700,resources:food:32100,resources:coin:32100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:133700,resources:stone:133700,resources:iron:133700,resources:food:33400,resources:coin:33400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:139100,resources:stone:139100,resources:iron:139100,resources:food:34700,resources:coin:34700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:144900,resources:stone:144900,resources:iron:144900,resources:food:36200,resources:coin:36200,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:151100,resources:stone:151100,resources:iron:151100,resources:food:37700,resources:coin:37700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:157900,resources:stone:157900,resources:iron:157900,resources:food:39400,resources:coin:39400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:165300,resources:stone:165300,resources:iron:165300,resources:food:41300,resources:coin:41300,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:182100,resources:stone:182100,resources:iron:182100,resources:food:45500,resources:coin:45500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:191700,resources:stone:191700,resources:iron:191700,resources:food:47900,resources:coin:47900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:202200,resources:stone:202200,resources:iron:202200,resources:food:50500,resources:coin:50500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:213700,resources:stone:213700,resources:iron:213700,resources:food:53400,resources:coin:53400,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:226200,resources:stone:226200,resources:iron:226200,resources:food:56500,resources:coin:56500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:240000,resources:stone:240000,resources:iron:240000,resources:food:60000,resources:coin:60000,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:255200,resources:stone:255200,resources:iron:255200,resources:food:63800,resources:coin:63800,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:271900,resources:stone:271900,resources:iron:271900,resources:food:67900,resources:coin:67900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:290300,resources:stone:290300,resources:iron:290300,resources:food:72500,resources:coin:72500,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:310600,resources:stone:310600,resources:iron:310600,resources:food:77600,resources:coin:77600,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:332900,resources:stone:332900,resources:iron:332900,resources:food:83200,resources:coin:83200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:357600,resources:stone:357600,resources:iron:357600,resources:food:89400,resources:coin:89400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:384800,resources:stone:384800,resources:iron:384800,resources:food:96200,resources:coin:96200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:414900,resources:stone:414900,resources:iron:414900,resources:food:103700,resources:coin:103700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:448200,resources:stone:448200,resources:iron:448200,resources:food:112000,resources:coin:112000,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:485000,resources:stone:485000,resources:iron:485000,resources:food:121200,resources:coin:121200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:525700,resources:stone:525700,resources:iron:525700,resources:food:131400,resources:coin:131400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:570800,resources:stone:570800,resources:iron:570800,resources:food:142700,resources:coin:142700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:620700,resources:stone:620700,resources:iron:620700,resources:food:155100,resources:coin:155100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:676000,resources:stone:676000,resources:iron:676000,resources:food:169000,resources:coin:169000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:737300,resources:stone:737300,resources:iron:737300,resources:food:184300,resources:coin:184300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:805300,resources:stone:805300,resources:iron:805300,resources:food:201300,resources:coin:201300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:880600,resources:stone:880600,resources:iron:880600,resources:food:220100,resources:coin:220100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:964100,resources:stone:964100,resources:iron:964100,resources:food:241000,resources:coin:241000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1056700,resources:stone:1056700,resources:iron:1056700,resources:food:264100,resources:coin:264100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1159400,resources:stone:1159400,resources:iron:1159400,resources:food:289800,resources:coin:289800,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2273400,resources:stone:2273400,resources:iron:2273400,resources:food:568300,resources:coin:568300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="260">
+  <cellStyleXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1186,6 +1186,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1467,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="260">
+  <cellStyles count="262">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1600,6 +1602,7 @@
     <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1725,6 +1728,7 @@
     <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2176,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3199,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4567,7 +4571,7 @@
       <c r="C97" s="1">
         <v>16402500</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4644,9 +4648,6 @@
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1">
-      <c r="D108" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="7"/>
@@ -15,35 +15,30 @@
     <sheet name="dragonMaterials" sheetId="20" r:id="rId6"/>
     <sheet name="houses" sheetId="18" r:id="rId7"/>
     <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
-    <sheet name="pveLevel" sheetId="27" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -643,86 +638,6 @@
   </si>
   <si>
     <t>龙在相应地形下的hp回复加成比例</t>
-  </si>
-  <si>
-    <t>INT_count</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_itemName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_floor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonExp_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:moveTheCity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonExp_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
@@ -1171,7 +1086,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="262">
+  <cellStyleXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1438,8 +1353,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1456,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1469,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="262">
+  <cellStyles count="264">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1603,6 +1517,7 @@
     <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1729,6 +1644,7 @@
     <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2181,7 +2097,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2429,7 +2345,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="5">
-        <v>120</v>
+        <v>1440</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>116</v>
@@ -2585,7 +2501,7 @@
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2596,7 +2512,7 @@
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2607,7 +2523,7 @@
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2618,7 +2534,7 @@
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2629,7 +2545,7 @@
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2843,7 +2759,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2925,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3031,91 +2947,91 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3122,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D122"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3241,8 +3157,8 @@
       <c r="C2" s="1">
         <v>151</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>167</v>
+      <c r="D2" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3255,8 +3171,8 @@
       <c r="C3" s="1">
         <v>311</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>168</v>
+      <c r="D3" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3269,8 +3185,8 @@
       <c r="C4" s="1">
         <v>479</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>169</v>
+      <c r="D4" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3283,8 +3199,8 @@
       <c r="C5" s="1">
         <v>655</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>170</v>
+      <c r="D5" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3297,8 +3213,8 @@
       <c r="C6" s="1">
         <v>839</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>171</v>
+      <c r="D6" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3311,8 +3227,8 @@
       <c r="C7" s="1">
         <v>1031</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>172</v>
+      <c r="D7" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3325,8 +3241,8 @@
       <c r="C8" s="1">
         <v>1231</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>173</v>
+      <c r="D8" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3339,8 +3255,8 @@
       <c r="C9" s="1">
         <v>1439</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>174</v>
+      <c r="D9" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3353,8 +3269,8 @@
       <c r="C10" s="1">
         <v>1655</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>175</v>
+      <c r="D10" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3367,8 +3283,8 @@
       <c r="C11" s="1">
         <v>1879</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>176</v>
+      <c r="D11" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3381,8 +3297,8 @@
       <c r="C12" s="1">
         <v>2111</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>177</v>
+      <c r="D12" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3395,8 +3311,8 @@
       <c r="C13" s="1">
         <v>2351</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>178</v>
+      <c r="D13" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3409,8 +3325,8 @@
       <c r="C14" s="1">
         <v>2612</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>179</v>
+      <c r="D14" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3423,8 +3339,8 @@
       <c r="C15" s="1">
         <v>2903</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>180</v>
+      <c r="D15" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3437,8 +3353,8 @@
       <c r="C16" s="1">
         <v>3225</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>181</v>
+      <c r="D16" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3451,8 +3367,8 @@
       <c r="C17" s="1">
         <v>3584</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>182</v>
+      <c r="D17" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3465,8 +3381,8 @@
       <c r="C18" s="1">
         <v>3982</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>183</v>
+      <c r="D18" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3479,8 +3395,8 @@
       <c r="C19" s="1">
         <v>4424</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>184</v>
+      <c r="D19" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3493,8 +3409,8 @@
       <c r="C20" s="1">
         <v>4916</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>185</v>
+      <c r="D20" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3507,8 +3423,8 @@
       <c r="C21" s="1">
         <v>5462</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>186</v>
+      <c r="D21" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3521,8 +3437,8 @@
       <c r="C22" s="1">
         <v>6069</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>187</v>
+      <c r="D22" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3535,8 +3451,8 @@
       <c r="C23" s="1">
         <v>6743</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>188</v>
+      <c r="D23" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3549,8 +3465,8 @@
       <c r="C24" s="1">
         <v>7492</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>189</v>
+      <c r="D24" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3563,8 +3479,8 @@
       <c r="C25" s="1">
         <v>8325</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>190</v>
+      <c r="D25" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3577,8 +3493,8 @@
       <c r="C26" s="1">
         <v>9250</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>191</v>
+      <c r="D26" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3591,8 +3507,8 @@
       <c r="C27" s="1">
         <v>10277</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>192</v>
+      <c r="D27" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3605,8 +3521,8 @@
       <c r="C28" s="1">
         <v>11419</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>193</v>
+      <c r="D28" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3619,8 +3535,8 @@
       <c r="C29" s="1">
         <v>12688</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>194</v>
+      <c r="D29" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3633,8 +3549,8 @@
       <c r="C30" s="1">
         <v>14098</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>195</v>
+      <c r="D30" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3647,8 +3563,8 @@
       <c r="C31" s="1">
         <v>15664</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>196</v>
+      <c r="D31" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3661,8 +3577,8 @@
       <c r="C32" s="1">
         <v>17405</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>197</v>
+      <c r="D32" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3675,8 +3591,8 @@
       <c r="C33" s="1">
         <v>19339</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>198</v>
+      <c r="D33" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3689,8 +3605,8 @@
       <c r="C34" s="1">
         <v>21488</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>199</v>
+      <c r="D34" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3703,8 +3619,8 @@
       <c r="C35" s="1">
         <v>23875</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>200</v>
+      <c r="D35" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3717,8 +3633,8 @@
       <c r="C36" s="1">
         <v>26528</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>201</v>
+      <c r="D36" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3731,8 +3647,8 @@
       <c r="C37" s="1">
         <v>29475</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>202</v>
+      <c r="D37" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3745,8 +3661,8 @@
       <c r="C38" s="1">
         <v>32751</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>203</v>
+      <c r="D38" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3759,8 +3675,8 @@
       <c r="C39" s="1">
         <v>36389</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>204</v>
+      <c r="D39" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3773,8 +3689,8 @@
       <c r="C40" s="1">
         <v>40433</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>205</v>
+      <c r="D40" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3787,8 +3703,8 @@
       <c r="C41" s="1">
         <v>44925</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>206</v>
+      <c r="D41" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3801,8 +3717,8 @@
       <c r="C42" s="1">
         <v>49917</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>207</v>
+      <c r="D42" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3815,8 +3731,8 @@
       <c r="C43" s="1">
         <v>55463</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>208</v>
+      <c r="D43" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3829,8 +3745,8 @@
       <c r="C44" s="1">
         <v>61626</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>209</v>
+      <c r="D44" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3843,8 +3759,8 @@
       <c r="C45" s="1">
         <v>68473</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>210</v>
+      <c r="D45" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3857,8 +3773,8 @@
       <c r="C46" s="1">
         <v>76081</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>211</v>
+      <c r="D46" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3871,8 +3787,8 @@
       <c r="C47" s="1">
         <v>84535</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>212</v>
+      <c r="D47" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3885,8 +3801,8 @@
       <c r="C48" s="1">
         <v>93928</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>213</v>
+      <c r="D48" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3899,8 +3815,8 @@
       <c r="C49" s="1">
         <v>104364</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>214</v>
+      <c r="D49" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3913,8 +3829,8 @@
       <c r="C50" s="1">
         <v>115960</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>215</v>
+      <c r="D50" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3927,8 +3843,8 @@
       <c r="C51" s="1">
         <v>128844</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>216</v>
+      <c r="D51" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3941,8 +3857,8 @@
       <c r="C52" s="1">
         <v>143160</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>217</v>
+      <c r="D52" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3955,8 +3871,8 @@
       <c r="C53" s="1">
         <v>159067</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>218</v>
+      <c r="D53" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3969,8 +3885,8 @@
       <c r="C54" s="1">
         <v>176741</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>219</v>
+      <c r="D54" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3983,8 +3899,8 @@
       <c r="C55" s="1">
         <v>196379</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>220</v>
+      <c r="D55" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3997,8 +3913,8 @@
       <c r="C56" s="1">
         <v>218199</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>221</v>
+      <c r="D56" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -4011,8 +3927,8 @@
       <c r="C57" s="1">
         <v>242443</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>222</v>
+      <c r="D57" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -4025,8 +3941,8 @@
       <c r="C58" s="1">
         <v>269382</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>223</v>
+      <c r="D58" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -4039,8 +3955,8 @@
       <c r="C59" s="1">
         <v>299313</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>224</v>
+      <c r="D59" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -4053,8 +3969,8 @@
       <c r="C60" s="1">
         <v>332570</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>225</v>
+      <c r="D60" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -4067,8 +3983,8 @@
       <c r="C61" s="1">
         <v>369522</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>226</v>
+      <c r="D61" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -4081,8 +3997,8 @@
       <c r="C62" s="1">
         <v>410580</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>227</v>
+      <c r="D62" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4095,8 +4011,8 @@
       <c r="C63" s="1">
         <v>456200</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>228</v>
+      <c r="D63" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4109,8 +4025,8 @@
       <c r="C64" s="1">
         <v>506889</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>229</v>
+      <c r="D64" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4123,8 +4039,8 @@
       <c r="C65" s="1">
         <v>563210</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>230</v>
+      <c r="D65" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4137,8 +4053,8 @@
       <c r="C66" s="1">
         <v>625789</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>231</v>
+      <c r="D66" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4151,8 +4067,8 @@
       <c r="C67" s="1">
         <v>695321</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>232</v>
+      <c r="D67" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4165,8 +4081,8 @@
       <c r="C68" s="1">
         <v>772579</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>233</v>
+      <c r="D68" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4179,8 +4095,8 @@
       <c r="C69" s="1">
         <v>858421</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>234</v>
+      <c r="D69" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4193,8 +4109,8 @@
       <c r="C70" s="1">
         <v>953801</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>235</v>
+      <c r="D70" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4207,8 +4123,8 @@
       <c r="C71" s="1">
         <v>1059779</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>236</v>
+      <c r="D71" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4221,8 +4137,8 @@
       <c r="C72" s="1">
         <v>1177532</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>237</v>
+      <c r="D72" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4235,8 +4151,8 @@
       <c r="C73" s="1">
         <v>1308369</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>238</v>
+      <c r="D73" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4249,8 +4165,8 @@
       <c r="C74" s="1">
         <v>1453743</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>239</v>
+      <c r="D74" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4263,8 +4179,8 @@
       <c r="C75" s="1">
         <v>1615270</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>240</v>
+      <c r="D75" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4277,8 +4193,8 @@
       <c r="C76" s="1">
         <v>1794745</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>241</v>
+      <c r="D76" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4291,8 +4207,8 @@
       <c r="C77" s="1">
         <v>1994161</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>242</v>
+      <c r="D77" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4305,8 +4221,8 @@
       <c r="C78" s="1">
         <v>2215735</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>243</v>
+      <c r="D78" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4319,8 +4235,8 @@
       <c r="C79" s="1">
         <v>2461927</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>244</v>
+      <c r="D79" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4333,8 +4249,8 @@
       <c r="C80" s="1">
         <v>2735475</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>245</v>
+      <c r="D80" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4347,8 +4263,8 @@
       <c r="C81" s="1">
         <v>3039416</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>246</v>
+      <c r="D81" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4361,8 +4277,8 @@
       <c r="C82" s="1">
         <v>3377129</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>247</v>
+      <c r="D82" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4375,8 +4291,8 @@
       <c r="C83" s="1">
         <v>3752366</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>248</v>
+      <c r="D83" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4389,8 +4305,8 @@
       <c r="C84" s="1">
         <v>4169295</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>249</v>
+      <c r="D84" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4403,8 +4319,8 @@
       <c r="C85" s="1">
         <v>4632550</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>250</v>
+      <c r="D85" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4417,8 +4333,8 @@
       <c r="C86" s="1">
         <v>5147278</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>251</v>
+      <c r="D86" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4431,8 +4347,8 @@
       <c r="C87" s="1">
         <v>5719198</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>252</v>
+      <c r="D87" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4445,8 +4361,8 @@
       <c r="C88" s="1">
         <v>6354665</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>253</v>
+      <c r="D88" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4459,8 +4375,8 @@
       <c r="C89" s="1">
         <v>7060738</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>254</v>
+      <c r="D89" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4473,8 +4389,8 @@
       <c r="C90" s="1">
         <v>7845265</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>255</v>
+      <c r="D90" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4487,8 +4403,8 @@
       <c r="C91" s="1">
         <v>8716961</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>256</v>
+      <c r="D91" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4501,8 +4417,8 @@
       <c r="C92" s="1">
         <v>9685512</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>257</v>
+      <c r="D92" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4515,8 +4431,8 @@
       <c r="C93" s="1">
         <v>10761680</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>258</v>
+      <c r="D93" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4529,8 +4445,8 @@
       <c r="C94" s="1">
         <v>11957423</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>259</v>
+      <c r="D94" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4543,8 +4459,8 @@
       <c r="C95" s="1">
         <v>13286025</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>260</v>
+      <c r="D95" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4557,8 +4473,8 @@
       <c r="C96" s="1">
         <v>14762250</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>261</v>
+      <c r="D96" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4571,8 +4487,8 @@
       <c r="C97" s="1">
         <v>16402500</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>262</v>
+      <c r="D97" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4585,8 +4501,8 @@
       <c r="C98" s="1">
         <v>18225000</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>263</v>
+      <c r="D98" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4599,8 +4515,8 @@
       <c r="C99" s="1">
         <v>20250000</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>264</v>
+      <c r="D99" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4613,8 +4529,8 @@
       <c r="C100" s="1">
         <v>24500000</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>265</v>
+      <c r="D100" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4627,339 +4543,27 @@
       <c r="C101" s="1">
         <v>32500000</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>266</v>
+      <c r="D101" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="D102" s="9"/>
+      <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="D103" s="9"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="D104" s="9"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="D105" s="9"/>
+      <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
-      <c r="D106" s="9"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="D107" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="B28" s="7"/>
+      <c r="D107" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2568,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2644,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -2842,7 +2842,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3121,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2568,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>25000</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="36860" windowHeight="19980" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27640" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2096,13 +2096,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="1"/>
@@ -2202,7 +2202,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>83</v>
@@ -2568,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2268,7 +2268,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>96</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27640" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="3920" yWindow="1300" windowWidth="27640" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonChestSelectCountPerItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_desc</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -387,10 +383,6 @@
   </si>
   <si>
     <t>精力每小时恢复量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开巨龙宝箱每次选取的材料个数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2094,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2116,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -2128,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -2139,7 +2131,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2150,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -2161,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -2172,7 +2164,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -2183,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -2194,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -2205,15 +2197,15 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -2221,13 +2213,13 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -2235,7 +2227,7 @@
         <v>88</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>89</v>
@@ -2243,13 +2235,13 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -2257,32 +2249,32 @@
         <v>93</v>
       </c>
       <c r="B14" s="1">
-        <v>150000</v>
+        <v>960</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1">
-        <v>960</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="1">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -2290,7 +2282,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="1">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>106</v>
@@ -2298,24 +2290,24 @@
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -2323,7 +2315,7 @@
         <v>111</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>112</v>
@@ -2333,8 +2325,8 @@
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="1">
-        <v>360</v>
+      <c r="B21" s="5">
+        <v>1440</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>114</v>
@@ -2344,8 +2336,8 @@
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="5">
-        <v>1440</v>
+      <c r="B22" s="1">
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>116</v>
@@ -2356,7 +2348,7 @@
         <v>117</v>
       </c>
       <c r="B23" s="1">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>118</v>
@@ -2367,7 +2359,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="1">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>120</v>
@@ -2378,7 +2370,7 @@
         <v>121</v>
       </c>
       <c r="B25" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>122</v>
@@ -2389,7 +2381,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>124</v>
@@ -2400,18 +2392,18 @@
         <v>125</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1">
-        <v>256</v>
+        <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>133</v>
@@ -2419,46 +2411,35 @@
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2493,63 +2474,63 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2593,7 @@
         <v>71</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3143,7 +3124,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -3158,7 +3139,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3172,7 +3153,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3186,7 +3167,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3200,7 +3181,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3214,7 +3195,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3228,7 +3209,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3242,7 +3223,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3256,7 +3237,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3270,7 +3251,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3284,7 +3265,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3298,7 +3279,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3312,7 +3293,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3326,7 +3307,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3340,7 +3321,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3354,7 +3335,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3368,7 +3349,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3382,7 +3363,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3396,7 +3377,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3410,7 +3391,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3424,7 +3405,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3438,7 +3419,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3452,7 +3433,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3466,7 +3447,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3480,7 +3461,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3494,7 +3475,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3508,7 +3489,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3522,7 +3503,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3536,7 +3517,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3550,7 +3531,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3564,7 +3545,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3578,7 +3559,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3592,7 +3573,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3606,7 +3587,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3620,7 +3601,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3634,7 +3615,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3648,7 +3629,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3662,7 +3643,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3676,7 +3657,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3690,7 +3671,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3704,7 +3685,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3718,7 +3699,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3732,7 +3713,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3746,7 +3727,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3760,7 +3741,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3774,7 +3755,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3788,7 +3769,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3802,7 +3783,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3816,7 +3797,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3830,7 +3811,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3844,7 +3825,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3858,7 +3839,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3872,7 +3853,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3886,7 +3867,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3900,7 +3881,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3914,7 +3895,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3928,7 +3909,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3942,7 +3923,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3956,7 +3937,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3970,7 +3951,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3984,7 +3965,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3998,7 +3979,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4012,7 +3993,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4026,7 +4007,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4040,7 +4021,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4054,7 +4035,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4068,7 +4049,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4082,7 +4063,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4096,7 +4077,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4110,7 +4091,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4124,7 +4105,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4138,7 +4119,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4152,7 +4133,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4166,7 +4147,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4180,7 +4161,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4194,7 +4175,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4208,7 +4189,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4222,7 +4203,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4236,7 +4217,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4250,7 +4231,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4264,7 +4245,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4278,7 +4259,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4292,7 +4273,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4306,7 +4287,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4320,7 +4301,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4334,7 +4315,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4348,7 +4329,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4362,7 +4343,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4376,7 +4357,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4390,7 +4371,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4404,7 +4385,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4418,7 +4399,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4432,7 +4413,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4446,7 +4427,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4460,7 +4441,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4474,7 +4455,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4488,7 +4469,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4502,7 +4483,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4516,7 +4497,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4530,7 +4511,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4544,7 +4525,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1300" windowWidth="27640" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="3920" yWindow="1300" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -606,330 +606,330 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>dragonHpRecoverTerrainAddPercent</t>
+  </si>
+  <si>
+    <t>龙在相应地形下的hp回复加成比例</t>
+  </si>
+  <si>
+    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:3000,resources:coin:3000,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:4500,resources:coin:4500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:19600,resources:stone:19600,resources:iron:19600,resources:food:4900,resources:coin:4900,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:21100,resources:stone:21100,resources:iron:21100,resources:food:5200,resources:coin:5200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:5600,resources:coin:5600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:6000,resources:coin:6000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:25600,resources:stone:25600,resources:iron:25600,resources:food:6400,resources:coin:6400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:27200,resources:stone:27200,resources:iron:27200,resources:food:6800,resources:coin:6800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:28700,resources:stone:28700,resources:iron:28700,resources:food:7100,resources:coin:7100,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:7900,resources:coin:7900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:33300,resources:stone:33300,resources:iron:33300,resources:food:8300,resources:coin:8300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:34800,resources:stone:34800,resources:iron:34800,resources:food:8700,resources:coin:8700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:37900,resources:stone:37900,resources:iron:37900,resources:food:9400,resources:coin:9400,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:39500,resources:stone:39500,resources:iron:39500,resources:food:9800,resources:coin:9800,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:10200,resources:coin:10200,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:44200,resources:stone:44200,resources:iron:44200,resources:food:11000,resources:coin:11000,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:45700,resources:stone:45700,resources:iron:45700,resources:food:11400,resources:coin:11400,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:47300,resources:stone:47300,resources:iron:47300,resources:food:11800,resources:coin:11800,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:48900,resources:stone:48900,resources:iron:48900,resources:food:12200,resources:coin:12200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:50500,resources:stone:50500,resources:iron:50500,resources:food:12600,resources:coin:12600,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:52100,resources:stone:52100,resources:iron:52100,resources:food:13000,resources:coin:13000,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:53800,resources:stone:53800,resources:iron:53800,resources:food:13400,resources:coin:13400,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:55400,resources:stone:55400,resources:iron:55400,resources:food:13800,resources:coin:13800,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:57100,resources:stone:57100,resources:iron:57100,resources:food:14200,resources:coin:14200,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:58800,resources:stone:58800,resources:iron:58800,resources:food:14700,resources:coin:14700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:60500,resources:stone:60500,resources:iron:60500,resources:food:15100,resources:coin:15100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:62200,resources:stone:62200,resources:iron:62200,resources:food:15500,resources:coin:15500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:63900,resources:stone:63900,resources:iron:63900,resources:food:15900,resources:coin:15900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:65700,resources:stone:65700,resources:iron:65700,resources:food:16400,resources:coin:16400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:67500,resources:stone:67500,resources:iron:67500,resources:food:16800,resources:coin:16800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:69400,resources:stone:69400,resources:iron:69400,resources:food:17300,resources:coin:17300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:18300,resources:coin:18300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:75100,resources:stone:75100,resources:iron:75100,resources:food:18700,resources:coin:18700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:77200,resources:stone:77200,resources:iron:77200,resources:food:19300,resources:coin:19300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:79200,resources:stone:79200,resources:iron:79200,resources:food:19800,resources:coin:19800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:81400,resources:stone:81400,resources:iron:81400,resources:food:20300,resources:coin:20300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:83600,resources:stone:83600,resources:iron:83600,resources:food:20900,resources:coin:20900,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:22000,resources:coin:22000,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:90800,resources:stone:90800,resources:iron:90800,resources:food:22700,resources:coin:22700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:93400,resources:stone:93400,resources:iron:93400,resources:food:23300,resources:coin:23300,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:96100,resources:stone:96100,resources:iron:96100,resources:food:24000,resources:coin:24000,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:98900,resources:stone:98900,resources:iron:98900,resources:food:24700,resources:coin:24700,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:101900,resources:stone:101900,resources:iron:101900,resources:food:25400,resources:coin:25400,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:105100,resources:stone:105100,resources:iron:105100,resources:food:26200,resources:coin:26200,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:108400,resources:stone:108400,resources:iron:108400,resources:food:27100,resources:coin:27100,resources:gem:150</t>
+  </si>
+  <si>
+    <t>resources:wood:112000,resources:stone:112000,resources:iron:112000,resources:food:28000,resources:coin:28000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:115800,resources:stone:115800,resources:iron:115800,resources:food:28900,resources:coin:28900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:119800,resources:stone:119800,resources:iron:119800,resources:food:29900,resources:coin:29900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:31000,resources:coin:31000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:128700,resources:stone:128700,resources:iron:128700,resources:food:32100,resources:coin:32100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:133700,resources:stone:133700,resources:iron:133700,resources:food:33400,resources:coin:33400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:139100,resources:stone:139100,resources:iron:139100,resources:food:34700,resources:coin:34700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:144900,resources:stone:144900,resources:iron:144900,resources:food:36200,resources:coin:36200,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:151100,resources:stone:151100,resources:iron:151100,resources:food:37700,resources:coin:37700,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:157900,resources:stone:157900,resources:iron:157900,resources:food:39400,resources:coin:39400,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:165300,resources:stone:165300,resources:iron:165300,resources:food:41300,resources:coin:41300,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:182100,resources:stone:182100,resources:iron:182100,resources:food:45500,resources:coin:45500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:191700,resources:stone:191700,resources:iron:191700,resources:food:47900,resources:coin:47900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:202200,resources:stone:202200,resources:iron:202200,resources:food:50500,resources:coin:50500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:213700,resources:stone:213700,resources:iron:213700,resources:food:53400,resources:coin:53400,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:226200,resources:stone:226200,resources:iron:226200,resources:food:56500,resources:coin:56500,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:240000,resources:stone:240000,resources:iron:240000,resources:food:60000,resources:coin:60000,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:255200,resources:stone:255200,resources:iron:255200,resources:food:63800,resources:coin:63800,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:271900,resources:stone:271900,resources:iron:271900,resources:food:67900,resources:coin:67900,resources:gem:250</t>
+  </si>
+  <si>
+    <t>resources:wood:290300,resources:stone:290300,resources:iron:290300,resources:food:72500,resources:coin:72500,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:310600,resources:stone:310600,resources:iron:310600,resources:food:77600,resources:coin:77600,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:332900,resources:stone:332900,resources:iron:332900,resources:food:83200,resources:coin:83200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:357600,resources:stone:357600,resources:iron:357600,resources:food:89400,resources:coin:89400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:384800,resources:stone:384800,resources:iron:384800,resources:food:96200,resources:coin:96200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:414900,resources:stone:414900,resources:iron:414900,resources:food:103700,resources:coin:103700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:448200,resources:stone:448200,resources:iron:448200,resources:food:112000,resources:coin:112000,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:485000,resources:stone:485000,resources:iron:485000,resources:food:121200,resources:coin:121200,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:525700,resources:stone:525700,resources:iron:525700,resources:food:131400,resources:coin:131400,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:570800,resources:stone:570800,resources:iron:570800,resources:food:142700,resources:coin:142700,resources:gem:300</t>
+  </si>
+  <si>
+    <t>resources:wood:620700,resources:stone:620700,resources:iron:620700,resources:food:155100,resources:coin:155100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:676000,resources:stone:676000,resources:iron:676000,resources:food:169000,resources:coin:169000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:737300,resources:stone:737300,resources:iron:737300,resources:food:184300,resources:coin:184300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:805300,resources:stone:805300,resources:iron:805300,resources:food:201300,resources:coin:201300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:880600,resources:stone:880600,resources:iron:880600,resources:food:220100,resources:coin:220100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:964100,resources:stone:964100,resources:iron:964100,resources:food:241000,resources:coin:241000,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1056700,resources:stone:1056700,resources:iron:1056700,resources:food:264100,resources:coin:264100,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:1159400,resources:stone:1159400,resources:iron:1159400,resources:food:289800,resources:coin:289800,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:2273400,resources:stone:2273400,resources:iron:2273400,resources:food:568300,resources:coin:568300,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
+  </si>
+  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:quarterMaster_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpRecoverTerrainAddPercent</t>
-  </si>
-  <si>
-    <t>龙在相应地形下的hp回复加成比例</t>
-  </si>
-  <si>
-    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:3000,resources:coin:3000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:4500,resources:coin:4500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:19600,resources:stone:19600,resources:iron:19600,resources:food:4900,resources:coin:4900,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:21100,resources:stone:21100,resources:iron:21100,resources:food:5200,resources:coin:5200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:5600,resources:coin:5600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:6000,resources:coin:6000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:25600,resources:stone:25600,resources:iron:25600,resources:food:6400,resources:coin:6400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:27200,resources:stone:27200,resources:iron:27200,resources:food:6800,resources:coin:6800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:28700,resources:stone:28700,resources:iron:28700,resources:food:7100,resources:coin:7100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:7900,resources:coin:7900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:33300,resources:stone:33300,resources:iron:33300,resources:food:8300,resources:coin:8300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:34800,resources:stone:34800,resources:iron:34800,resources:food:8700,resources:coin:8700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:37900,resources:stone:37900,resources:iron:37900,resources:food:9400,resources:coin:9400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:39500,resources:stone:39500,resources:iron:39500,resources:food:9800,resources:coin:9800,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:10200,resources:coin:10200,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:44200,resources:stone:44200,resources:iron:44200,resources:food:11000,resources:coin:11000,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:45700,resources:stone:45700,resources:iron:45700,resources:food:11400,resources:coin:11400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:47300,resources:stone:47300,resources:iron:47300,resources:food:11800,resources:coin:11800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:48900,resources:stone:48900,resources:iron:48900,resources:food:12200,resources:coin:12200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:50500,resources:stone:50500,resources:iron:50500,resources:food:12600,resources:coin:12600,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:52100,resources:stone:52100,resources:iron:52100,resources:food:13000,resources:coin:13000,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:53800,resources:stone:53800,resources:iron:53800,resources:food:13400,resources:coin:13400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:55400,resources:stone:55400,resources:iron:55400,resources:food:13800,resources:coin:13800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:57100,resources:stone:57100,resources:iron:57100,resources:food:14200,resources:coin:14200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:58800,resources:stone:58800,resources:iron:58800,resources:food:14700,resources:coin:14700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:60500,resources:stone:60500,resources:iron:60500,resources:food:15100,resources:coin:15100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:62200,resources:stone:62200,resources:iron:62200,resources:food:15500,resources:coin:15500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:63900,resources:stone:63900,resources:iron:63900,resources:food:15900,resources:coin:15900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:65700,resources:stone:65700,resources:iron:65700,resources:food:16400,resources:coin:16400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:67500,resources:stone:67500,resources:iron:67500,resources:food:16800,resources:coin:16800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:69400,resources:stone:69400,resources:iron:69400,resources:food:17300,resources:coin:17300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:18300,resources:coin:18300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:75100,resources:stone:75100,resources:iron:75100,resources:food:18700,resources:coin:18700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:77200,resources:stone:77200,resources:iron:77200,resources:food:19300,resources:coin:19300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:79200,resources:stone:79200,resources:iron:79200,resources:food:19800,resources:coin:19800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:81400,resources:stone:81400,resources:iron:81400,resources:food:20300,resources:coin:20300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:83600,resources:stone:83600,resources:iron:83600,resources:food:20900,resources:coin:20900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:22000,resources:coin:22000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:90800,resources:stone:90800,resources:iron:90800,resources:food:22700,resources:coin:22700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:93400,resources:stone:93400,resources:iron:93400,resources:food:23300,resources:coin:23300,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:96100,resources:stone:96100,resources:iron:96100,resources:food:24000,resources:coin:24000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:98900,resources:stone:98900,resources:iron:98900,resources:food:24700,resources:coin:24700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:101900,resources:stone:101900,resources:iron:101900,resources:food:25400,resources:coin:25400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:105100,resources:stone:105100,resources:iron:105100,resources:food:26200,resources:coin:26200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:108400,resources:stone:108400,resources:iron:108400,resources:food:27100,resources:coin:27100,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:112000,resources:stone:112000,resources:iron:112000,resources:food:28000,resources:coin:28000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:115800,resources:stone:115800,resources:iron:115800,resources:food:28900,resources:coin:28900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:119800,resources:stone:119800,resources:iron:119800,resources:food:29900,resources:coin:29900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:31000,resources:coin:31000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:128700,resources:stone:128700,resources:iron:128700,resources:food:32100,resources:coin:32100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:133700,resources:stone:133700,resources:iron:133700,resources:food:33400,resources:coin:33400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:139100,resources:stone:139100,resources:iron:139100,resources:food:34700,resources:coin:34700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:144900,resources:stone:144900,resources:iron:144900,resources:food:36200,resources:coin:36200,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:151100,resources:stone:151100,resources:iron:151100,resources:food:37700,resources:coin:37700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:157900,resources:stone:157900,resources:iron:157900,resources:food:39400,resources:coin:39400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:165300,resources:stone:165300,resources:iron:165300,resources:food:41300,resources:coin:41300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:182100,resources:stone:182100,resources:iron:182100,resources:food:45500,resources:coin:45500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:191700,resources:stone:191700,resources:iron:191700,resources:food:47900,resources:coin:47900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:202200,resources:stone:202200,resources:iron:202200,resources:food:50500,resources:coin:50500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:213700,resources:stone:213700,resources:iron:213700,resources:food:53400,resources:coin:53400,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:226200,resources:stone:226200,resources:iron:226200,resources:food:56500,resources:coin:56500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:240000,resources:stone:240000,resources:iron:240000,resources:food:60000,resources:coin:60000,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:255200,resources:stone:255200,resources:iron:255200,resources:food:63800,resources:coin:63800,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:271900,resources:stone:271900,resources:iron:271900,resources:food:67900,resources:coin:67900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:290300,resources:stone:290300,resources:iron:290300,resources:food:72500,resources:coin:72500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:310600,resources:stone:310600,resources:iron:310600,resources:food:77600,resources:coin:77600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:332900,resources:stone:332900,resources:iron:332900,resources:food:83200,resources:coin:83200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:357600,resources:stone:357600,resources:iron:357600,resources:food:89400,resources:coin:89400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:384800,resources:stone:384800,resources:iron:384800,resources:food:96200,resources:coin:96200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:414900,resources:stone:414900,resources:iron:414900,resources:food:103700,resources:coin:103700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:448200,resources:stone:448200,resources:iron:448200,resources:food:112000,resources:coin:112000,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:485000,resources:stone:485000,resources:iron:485000,resources:food:121200,resources:coin:121200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:525700,resources:stone:525700,resources:iron:525700,resources:food:131400,resources:coin:131400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:570800,resources:stone:570800,resources:iron:570800,resources:food:142700,resources:coin:142700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:620700,resources:stone:620700,resources:iron:620700,resources:food:155100,resources:coin:155100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:676000,resources:stone:676000,resources:iron:676000,resources:food:169000,resources:coin:169000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:737300,resources:stone:737300,resources:iron:737300,resources:food:184300,resources:coin:184300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:805300,resources:stone:805300,resources:iron:805300,resources:food:201300,resources:coin:201300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:880600,resources:stone:880600,resources:iron:880600,resources:food:220100,resources:coin:220100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:964100,resources:stone:964100,resources:iron:964100,resources:food:241000,resources:coin:241000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1056700,resources:stone:1056700,resources:iron:1056700,resources:food:264100,resources:coin:264100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1159400,resources:stone:1159400,resources:iron:1159400,resources:food:289800,resources:coin:289800,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2273400,resources:stone:2273400,resources:iron:2273400,resources:food:568300,resources:coin:568300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
+    <t>special:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="264">
+  <cellStyleXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1347,8 +1347,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,8 +1390,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="264">
+  <cellStyles count="280">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1510,6 +1529,14 @@
     <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1637,6 +1664,14 @@
     <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2088,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2433,13 +2468,13 @@
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2458,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2483,7 +2518,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>126</v>
@@ -2494,7 +2529,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>130</v>
@@ -2505,7 +2540,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>128</v>
@@ -2516,7 +2551,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>129</v>
@@ -2526,8 +2561,8 @@
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>142</v>
+      <c r="B6" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>127</v>
@@ -3139,7 +3174,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3153,7 +3188,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3167,7 +3202,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3181,7 +3216,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3195,7 +3230,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3209,7 +3244,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3223,7 +3258,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3237,7 +3272,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3251,7 +3286,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3265,7 +3300,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3279,7 +3314,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3293,7 +3328,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3307,7 +3342,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3321,7 +3356,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3335,7 +3370,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3349,7 +3384,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3363,7 +3398,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3377,7 +3412,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3391,7 +3426,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3405,7 +3440,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3419,7 +3454,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3433,7 +3468,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3447,7 +3482,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3461,7 +3496,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3475,7 +3510,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3489,7 +3524,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3503,7 +3538,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3517,7 +3552,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3531,7 +3566,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3545,7 +3580,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3559,7 +3594,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3573,7 +3608,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3587,7 +3622,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3601,7 +3636,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3615,7 +3650,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3629,7 +3664,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3643,7 +3678,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3657,7 +3692,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3671,7 +3706,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3685,7 +3720,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3699,7 +3734,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3713,7 +3748,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3727,7 +3762,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3741,7 +3776,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3755,7 +3790,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3769,7 +3804,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3783,7 +3818,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3797,7 +3832,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3811,7 +3846,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3825,7 +3860,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3839,7 +3874,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3853,7 +3888,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3867,7 +3902,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3881,7 +3916,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3895,7 +3930,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3909,7 +3944,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3923,7 +3958,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3937,7 +3972,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3951,7 +3986,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3965,7 +4000,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3979,7 +4014,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3993,7 +4028,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4007,7 +4042,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4021,7 +4056,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4035,7 +4070,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4049,7 +4084,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4063,7 +4098,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4077,7 +4112,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4091,7 +4126,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4105,7 +4140,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4119,7 +4154,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4133,7 +4168,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4147,7 +4182,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4161,7 +4196,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4175,7 +4210,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4189,7 +4224,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4203,7 +4238,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4217,7 +4252,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4231,7 +4266,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4245,7 +4280,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4259,7 +4294,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4273,7 +4308,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4287,7 +4322,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4301,7 +4336,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4315,7 +4350,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4329,7 +4364,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4343,7 +4378,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4357,7 +4392,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4371,7 +4406,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4385,7 +4420,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4399,7 +4434,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4413,7 +4448,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4427,7 +4462,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4441,7 +4476,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4455,7 +4490,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4469,7 +4504,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4483,7 +4518,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4497,7 +4532,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4511,7 +4546,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4525,7 +4560,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -912,23 +912,23 @@
     <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
   </si>
   <si>
+    <t>special:chest_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:chest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:2</t>
+    <t>resource:coinClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1078,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="280">
+  <cellStyleXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1093,6 +1093,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1394,7 +1396,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="280">
+  <cellStyles count="282">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1537,6 +1539,7 @@
     <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1672,6 +1675,7 @@
     <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2494,7 +2498,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2518,7 +2522,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>126</v>
@@ -2529,7 +2533,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>130</v>
@@ -2540,7 +2544,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>128</v>
@@ -2551,7 +2555,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>129</v>
@@ -2562,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>127</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1300" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="4100" yWindow="840" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -924,11 +924,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4</t>
+    <t>resource:coinClass_4:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2498,7 +2494,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2555,7 +2551,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>129</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="840" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="4100" yWindow="840" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -925,6 +925,14 @@
   </si>
   <si>
     <t>resource:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePlayerNeedHouses</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义活跃用户最后登录时间和当前时间的差值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2121,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2475,6 +2483,17 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="1">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2493,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="840" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="3960" yWindow="340" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -933,6 +933,14 @@
   </si>
   <si>
     <t>定义活跃用户最后登录时间和当前时间的差值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>techRecruitQueueRefreshMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产科技解锁的造兵队列冷却分钟数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2129,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2494,6 +2502,17 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -933,14 +933,6 @@
   </si>
   <si>
     <t>定义活跃用户最后登录时间和当前时间的差值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>techRecruitQueueRefreshMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产科技解锁的造兵队列冷却分钟数</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2137,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2502,17 +2494,6 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1440</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="340" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="6120" yWindow="620" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>specialSoldierRecruitAbleDays</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首冲奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -578,10 +574,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>特殊兵种在每周几可招募</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -916,10 +908,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:gemClass_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -933,6 +921,14 @@
   </si>
   <si>
     <t>定义活跃用户最后登录时间和当前时间的差值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -2432,10 +2428,10 @@
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1">
-        <v>256</v>
+        <v>1500</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>131</v>
@@ -2443,24 +2439,24 @@
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -2476,24 +2472,13 @@
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" s="1">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2498,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2537,10 +2522,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -2548,10 +2533,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2562,7 +2547,7 @@
         <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -2570,10 +2555,10 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -2581,10 +2566,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3178,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3207,7 +3192,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3221,7 +3206,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3235,7 +3220,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3249,7 +3234,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3263,7 +3248,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3277,7 +3262,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3291,7 +3276,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3305,7 +3290,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3319,7 +3304,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3333,7 +3318,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3347,7 +3332,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3361,7 +3346,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3375,7 +3360,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3389,7 +3374,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3388,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3402,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3416,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3430,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3444,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3458,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3472,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3486,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3500,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3514,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3528,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3542,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3556,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3570,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3584,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3598,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3612,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3626,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3640,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3654,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3668,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3682,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3696,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3710,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3724,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3738,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3752,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3766,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3780,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3794,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3808,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3822,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +3836,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +3850,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +3864,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +3878,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +3892,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +3906,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3935,7 +3920,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3949,7 +3934,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3963,7 +3948,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3977,7 +3962,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3991,7 +3976,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -4005,7 +3990,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -4019,7 +4004,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -4033,7 +4018,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4047,7 +4032,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4061,7 +4046,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4075,7 +4060,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4089,7 +4074,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4103,7 +4088,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4117,7 +4102,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4131,7 +4116,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4145,7 +4130,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4159,7 +4144,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4173,7 +4158,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4187,7 +4172,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4201,7 +4186,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4215,7 +4200,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4229,7 +4214,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4243,7 +4228,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4257,7 +4242,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4271,7 +4256,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4285,7 +4270,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4299,7 +4284,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4313,7 +4298,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4327,7 +4312,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4341,7 +4326,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4355,7 +4340,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4369,7 +4354,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4383,7 +4368,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4397,7 +4382,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4411,7 +4396,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4425,7 +4410,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4439,7 +4424,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4453,7 +4438,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4467,7 +4452,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4481,7 +4466,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4495,7 +4480,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4509,7 +4494,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4523,7 +4508,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4537,7 +4522,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4551,7 +4536,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4565,7 +4550,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4579,7 +4564,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,42 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="620" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="4380" yWindow="1220" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
     <sheet name="stringInit" sheetId="26" r:id="rId2"/>
     <sheet name="resources" sheetId="2" r:id="rId3"/>
-    <sheet name="materials" sheetId="15" r:id="rId4"/>
-    <sheet name="soldierMaterials" sheetId="19" r:id="rId5"/>
-    <sheet name="dragonMaterials" sheetId="20" r:id="rId6"/>
-    <sheet name="houses" sheetId="18" r:id="rId7"/>
-    <sheet name="playerLevel" sheetId="21" r:id="rId8"/>
+    <sheet name="playerLevel" sheetId="21" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -53,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -83,93 +66,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_tools</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_tiles</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_pulley</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_blueprints</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_trainingFigure</t>
-  </si>
-  <si>
-    <t>INT_bowTarget</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_saddle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ironPart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dwelling</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_woodcutter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_farmer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_quarrier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_miner</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_deathHand</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_heroBones</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_soulStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_confessionHood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_brightRing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_holyBook</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_blood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -222,122 +122,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_redSoul_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redSoul_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redSoul_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueSoul_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueSoul_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueSoul_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenSoul_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenSoul_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenSoul_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redCrystal_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redCrystal_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redCrystal_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_redCrystal_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueCrystal_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueCrystal_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueCrystal_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_blueCrystal_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenCrystal_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenCrystal_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenCrystal_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greenCrystal_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_runes_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_runes_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_runes_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_runes_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ingo_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ingo_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ingo_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ingo_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_stamina</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -929,6 +713,14 @@
   </si>
   <si>
     <t>resource:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>eachHouseInitCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始小屋数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2125,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2141,344 +1933,355 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>5000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>150000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>960</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5">
         <v>1440</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1">
         <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
         <v>1500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1">
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1">
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="B31" s="1">
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>242</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2497,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2510,66 +2313,66 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2392,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2599,7 +2402,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2623,16 +2426,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -2655,7 +2458,7 @@
         <v>25000</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
         <v>50000</v>
@@ -2693,456 +2496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3154,16 +2511,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -3178,7 +2535,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3192,7 +2549,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3206,7 +2563,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3220,7 +2577,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3234,7 +2591,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3248,7 +2605,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3262,7 +2619,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3276,7 +2633,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3290,7 +2647,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3304,7 +2661,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3318,7 +2675,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3332,7 +2689,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3346,7 +2703,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3360,7 +2717,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3374,7 +2731,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3388,7 +2745,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3402,7 +2759,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3416,7 +2773,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3430,7 +2787,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3444,7 +2801,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3458,7 +2815,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3472,7 +2829,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3486,7 +2843,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3500,7 +2857,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3514,7 +2871,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3528,7 +2885,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3542,7 +2899,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3556,7 +2913,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3570,7 +2927,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3584,7 +2941,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3598,7 +2955,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3612,7 +2969,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3626,7 +2983,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3640,7 +2997,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3654,7 +3011,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3668,7 +3025,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3682,7 +3039,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3696,7 +3053,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3710,7 +3067,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3724,7 +3081,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3738,7 +3095,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3752,7 +3109,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3766,7 +3123,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3780,7 +3137,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3794,7 +3151,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3808,7 +3165,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3822,7 +3179,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3836,7 +3193,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3850,7 +3207,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3864,7 +3221,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3878,7 +3235,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3892,7 +3249,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3906,7 +3263,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3920,7 +3277,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3934,7 +3291,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3948,7 +3305,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3962,7 +3319,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3976,7 +3333,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3990,7 +3347,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -4004,7 +3361,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -4018,7 +3375,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -4032,7 +3389,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -4046,7 +3403,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -4060,7 +3417,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -4074,7 +3431,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -4088,7 +3445,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -4102,7 +3459,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -4116,7 +3473,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -4130,7 +3487,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -4144,7 +3501,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -4158,7 +3515,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -4172,7 +3529,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -4186,7 +3543,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -4200,7 +3557,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -4214,7 +3571,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -4228,7 +3585,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -4242,7 +3599,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -4256,7 +3613,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4270,7 +3627,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4284,7 +3641,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4298,7 +3655,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4312,7 +3669,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4326,7 +3683,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4340,7 +3697,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4354,7 +3711,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4368,7 +3725,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4382,7 +3739,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4396,7 +3753,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4410,7 +3767,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4424,7 +3781,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4438,7 +3795,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4452,7 +3809,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4466,7 +3823,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4480,7 +3837,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4494,7 +3851,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4508,7 +3865,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4522,7 +3879,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4536,7 +3893,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4550,7 +3907,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4564,7 +3921,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1220" windowWidth="31520" windowHeight="19140" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -721,6 +721,22 @@
   </si>
   <si>
     <t>玩家初始小屋数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceCollectPerSecond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinCollectPerSecond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通资源每秒采集量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银币每秒采集量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1917,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1981,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1992,7 +2008,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2282,6 +2298,28 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="1">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -737,6 +737,30 @@
   </si>
   <si>
     <t>银币每秒采集量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandResourceAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>desertAttackAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceFieldDefenceAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地资源加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠攻击力加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地防御力加成百分比</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1933,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2320,6 +2344,39 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>grassLandResourceAddPercent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>desertAttackAddPercent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -752,15 +748,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>草地资源加成百分比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>沙漠攻击力加成百分比</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>雪地防御力加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandWoodAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandStoneAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandIronAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLandFoodAddPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地木材加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地石材加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地铁矿加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地粮食加成百分比</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +934,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -925,6 +949,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1228,7 +1258,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="288">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1372,6 +1402,9 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1508,6 +1541,9 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1957,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2348,35 +2384,68 @@
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="1">
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>206</v>
+      <c r="C40" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -380,12 +380,6 @@
   <si>
     <t>龙在相应地形下的力量加成比例</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpRecoverTerrainAddPercent</t>
-  </si>
-  <si>
-    <t>龙在相应地形下的hp回复加成比例</t>
   </si>
   <si>
     <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
@@ -934,7 +928,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="288">
+  <cellStyleXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -949,6 +943,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1258,7 +1256,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="288">
+  <cellStyles count="292">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1405,6 +1403,8 @@
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1544,6 +1544,8 @@
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1993,17 +1995,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2167,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -2244,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>66</v>
@@ -2321,7 +2323,7 @@
         <v>84</v>
       </c>
       <c r="B29" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2329,24 +2331,24 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="B30" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -2354,98 +2356,87 @@
         <v>195</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B38" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
-      <c r="A40" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2480,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -2500,7 +2491,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2511,7 +2502,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>77</v>
@@ -2522,7 +2513,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -2533,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>76</v>
@@ -2699,7 +2690,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2713,7 +2704,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2727,7 +2718,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2741,7 +2732,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2755,7 +2746,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2769,7 +2760,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2783,7 +2774,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2797,7 +2788,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2811,7 +2802,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2825,7 +2816,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2839,7 +2830,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2853,7 +2844,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2867,7 +2858,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2881,7 +2872,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2895,7 +2886,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2909,7 +2900,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2923,7 +2914,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2937,7 +2928,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2951,7 +2942,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2965,7 +2956,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2979,7 +2970,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2993,7 +2984,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3007,7 +2998,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3021,7 +3012,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3035,7 +3026,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3049,7 +3040,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3063,7 +3054,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3077,7 +3068,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3091,7 +3082,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3105,7 +3096,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3119,7 +3110,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3133,7 +3124,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3147,7 +3138,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3161,7 +3152,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3175,7 +3166,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3189,7 +3180,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3203,7 +3194,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3217,7 +3208,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3231,7 +3222,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3245,7 +3236,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3259,7 +3250,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3273,7 +3264,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3287,7 +3278,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3301,7 +3292,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3315,7 +3306,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3329,7 +3320,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3343,7 +3334,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3357,7 +3348,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3371,7 +3362,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3385,7 +3376,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3399,7 +3390,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3413,7 +3404,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3427,7 +3418,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3441,7 +3432,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3455,7 +3446,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3469,7 +3460,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3483,7 +3474,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3497,7 +3488,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3511,7 +3502,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3525,7 +3516,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3539,7 +3530,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3553,7 +3544,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3567,7 +3558,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3581,7 +3572,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3595,7 +3586,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3609,7 +3600,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3623,7 +3614,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3637,7 +3628,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3651,7 +3642,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3665,7 +3656,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3679,7 +3670,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3693,7 +3684,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3707,7 +3698,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3721,7 +3712,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3735,7 +3726,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3749,7 +3740,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3763,7 +3754,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3777,7 +3768,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3791,7 +3782,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3805,7 +3796,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3819,7 +3810,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3833,7 +3824,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3847,7 +3838,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3861,7 +3852,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3875,7 +3866,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3889,7 +3880,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3903,7 +3894,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3917,7 +3908,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3931,7 +3922,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3945,7 +3936,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -3959,7 +3950,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -3973,7 +3964,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -3987,7 +3978,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4001,7 +3992,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4015,7 +4006,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4029,7 +4020,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4043,7 +4034,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4057,7 +4048,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4071,7 +4062,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4085,7 +4076,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>草地粮食加成百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerGemUsed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移服务器消耗宝石数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerLimitDays</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移服务器限制天数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchServerFreeKeepLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费迁移服务器玩家城堡等级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1995,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2312,7 +2336,7 @@
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>82</v>
@@ -2437,6 +2461,39 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,24 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1040" windowWidth="31520" windowHeight="19140" tabRatio="616"/>
+    <workbookView xWindow="4140" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
     <sheet name="stringInit" sheetId="26" r:id="rId2"/>
     <sheet name="resources" sheetId="2" r:id="rId3"/>
     <sheet name="playerLevel" sheetId="21" r:id="rId4"/>
+    <sheet name="dailyTasks" sheetId="27" r:id="rId5"/>
+    <sheet name="dailyTaskRewards" sheetId="28" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -226,22 +236,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>empireRiseDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>conquerorDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brotherClubDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>growUpDailyTaskRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>新手冲级奖励时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -342,22 +336,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>超凡之路日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>征服者日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟会日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝国崛起日常奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockPlayerSecondMarchQueue</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -397,303 +375,10 @@
     <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
   </si>
   <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:12100,resources:stone:12100,resources:iron:12100,resources:food:3000,resources:coin:3000,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:18100,resources:stone:18100,resources:iron:18100,resources:food:4500,resources:coin:4500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:19600,resources:stone:19600,resources:iron:19600,resources:food:4900,resources:coin:4900,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:21100,resources:stone:21100,resources:iron:21100,resources:food:5200,resources:coin:5200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:22600,resources:stone:22600,resources:iron:22600,resources:food:5600,resources:coin:5600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:24100,resources:stone:24100,resources:iron:24100,resources:food:6000,resources:coin:6000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:25600,resources:stone:25600,resources:iron:25600,resources:food:6400,resources:coin:6400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:27200,resources:stone:27200,resources:iron:27200,resources:food:6800,resources:coin:6800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:28700,resources:stone:28700,resources:iron:28700,resources:food:7100,resources:coin:7100,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:31800,resources:stone:31800,resources:iron:31800,resources:food:7900,resources:coin:7900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:33300,resources:stone:33300,resources:iron:33300,resources:food:8300,resources:coin:8300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:34800,resources:stone:34800,resources:iron:34800,resources:food:8700,resources:coin:8700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:37900,resources:stone:37900,resources:iron:37900,resources:food:9400,resources:coin:9400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:39500,resources:stone:39500,resources:iron:39500,resources:food:9800,resources:coin:9800,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:41000,resources:stone:41000,resources:iron:41000,resources:food:10200,resources:coin:10200,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:44200,resources:stone:44200,resources:iron:44200,resources:food:11000,resources:coin:11000,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:45700,resources:stone:45700,resources:iron:45700,resources:food:11400,resources:coin:11400,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:47300,resources:stone:47300,resources:iron:47300,resources:food:11800,resources:coin:11800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:48900,resources:stone:48900,resources:iron:48900,resources:food:12200,resources:coin:12200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:50500,resources:stone:50500,resources:iron:50500,resources:food:12600,resources:coin:12600,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:52100,resources:stone:52100,resources:iron:52100,resources:food:13000,resources:coin:13000,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:53800,resources:stone:53800,resources:iron:53800,resources:food:13400,resources:coin:13400,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:55400,resources:stone:55400,resources:iron:55400,resources:food:13800,resources:coin:13800,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:57100,resources:stone:57100,resources:iron:57100,resources:food:14200,resources:coin:14200,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:58800,resources:stone:58800,resources:iron:58800,resources:food:14700,resources:coin:14700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:60500,resources:stone:60500,resources:iron:60500,resources:food:15100,resources:coin:15100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:62200,resources:stone:62200,resources:iron:62200,resources:food:15500,resources:coin:15500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:63900,resources:stone:63900,resources:iron:63900,resources:food:15900,resources:coin:15900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:65700,resources:stone:65700,resources:iron:65700,resources:food:16400,resources:coin:16400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:67500,resources:stone:67500,resources:iron:67500,resources:food:16800,resources:coin:16800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:69400,resources:stone:69400,resources:iron:69400,resources:food:17300,resources:coin:17300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:73200,resources:stone:73200,resources:iron:73200,resources:food:18300,resources:coin:18300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:75100,resources:stone:75100,resources:iron:75100,resources:food:18700,resources:coin:18700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:77200,resources:stone:77200,resources:iron:77200,resources:food:19300,resources:coin:19300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:79200,resources:stone:79200,resources:iron:79200,resources:food:19800,resources:coin:19800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:81400,resources:stone:81400,resources:iron:81400,resources:food:20300,resources:coin:20300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:83600,resources:stone:83600,resources:iron:83600,resources:food:20900,resources:coin:20900,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:88300,resources:stone:88300,resources:iron:88300,resources:food:22000,resources:coin:22000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:90800,resources:stone:90800,resources:iron:90800,resources:food:22700,resources:coin:22700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:93400,resources:stone:93400,resources:iron:93400,resources:food:23300,resources:coin:23300,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:96100,resources:stone:96100,resources:iron:96100,resources:food:24000,resources:coin:24000,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:98900,resources:stone:98900,resources:iron:98900,resources:food:24700,resources:coin:24700,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:101900,resources:stone:101900,resources:iron:101900,resources:food:25400,resources:coin:25400,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:105100,resources:stone:105100,resources:iron:105100,resources:food:26200,resources:coin:26200,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:108400,resources:stone:108400,resources:iron:108400,resources:food:27100,resources:coin:27100,resources:gem:150</t>
-  </si>
-  <si>
-    <t>resources:wood:112000,resources:stone:112000,resources:iron:112000,resources:food:28000,resources:coin:28000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:115800,resources:stone:115800,resources:iron:115800,resources:food:28900,resources:coin:28900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:119800,resources:stone:119800,resources:iron:119800,resources:food:29900,resources:coin:29900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:124100,resources:stone:124100,resources:iron:124100,resources:food:31000,resources:coin:31000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:128700,resources:stone:128700,resources:iron:128700,resources:food:32100,resources:coin:32100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:133700,resources:stone:133700,resources:iron:133700,resources:food:33400,resources:coin:33400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:139100,resources:stone:139100,resources:iron:139100,resources:food:34700,resources:coin:34700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:144900,resources:stone:144900,resources:iron:144900,resources:food:36200,resources:coin:36200,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:151100,resources:stone:151100,resources:iron:151100,resources:food:37700,resources:coin:37700,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:157900,resources:stone:157900,resources:iron:157900,resources:food:39400,resources:coin:39400,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:165300,resources:stone:165300,resources:iron:165300,resources:food:41300,resources:coin:41300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:182100,resources:stone:182100,resources:iron:182100,resources:food:45500,resources:coin:45500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:191700,resources:stone:191700,resources:iron:191700,resources:food:47900,resources:coin:47900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:202200,resources:stone:202200,resources:iron:202200,resources:food:50500,resources:coin:50500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:213700,resources:stone:213700,resources:iron:213700,resources:food:53400,resources:coin:53400,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:226200,resources:stone:226200,resources:iron:226200,resources:food:56500,resources:coin:56500,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:240000,resources:stone:240000,resources:iron:240000,resources:food:60000,resources:coin:60000,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:255200,resources:stone:255200,resources:iron:255200,resources:food:63800,resources:coin:63800,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:271900,resources:stone:271900,resources:iron:271900,resources:food:67900,resources:coin:67900,resources:gem:250</t>
-  </si>
-  <si>
-    <t>resources:wood:290300,resources:stone:290300,resources:iron:290300,resources:food:72500,resources:coin:72500,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:310600,resources:stone:310600,resources:iron:310600,resources:food:77600,resources:coin:77600,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:332900,resources:stone:332900,resources:iron:332900,resources:food:83200,resources:coin:83200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:357600,resources:stone:357600,resources:iron:357600,resources:food:89400,resources:coin:89400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:384800,resources:stone:384800,resources:iron:384800,resources:food:96200,resources:coin:96200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:414900,resources:stone:414900,resources:iron:414900,resources:food:103700,resources:coin:103700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:448200,resources:stone:448200,resources:iron:448200,resources:food:112000,resources:coin:112000,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:485000,resources:stone:485000,resources:iron:485000,resources:food:121200,resources:coin:121200,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:525700,resources:stone:525700,resources:iron:525700,resources:food:131400,resources:coin:131400,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:570800,resources:stone:570800,resources:iron:570800,resources:food:142700,resources:coin:142700,resources:gem:300</t>
-  </si>
-  <si>
-    <t>resources:wood:620700,resources:stone:620700,resources:iron:620700,resources:food:155100,resources:coin:155100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:676000,resources:stone:676000,resources:iron:676000,resources:food:169000,resources:coin:169000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:737300,resources:stone:737300,resources:iron:737300,resources:food:184300,resources:coin:184300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:805300,resources:stone:805300,resources:iron:805300,resources:food:201300,resources:coin:201300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:880600,resources:stone:880600,resources:iron:880600,resources:food:220100,resources:coin:220100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:964100,resources:stone:964100,resources:iron:964100,resources:food:241000,resources:coin:241000,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1056700,resources:stone:1056700,resources:iron:1056700,resources:food:264100,resources:coin:264100,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:1159400,resources:stone:1159400,resources:iron:1159400,resources:food:289800,resources:coin:289800,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:2273400,resources:stone:2273400,resources:iron:2273400,resources:food:568300,resources:coin:568300,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:4149900,resources:stone:4149900,resources:iron:4149900,resources:food:1037400,resources:coin:1037400,resources:gem:500</t>
-  </si>
-  <si>
-    <t>special:chest_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>activePlayerNeedHouses</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -702,14 +387,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>eachHouseInitCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -803,6 +480,403 @@
   </si>
   <si>
     <t>免费迁移服务器玩家城堡等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:20</t>
+  </si>
+  <si>
+    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:40</t>
+  </si>
+  <si>
+    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:60</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:80</t>
+  </si>
+  <si>
+    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:500</t>
+  </si>
+  <si>
+    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:200</t>
+  </si>
+  <si>
+    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:200</t>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeBuilding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeProudctionTech</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeMilitaryTech</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeBuildingMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeTechnologyMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackShrine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>donate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyAllianceItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpDefence</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedupBuildingUpgrade</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedupSoldierRecruit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatSoldiers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>makeDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyShopItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:coinClass_3:1;resource:foodClass_3:1</t>
+  </si>
+  <si>
+    <t>resource:woodClass_3:2;resource:stoneClass_3:2;resource:ironClass_3:2;resource:foodClass_3:2</t>
+  </si>
+  <si>
+    <t>special:chest_2:1;special:sweepScroll:5</t>
+  </si>
+  <si>
+    <t>resource:gemClass_2:1;resource:stoneClass_4:1;resource:ironClass_4:1;resource:foodClass_4:1</t>
+  </si>
+  <si>
+    <t>special:chest_1:1;special:sweepScroll:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="292">
+  <cellStyleXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -967,6 +1041,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1280,7 +1388,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="292">
+  <cellStyles count="326">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1429,6 +1537,23 @@
     <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1570,6 +1695,23 @@
     <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2021,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2190,310 +2332,310 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5">
         <v>1440</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1">
         <v>500</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>10000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1">
         <v>1000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2655,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2537,55 +2679,23 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2711,7 +2821,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2747,7 +2857,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2761,7 +2871,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2775,7 +2885,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2789,7 +2899,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2803,7 +2913,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2817,7 +2927,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2831,7 +2941,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2845,7 +2955,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2859,7 +2969,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2873,7 +2983,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2887,7 +2997,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -2901,7 +3011,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -2915,7 +3025,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -2929,7 +3039,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -2943,7 +3053,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2957,7 +3067,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2971,7 +3081,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2985,7 +3095,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2999,7 +3109,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3013,7 +3123,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3027,7 +3137,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3041,7 +3151,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3055,7 +3165,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3069,7 +3179,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3083,7 +3193,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3097,7 +3207,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3111,7 +3221,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3125,7 +3235,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3139,7 +3249,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3153,7 +3263,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3167,7 +3277,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3181,7 +3291,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3195,7 +3305,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3209,7 +3319,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3223,7 +3333,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3237,7 +3347,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3251,7 +3361,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3265,7 +3375,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3279,7 +3389,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3293,7 +3403,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3307,7 +3417,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3321,7 +3431,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3335,7 +3445,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3349,7 +3459,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3363,7 +3473,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3377,7 +3487,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3391,7 +3501,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3405,7 +3515,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3419,7 +3529,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3433,7 +3543,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3447,7 +3557,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3461,7 +3571,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3475,7 +3585,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3489,7 +3599,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3503,7 +3613,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3517,7 +3627,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3531,7 +3641,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3545,7 +3655,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3559,7 +3669,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3573,7 +3683,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3587,7 +3697,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3601,7 +3711,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3615,7 +3725,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3629,7 +3739,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3643,7 +3753,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3657,7 +3767,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3671,7 +3781,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3685,7 +3795,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3699,7 +3809,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3713,7 +3823,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3727,7 +3837,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3741,7 +3851,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3755,7 +3865,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3769,7 +3879,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3783,7 +3893,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3797,7 +3907,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3811,7 +3921,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3825,7 +3935,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3839,7 +3949,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3853,7 +3963,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3867,7 +3977,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3881,7 +3991,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -3895,7 +4005,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -3909,7 +4019,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -3923,7 +4033,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -3937,7 +4047,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -3951,7 +4061,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -3965,7 +4075,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -3979,7 +4089,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -3993,7 +4103,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4007,7 +4117,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4021,7 +4131,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4035,7 +4145,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4048,8 +4158,8 @@
       <c r="C95" s="1">
         <v>13286025</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>179</v>
+      <c r="D95" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4062,8 +4172,8 @@
       <c r="C96" s="1">
         <v>14762250</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>180</v>
+      <c r="D96" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4077,7 +4187,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4091,7 +4201,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4105,7 +4215,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4119,7 +4229,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4133,7 +4243,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -4142,17 +4252,407 @@
     <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="D105" s="8"/>
-    </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="D107" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="5"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -360,21 +360,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:20</t>
-  </si>
-  <si>
     <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -483,291 +468,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:20</t>
-  </si>
-  <si>
-    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:40</t>
-  </si>
-  <si>
-    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:60</t>
-  </si>
-  <si>
-    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:80</t>
-  </si>
-  <si>
-    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:500</t>
-  </si>
-  <si>
-    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:100</t>
-  </si>
-  <si>
-    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:200</t>
-  </si>
-  <si>
-    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:200</t>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -878,6 +578,306 @@
   <si>
     <t>special:chest_1:1;special:sweepScroll:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="326">
+  <cellStyleXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1041,6 +1041,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1388,7 +1390,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="326">
+  <cellStyles count="328">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1556,7 @@
     <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1712,6 +1715,7 @@
     <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2497,145 +2501,145 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1">
         <v>1000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2683,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2820,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2857,7 +2861,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2871,7 +2875,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2885,7 +2889,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2899,7 +2903,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2913,7 +2917,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2927,7 +2931,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2941,7 +2945,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2955,7 +2959,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2969,7 +2973,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2983,7 +2987,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -2997,7 +3001,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3011,7 +3015,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3025,7 +3029,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3039,7 +3043,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3053,7 +3057,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3067,7 +3071,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3081,7 +3085,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3095,7 +3099,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3109,7 +3113,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3137,7 +3141,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3151,7 +3155,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3165,7 +3169,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3183,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3193,7 +3197,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3207,7 +3211,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3221,7 +3225,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3235,7 +3239,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3249,7 +3253,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3263,7 +3267,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3277,7 +3281,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3291,7 +3295,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3305,7 +3309,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3319,7 +3323,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3333,7 +3337,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3347,7 +3351,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3361,7 +3365,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3375,7 +3379,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3389,7 +3393,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3407,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3421,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3435,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3449,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3463,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3477,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3491,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3505,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3519,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3547,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3561,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3575,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3589,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3603,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3617,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3631,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3645,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3659,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3673,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3687,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3701,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3715,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3729,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3743,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3757,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3771,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3785,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3799,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3813,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3827,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3841,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +3855,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +3869,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +3883,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +3897,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +3911,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +3925,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3935,7 +3939,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3949,7 +3953,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3963,7 +3967,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3977,7 +3981,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3991,7 +3995,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4005,7 +4009,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4019,7 +4023,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4033,7 +4037,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4047,7 +4051,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4061,7 +4065,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4075,7 +4079,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4089,7 +4093,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4103,7 +4107,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4117,7 +4121,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4131,7 +4135,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4144,8 +4148,8 @@
       <c r="C94" s="1">
         <v>11957423</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>198</v>
+      <c r="D94" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4159,7 +4163,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4173,7 +4177,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4187,7 +4191,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4201,7 +4205,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4215,7 +4219,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4229,7 +4233,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4243,14 +4247,11 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="D103" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
@@ -4291,19 +4292,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4317,7 +4318,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4331,7 +4332,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4359,7 +4360,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4387,7 +4388,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4401,7 +4402,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4415,7 +4416,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4429,7 +4430,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4443,7 +4444,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4457,7 +4458,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4499,7 +4500,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4527,7 +4528,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4541,7 +4542,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4572,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4586,13 +4587,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4604,7 +4605,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4615,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4626,7 +4627,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4637,7 +4638,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4648,7 +4649,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616" activeTab="3"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2614,7 +2614,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>100</v>
@@ -2824,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D103"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="34100" windowHeight="18140" tabRatio="616"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:casinoTokenClass_2:1,special:vipActive_3:1,special:stamina_2:1,special:moveTheCity:1,special:dragonExp_1:1,special:heroBlood_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>activePlayerNeedHouses</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -564,22 +560,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:coinClass_3:1;resource:foodClass_3:1</t>
-  </si>
-  <si>
-    <t>resource:woodClass_3:2;resource:stoneClass_3:2;resource:ironClass_3:2;resource:foodClass_3:2</t>
-  </si>
-  <si>
-    <t>special:chest_2:1;special:sweepScroll:5</t>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1;resource:stoneClass_4:1;resource:ironClass_4:1;resource:foodClass_4:1</t>
-  </si>
-  <si>
-    <t>special:chest_1:1;special:sweepScroll:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
   </si>
   <si>
@@ -878,6 +858,38 @@
   </si>
   <si>
     <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:vipActive_3:1,items:stamina_2:1,items:moveTheCity:1,items:dragonExp_1:1,items:heroBlood_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1;items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1;items:sweepScroll:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1;items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstJoinAllianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,7 +1038,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="328">
+  <cellStyleXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1041,6 +1053,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1390,7 +1404,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="328">
+  <cellStyles count="330">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1557,6 +1571,7 @@
     <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1716,6 +1731,7 @@
     <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2167,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2501,145 +2517,145 @@
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1">
         <v>2000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2658,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2683,14 +2699,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="B4" s="6"/>
@@ -2718,7 +2739,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2825,7 +2846,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D103"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2861,7 +2882,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2875,7 +2896,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2889,7 +2910,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2903,7 +2924,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2917,7 +2938,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2931,7 +2952,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2945,7 +2966,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -2959,7 +2980,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2973,7 +2994,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -2987,7 +3008,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3001,7 +3022,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3015,7 +3036,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3029,7 +3050,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3043,7 +3064,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3057,7 +3078,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3071,7 +3092,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3085,7 +3106,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3099,7 +3120,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3113,7 +3134,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3127,7 +3148,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3141,7 +3162,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3155,7 +3176,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3169,7 +3190,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3183,7 +3204,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3197,7 +3218,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3211,7 +3232,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3225,7 +3246,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3239,7 +3260,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3253,7 +3274,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3267,7 +3288,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3281,7 +3302,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3295,7 +3316,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3309,7 +3330,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3323,7 +3344,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3337,7 +3358,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3351,7 +3372,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3365,7 +3386,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3379,7 +3400,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3393,7 +3414,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3407,7 +3428,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3421,7 +3442,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3435,7 +3456,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3449,7 +3470,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3463,7 +3484,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3477,7 +3498,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3491,7 +3512,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3505,7 +3526,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3519,7 +3540,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3533,7 +3554,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3547,7 +3568,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3561,7 +3582,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3575,7 +3596,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3589,7 +3610,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3603,7 +3624,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3617,7 +3638,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3631,7 +3652,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3645,7 +3666,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3659,7 +3680,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3673,7 +3694,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3687,7 +3708,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3701,7 +3722,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3715,7 +3736,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3729,7 +3750,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3743,7 +3764,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3757,7 +3778,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3771,7 +3792,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3785,7 +3806,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3799,7 +3820,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3813,7 +3834,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3827,7 +3848,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3841,7 +3862,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3855,7 +3876,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3869,7 +3890,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3883,7 +3904,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3897,7 +3918,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3911,7 +3932,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3925,7 +3946,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3939,7 +3960,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -3953,7 +3974,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -3967,7 +3988,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -3981,7 +4002,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -3995,7 +4016,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4009,7 +4030,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4023,7 +4044,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4037,7 +4058,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4051,7 +4072,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4065,7 +4086,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4079,7 +4100,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4093,7 +4114,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4107,7 +4128,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4121,7 +4142,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4135,7 +4156,7 @@
         <v>10761680</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4149,7 +4170,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4163,7 +4184,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4177,7 +4198,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4191,7 +4212,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4205,7 +4226,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4219,7 +4240,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4233,7 +4254,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4247,7 +4268,7 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -4276,7 +4297,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4292,19 +4313,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4318,7 +4339,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4332,7 +4353,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4346,7 +4367,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4360,7 +4381,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -4374,7 +4395,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4388,7 +4409,7 @@
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4402,7 +4423,7 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -4416,7 +4437,7 @@
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -4430,7 +4451,7 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -4444,7 +4465,7 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -4458,7 +4479,7 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -4472,7 +4493,7 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -4486,7 +4507,7 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -4500,7 +4521,7 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -4514,7 +4535,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -4528,7 +4549,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -4542,7 +4563,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -4574,7 +4595,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4587,13 +4608,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4605,7 +4626,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4616,7 +4637,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4627,7 +4648,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4638,7 +4659,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4649,7 +4670,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -884,12 +884,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>firstJoinAllianceRewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:gem:200</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2674,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2707,10 +2706,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2673,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="616" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -864,31 +864,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:coinClass_3:1;items:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_1:1;items:sweepScroll:2</t>
+    <t>firstJoinAllianceRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:gem:200</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1;items:sweepScroll:5;items:speedup_1:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1;items:speedup_2:5;items:dragonHp_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:retreatTroop:2;items:warSpeedupClass_1:5;items:chest_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2:1;items:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1;items:stoneClass_4:1;items:ironClass_4:1;items:foodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstJoinAllianceRewards</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:gem:200</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="330">
+  <cellStyleXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1052,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1403,7 +1419,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="330">
+  <cellStyles count="346">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1571,6 +1587,14 @@
     <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1731,6 +1755,14 @@
     <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2706,10 +2738,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2737,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2844,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4593,15 +4625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -4622,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4633,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4644,10 +4676,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4655,10 +4687,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4666,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>200</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>233</v>
+        <v>150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="5"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -4625,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2518,7 +2518,7 @@
         <v>72</v>
       </c>
       <c r="B27" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>73</v>
@@ -2769,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -560,306 +560,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:700,resources:stone:700,resources:iron:700,resources:food:100,resources:coin:100,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:1500,resources:stone:1500,resources:iron:1500,resources:food:300,resources:coin:300,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:2200,resources:stone:2200,resources:iron:2200,resources:food:500,resources:coin:500,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:3000,resources:stone:3000,resources:iron:3000,resources:food:700,resources:coin:700,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:3700,resources:stone:3700,resources:iron:3700,resources:food:900,resources:coin:900,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:4500,resources:stone:4500,resources:iron:4500,resources:food:1100,resources:coin:1100,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:5200,resources:stone:5200,resources:iron:5200,resources:food:1300,resources:coin:1300,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:6000,resources:stone:6000,resources:iron:6000,resources:food:1500,resources:coin:1500,resources:gem:1</t>
-  </si>
-  <si>
-    <t>resources:wood:6800,resources:stone:6800,resources:iron:6800,resources:food:1700,resources:coin:1700,resources:gem:1</t>
-  </si>
-  <si>
     <t>resources:wood:7500,resources:stone:7500,resources:iron:7500,resources:food:1800,resources:coin:1800,resources:gem:1</t>
   </si>
   <si>
-    <t>resources:wood:8300,resources:stone:8300,resources:iron:8300,resources:food:2000,resources:coin:2000,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:9000,resources:stone:9000,resources:iron:9000,resources:food:2200,resources:coin:2200,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:9800,resources:stone:9800,resources:iron:9800,resources:food:2400,resources:coin:2400,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:10500,resources:stone:10500,resources:iron:10500,resources:food:2600,resources:coin:2600,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:11300,resources:stone:11300,resources:iron:11300,resources:food:2800,resources:coin:2800,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:12000,resources:stone:12000,resources:iron:12000,resources:food:3000,resources:coin:3000,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:12800,resources:stone:12800,resources:iron:12800,resources:food:3200,resources:coin:3200,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:13600,resources:stone:13600,resources:iron:13600,resources:food:3400,resources:coin:3400,resources:gem:2</t>
-  </si>
-  <si>
-    <t>resources:wood:14300,resources:stone:14300,resources:iron:14300,resources:food:3500,resources:coin:3500,resources:gem:2</t>
-  </si>
-  <si>
     <t>resources:wood:15100,resources:stone:15100,resources:iron:15100,resources:food:3700,resources:coin:3700,resources:gem:2</t>
   </si>
   <si>
-    <t>resources:wood:15900,resources:stone:15900,resources:iron:15900,resources:food:3900,resources:coin:3900,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:16600,resources:stone:16600,resources:iron:16600,resources:food:4100,resources:coin:4100,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:17400,resources:stone:17400,resources:iron:17400,resources:food:4300,resources:coin:4300,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:18200,resources:stone:18200,resources:iron:18200,resources:food:4500,resources:coin:4500,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:18900,resources:stone:18900,resources:iron:18900,resources:food:4700,resources:coin:4700,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:19700,resources:stone:19700,resources:iron:19700,resources:food:4900,resources:coin:4900,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:21300,resources:stone:21300,resources:iron:21300,resources:food:5300,resources:coin:5300,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:22100,resources:stone:22100,resources:iron:22100,resources:food:5500,resources:coin:5500,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:22800,resources:stone:22800,resources:iron:22800,resources:food:5700,resources:coin:5700,resources:gem:3</t>
-  </si>
-  <si>
-    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:26000,resources:stone:26000,resources:iron:26000,resources:food:6500,resources:coin:6500,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:26900,resources:stone:26900,resources:iron:26900,resources:food:6700,resources:coin:6700,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:27700,resources:stone:27700,resources:iron:27700,resources:food:6900,resources:coin:6900,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:28500,resources:stone:28500,resources:iron:28500,resources:food:7100,resources:coin:7100,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:29400,resources:stone:29400,resources:iron:29400,resources:food:7300,resources:coin:7300,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:30200,resources:stone:30200,resources:iron:30200,resources:food:7500,resources:coin:7500,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:31100,resources:stone:31100,resources:iron:31100,resources:food:7700,resources:coin:7700,resources:gem:4</t>
-  </si>
-  <si>
-    <t>resources:wood:31900,resources:stone:31900,resources:iron:31900,resources:food:7900,resources:coin:7900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:32800,resources:stone:32800,resources:iron:32800,resources:food:8200,resources:coin:8200,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:33700,resources:stone:33700,resources:iron:33700,resources:food:8400,resources:coin:8400,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:35600,resources:stone:35600,resources:iron:35600,resources:food:8900,resources:coin:8900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:36600,resources:stone:36600,resources:iron:36600,resources:food:9100,resources:coin:9100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:37500,resources:stone:37500,resources:iron:37500,resources:food:9300,resources:coin:9300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:38600,resources:stone:38600,resources:iron:38600,resources:food:9600,resources:coin:9600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:39600,resources:stone:39600,resources:iron:39600,resources:food:9900,resources:coin:9900,resources:gem:5</t>
-  </si>
-  <si>
     <t>resources:wood:40700,resources:stone:40700,resources:iron:40700,resources:food:10100,resources:coin:10100,resources:gem:5</t>
   </si>
   <si>
-    <t>resources:wood:41800,resources:stone:41800,resources:iron:41800,resources:food:10400,resources:coin:10400,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:42900,resources:stone:42900,resources:iron:42900,resources:food:10700,resources:coin:10700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:44100,resources:stone:44100,resources:iron:44100,resources:food:11000,resources:coin:11000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:45400,resources:stone:45400,resources:iron:45400,resources:food:11300,resources:coin:11300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:46700,resources:stone:46700,resources:iron:46700,resources:food:11600,resources:coin:11600,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:48000,resources:stone:48000,resources:iron:48000,resources:food:12000,resources:coin:12000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:49400,resources:stone:49400,resources:iron:49400,resources:food:12300,resources:coin:12300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:50900,resources:stone:50900,resources:iron:50900,resources:food:12700,resources:coin:12700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:52500,resources:stone:52500,resources:iron:52500,resources:food:13100,resources:coin:13100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:54200,resources:stone:54200,resources:iron:54200,resources:food:13500,resources:coin:13500,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:56000,resources:stone:56000,resources:iron:56000,resources:food:14000,resources:coin:14000,resources:gem:5</t>
-  </si>
-  <si>
     <t>resources:wood:57900,resources:stone:57900,resources:iron:57900,resources:food:14400,resources:coin:14400,resources:gem:5</t>
   </si>
   <si>
-    <t>resources:wood:59900,resources:stone:59900,resources:iron:59900,resources:food:14900,resources:coin:14900,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:62000,resources:stone:62000,resources:iron:62000,resources:food:15500,resources:coin:15500,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:64300,resources:stone:64300,resources:iron:64300,resources:food:16000,resources:coin:16000,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:66800,resources:stone:66800,resources:iron:66800,resources:food:16700,resources:coin:16700,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:69500,resources:stone:69500,resources:iron:69500,resources:food:17300,resources:coin:17300,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:72400,resources:stone:72400,resources:iron:72400,resources:food:18100,resources:coin:18100,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:75500,resources:stone:75500,resources:iron:75500,resources:food:18800,resources:coin:18800,resources:gem:5</t>
-  </si>
-  <si>
-    <t>resources:wood:78900,resources:stone:78900,resources:iron:78900,resources:food:19700,resources:coin:19700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:82600,resources:stone:82600,resources:iron:82600,resources:food:20600,resources:coin:20600,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:86700,resources:stone:86700,resources:iron:86700,resources:food:21600,resources:coin:21600,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:91000,resources:stone:91000,resources:iron:91000,resources:food:22700,resources:coin:22700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:95800,resources:stone:95800,resources:iron:95800,resources:food:23900,resources:coin:23900,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:101100,resources:stone:101100,resources:iron:101100,resources:food:25200,resources:coin:25200,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:106800,resources:stone:106800,resources:iron:106800,resources:food:26700,resources:coin:26700,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:113100,resources:stone:113100,resources:iron:113100,resources:food:28200,resources:coin:28200,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:120000,resources:stone:120000,resources:iron:120000,resources:food:30000,resources:coin:30000,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:127600,resources:stone:127600,resources:iron:127600,resources:food:31900,resources:coin:31900,resources:gem:10</t>
-  </si>
-  <si>
-    <t>resources:wood:135900,resources:stone:135900,resources:iron:135900,resources:food:33900,resources:coin:33900,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:145100,resources:stone:145100,resources:iron:145100,resources:food:36200,resources:coin:36200,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:155300,resources:stone:155300,resources:iron:155300,resources:food:38800,resources:coin:38800,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:166400,resources:stone:166400,resources:iron:166400,resources:food:41600,resources:coin:41600,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:178800,resources:stone:178800,resources:iron:178800,resources:food:44700,resources:coin:44700,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:192400,resources:stone:192400,resources:iron:192400,resources:food:48100,resources:coin:48100,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:207400,resources:stone:207400,resources:iron:207400,resources:food:51800,resources:coin:51800,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:224100,resources:stone:224100,resources:iron:224100,resources:food:56000,resources:coin:56000,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:242500,resources:stone:242500,resources:iron:242500,resources:food:60600,resources:coin:60600,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:262800,resources:stone:262800,resources:iron:262800,resources:food:65700,resources:coin:65700,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:285400,resources:stone:285400,resources:iron:285400,resources:food:71300,resources:coin:71300,resources:gem:15</t>
-  </si>
-  <si>
-    <t>resources:wood:310300,resources:stone:310300,resources:iron:310300,resources:food:77500,resources:coin:77500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:338000,resources:stone:338000,resources:iron:338000,resources:food:84500,resources:coin:84500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:368600,resources:stone:368600,resources:iron:368600,resources:food:92100,resources:coin:92100,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:402600,resources:stone:402600,resources:iron:402600,resources:food:100600,resources:coin:100600,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:440300,resources:stone:440300,resources:iron:440300,resources:food:110000,resources:coin:110000,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:482000,resources:stone:482000,resources:iron:482000,resources:food:120500,resources:coin:120500,resources:gem:25</t>
-  </si>
-  <si>
-    <t>resources:wood:528300,resources:stone:528300,resources:iron:528300,resources:food:132000,resources:coin:132000,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:579700,resources:stone:579700,resources:iron:579700,resources:food:144900,resources:coin:144900,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:1136700,resources:stone:1136700,resources:iron:1136700,resources:food:284100,resources:coin:284100,resources:gem:50</t>
-  </si>
-  <si>
-    <t>resources:wood:2074900,resources:stone:2074900,resources:iron:2074900,resources:food:518700,resources:coin:518700,resources:gem:100</t>
-  </si>
-  <si>
     <t>items:casinoTokenClass_2:1,items:vipActive_3:1,items:stamina_2:1,items:moveTheCity:1,items:dragonExp_1:1,items:heroBlood_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -889,6 +601,294 @@
   <si>
     <t>items:woodClass_3:2;items:stoneClass_3:2;items:ironClass_3:2;items:foodClass_3:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1100,resources:stone:1100,resources:iron:1100,resources:food:200,resources:coin:200,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:2100,resources:stone:2100,resources:iron:2100,resources:food:500,resources:coin:500,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:3200,resources:stone:3200,resources:iron:3200,resources:food:800,resources:coin:800,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:4300,resources:stone:4300,resources:iron:4300,resources:food:1000,resources:coin:1000,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:5400,resources:stone:5400,resources:iron:5400,resources:food:1300,resources:coin:1300,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:6400,resources:stone:6400,resources:iron:6400,resources:food:1600,resources:coin:1600,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:8600,resources:stone:8600,resources:iron:8600,resources:food:2100,resources:coin:2100,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:9700,resources:stone:9700,resources:iron:9700,resources:food:2400,resources:coin:2400,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:10700,resources:stone:10700,resources:iron:10700,resources:food:2600,resources:coin:2600,resources:gem:1</t>
+  </si>
+  <si>
+    <t>resources:wood:11800,resources:stone:11800,resources:iron:11800,resources:food:2900,resources:coin:2900,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:12900,resources:stone:12900,resources:iron:12900,resources:food:3200,resources:coin:3200,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:14000,resources:stone:14000,resources:iron:14000,resources:food:3500,resources:coin:3500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:16100,resources:stone:16100,resources:iron:16100,resources:food:4000,resources:coin:4000,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:17200,resources:stone:17200,resources:iron:17200,resources:food:4300,resources:coin:4300,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:18300,resources:stone:18300,resources:iron:18300,resources:food:4500,resources:coin:4500,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:19400,resources:stone:19400,resources:iron:19400,resources:food:4800,resources:coin:4800,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:20500,resources:stone:20500,resources:iron:20500,resources:food:5100,resources:coin:5100,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:21600,resources:stone:21600,resources:iron:21600,resources:food:5400,resources:coin:5400,resources:gem:2</t>
+  </si>
+  <si>
+    <t>resources:wood:22900,resources:stone:22900,resources:iron:22900,resources:food:5700,resources:coin:5700,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:23600,resources:stone:23600,resources:iron:23600,resources:food:5900,resources:coin:5900,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:24400,resources:stone:24400,resources:iron:24400,resources:food:6100,resources:coin:6100,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:25200,resources:stone:25200,resources:iron:25200,resources:food:6300,resources:coin:6300,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:25900,resources:stone:25900,resources:iron:25900,resources:food:6400,resources:coin:6400,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:26700,resources:stone:26700,resources:iron:26700,resources:food:6600,resources:coin:6600,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:27500,resources:stone:27500,resources:iron:27500,resources:food:6800,resources:coin:6800,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:28300,resources:stone:28300,resources:iron:28300,resources:food:7000,resources:coin:7000,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:29100,resources:stone:29100,resources:iron:29100,resources:food:7200,resources:coin:7200,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:29800,resources:stone:29800,resources:iron:29800,resources:food:7400,resources:coin:7400,resources:gem:3</t>
+  </si>
+  <si>
+    <t>resources:wood:30600,resources:stone:30600,resources:iron:30600,resources:food:7600,resources:coin:7600,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:31400,resources:stone:31400,resources:iron:31400,resources:food:7800,resources:coin:7800,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:32200,resources:stone:32200,resources:iron:32200,resources:food:8000,resources:coin:8000,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:33000,resources:stone:33000,resources:iron:33000,resources:food:8200,resources:coin:8200,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:33900,resources:stone:33900,resources:iron:33900,resources:food:8400,resources:coin:8400,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:34700,resources:stone:34700,resources:iron:34700,resources:food:8600,resources:coin:8600,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:35500,resources:stone:35500,resources:iron:35500,resources:food:8800,resources:coin:8800,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:36400,resources:stone:36400,resources:iron:36400,resources:food:9100,resources:coin:9100,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:37200,resources:stone:37200,resources:iron:37200,resources:food:9300,resources:coin:9300,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:38100,resources:stone:38100,resources:iron:38100,resources:food:9500,resources:coin:9500,resources:gem:4</t>
+  </si>
+  <si>
+    <t>resources:wood:38900,resources:stone:38900,resources:iron:38900,resources:food:9700,resources:coin:9700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:39800,resources:stone:39800,resources:iron:39800,resources:food:9900,resources:coin:9900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:41700,resources:stone:41700,resources:iron:41700,resources:food:10400,resources:coin:10400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:42600,resources:stone:42600,resources:iron:42600,resources:food:10600,resources:coin:10600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:43600,resources:stone:43600,resources:iron:43600,resources:food:10900,resources:coin:10900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:44500,resources:stone:44500,resources:iron:44500,resources:food:11100,resources:coin:11100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:45600,resources:stone:45600,resources:iron:45600,resources:food:11400,resources:coin:11400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:46600,resources:stone:46600,resources:iron:46600,resources:food:11600,resources:coin:11600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:47700,resources:stone:47700,resources:iron:47700,resources:food:11900,resources:coin:11900,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:48800,resources:stone:48800,resources:iron:48800,resources:food:12200,resources:coin:12200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:49900,resources:stone:49900,resources:iron:49900,resources:food:12400,resources:coin:12400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:51100,resources:stone:51100,resources:iron:51100,resources:food:12700,resources:coin:12700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:52400,resources:stone:52400,resources:iron:52400,resources:food:13100,resources:coin:13100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:53700,resources:stone:53700,resources:iron:53700,resources:food:13400,resources:coin:13400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:55000,resources:stone:55000,resources:iron:55000,resources:food:13700,resources:coin:13700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:56400,resources:stone:56400,resources:iron:56400,resources:food:14100,resources:coin:14100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:59500,resources:stone:59500,resources:iron:59500,resources:food:14800,resources:coin:14800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:61200,resources:stone:61200,resources:iron:61200,resources:food:15300,resources:coin:15300,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:63000,resources:stone:63000,resources:iron:63000,resources:food:15700,resources:coin:15700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:64900,resources:stone:64900,resources:iron:64900,resources:food:16200,resources:coin:16200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:66900,resources:stone:66900,resources:iron:66900,resources:food:16700,resources:coin:16700,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:69000,resources:stone:69000,resources:iron:69000,resources:food:17200,resources:coin:17200,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:71300,resources:stone:71300,resources:iron:71300,resources:food:17800,resources:coin:17800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:73800,resources:stone:73800,resources:iron:73800,resources:food:18400,resources:coin:18400,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:76500,resources:stone:76500,resources:iron:76500,resources:food:19100,resources:coin:19100,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:79400,resources:stone:79400,resources:iron:79400,resources:food:19800,resources:coin:19800,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:82500,resources:stone:82500,resources:iron:82500,resources:food:20600,resources:coin:20600,resources:gem:5</t>
+  </si>
+  <si>
+    <t>resources:wood:85900,resources:stone:85900,resources:iron:85900,resources:food:21400,resources:coin:21400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:89600,resources:stone:89600,resources:iron:89600,resources:food:22400,resources:coin:22400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:93700,resources:stone:93700,resources:iron:93700,resources:food:23400,resources:coin:23400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:98000,resources:stone:98000,resources:iron:98000,resources:food:24500,resources:coin:24500,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:102800,resources:stone:102800,resources:iron:102800,resources:food:25700,resources:coin:25700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:108100,resources:stone:108100,resources:iron:108100,resources:food:27000,resources:coin:27000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:113800,resources:stone:113800,resources:iron:113800,resources:food:28400,resources:coin:28400,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:120100,resources:stone:120100,resources:iron:120100,resources:food:30000,resources:coin:30000,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:127000,resources:stone:127000,resources:iron:127000,resources:food:31700,resources:coin:31700,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:134600,resources:stone:134600,resources:iron:134600,resources:food:33600,resources:coin:33600,resources:gem:10</t>
+  </si>
+  <si>
+    <t>resources:wood:142900,resources:stone:142900,resources:iron:142900,resources:food:35700,resources:coin:35700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:152100,resources:stone:152100,resources:iron:152100,resources:food:38000,resources:coin:38000,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:162300,resources:stone:162300,resources:iron:162300,resources:food:40500,resources:coin:40500,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:173400,resources:stone:173400,resources:iron:173400,resources:food:43300,resources:coin:43300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:185800,resources:stone:185800,resources:iron:185800,resources:food:46400,resources:coin:46400,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:199400,resources:stone:199400,resources:iron:199400,resources:food:49800,resources:coin:49800,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:214400,resources:stone:214400,resources:iron:214400,resources:food:53600,resources:coin:53600,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:231100,resources:stone:231100,resources:iron:231100,resources:food:57700,resources:coin:57700,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:249500,resources:stone:249500,resources:iron:249500,resources:food:62300,resources:coin:62300,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:269800,resources:stone:269800,resources:iron:269800,resources:food:67400,resources:coin:67400,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:292400,resources:stone:292400,resources:iron:292400,resources:food:73100,resources:coin:73100,resources:gem:15</t>
+  </si>
+  <si>
+    <t>resources:wood:317300,resources:stone:317300,resources:iron:317300,resources:food:79300,resources:coin:79300,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:345000,resources:stone:345000,resources:iron:345000,resources:food:86200,resources:coin:86200,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:375600,resources:stone:375600,resources:iron:375600,resources:food:93900,resources:coin:93900,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:409600,resources:stone:409600,resources:iron:409600,resources:food:102400,resources:coin:102400,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:447300,resources:stone:447300,resources:iron:447300,resources:food:111800,resources:coin:111800,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:489000,resources:stone:489000,resources:iron:489000,resources:food:122200,resources:coin:122200,resources:gem:25</t>
+  </si>
+  <si>
+    <t>resources:wood:535300,resources:stone:535300,resources:iron:535300,resources:food:133800,resources:coin:133800,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:586700,resources:stone:586700,resources:iron:586700,resources:food:146600,resources:coin:146600,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:1143700,resources:stone:1143700,resources:iron:1143700,resources:food:285900,resources:coin:285900,resources:gem:50</t>
+  </si>
+  <si>
+    <t>resources:wood:2081900,resources:stone:2081900,resources:iron:2081900,resources:food:520400,resources:coin:520400,resources:gem:100</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="346">
+  <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1052,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,7 +1421,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="346">
+  <cellStyles count="348">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1595,6 +1597,7 @@
     <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1763,6 +1766,7 @@
     <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2214,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -2874,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2913,7 +2917,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -2927,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -2941,7 +2945,7 @@
         <v>479</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2955,7 +2959,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2969,7 +2973,7 @@
         <v>839</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -2983,7 +2987,7 @@
         <v>1031</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -2997,7 +3001,7 @@
         <v>1231</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3011,7 +3015,7 @@
         <v>1439</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3025,7 +3029,7 @@
         <v>1655</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3039,7 +3043,7 @@
         <v>1879</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3053,7 +3057,7 @@
         <v>2111</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3067,7 +3071,7 @@
         <v>2351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3081,7 +3085,7 @@
         <v>2612</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3095,7 +3099,7 @@
         <v>2903</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3109,7 +3113,7 @@
         <v>3225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>3584</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3137,7 +3141,7 @@
         <v>3982</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3151,7 +3155,7 @@
         <v>4424</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -3165,7 +3169,7 @@
         <v>4916</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3183,7 @@
         <v>5462</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3193,7 +3197,7 @@
         <v>6069</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3207,7 +3211,7 @@
         <v>6743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3221,7 +3225,7 @@
         <v>7492</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3235,7 +3239,7 @@
         <v>8325</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3249,7 +3253,7 @@
         <v>9250</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3263,7 +3267,7 @@
         <v>10277</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -3277,7 +3281,7 @@
         <v>11419</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -3291,7 +3295,7 @@
         <v>12688</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -3305,7 +3309,7 @@
         <v>14098</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -3319,7 +3323,7 @@
         <v>15664</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -3333,7 +3337,7 @@
         <v>17405</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -3347,7 +3351,7 @@
         <v>19339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -3361,7 +3365,7 @@
         <v>21488</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -3375,7 +3379,7 @@
         <v>23875</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -3389,7 +3393,7 @@
         <v>26528</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -3403,7 +3407,7 @@
         <v>29475</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -3417,7 +3421,7 @@
         <v>32751</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -3431,7 +3435,7 @@
         <v>36389</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -3445,7 +3449,7 @@
         <v>40433</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -3459,7 +3463,7 @@
         <v>44925</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -3473,7 +3477,7 @@
         <v>49917</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -3487,7 +3491,7 @@
         <v>55463</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -3501,7 +3505,7 @@
         <v>61626</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -3515,7 +3519,7 @@
         <v>68473</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>76081</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -3543,7 +3547,7 @@
         <v>84535</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -3557,7 +3561,7 @@
         <v>93928</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -3571,7 +3575,7 @@
         <v>104364</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -3585,7 +3589,7 @@
         <v>115960</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -3599,7 +3603,7 @@
         <v>128844</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -3613,7 +3617,7 @@
         <v>143160</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -3627,7 +3631,7 @@
         <v>159067</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -3641,7 +3645,7 @@
         <v>176741</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -3655,7 +3659,7 @@
         <v>196379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -3669,7 +3673,7 @@
         <v>218199</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -3683,7 +3687,7 @@
         <v>242443</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -3697,7 +3701,7 @@
         <v>269382</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -3711,7 +3715,7 @@
         <v>299313</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -3725,7 +3729,7 @@
         <v>332570</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -3739,7 +3743,7 @@
         <v>369522</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -3753,7 +3757,7 @@
         <v>410580</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -3767,7 +3771,7 @@
         <v>456200</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -3781,7 +3785,7 @@
         <v>506889</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -3795,7 +3799,7 @@
         <v>563210</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -3809,7 +3813,7 @@
         <v>625789</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -3823,7 +3827,7 @@
         <v>695321</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -3837,7 +3841,7 @@
         <v>772579</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -3851,7 +3855,7 @@
         <v>858421</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -3865,7 +3869,7 @@
         <v>953801</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -3879,7 +3883,7 @@
         <v>1059779</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -3893,7 +3897,7 @@
         <v>1177532</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -3907,7 +3911,7 @@
         <v>1308369</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -3921,7 +3925,7 @@
         <v>1453743</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -3935,7 +3939,7 @@
         <v>1615270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -3949,7 +3953,7 @@
         <v>1794745</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -3963,7 +3967,7 @@
         <v>1994161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -3977,7 +3981,7 @@
         <v>2215735</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -3991,7 +3995,7 @@
         <v>2461927</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -4005,7 +4009,7 @@
         <v>2735475</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -4019,7 +4023,7 @@
         <v>3039416</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -4033,7 +4037,7 @@
         <v>3377129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -4047,7 +4051,7 @@
         <v>3752366</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -4061,7 +4065,7 @@
         <v>4169295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -4075,7 +4079,7 @@
         <v>4632550</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -4089,7 +4093,7 @@
         <v>5147278</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -4103,7 +4107,7 @@
         <v>5719198</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -4117,7 +4121,7 @@
         <v>6354665</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -4131,7 +4135,7 @@
         <v>7060738</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -4145,7 +4149,7 @@
         <v>7845265</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -4159,7 +4163,7 @@
         <v>8716961</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -4173,7 +4177,7 @@
         <v>9685512</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -4186,8 +4190,8 @@
       <c r="C93" s="1">
         <v>10761680</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>219</v>
+      <c r="D93" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -4201,7 +4205,7 @@
         <v>11957423</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -4215,7 +4219,7 @@
         <v>13286025</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -4229,7 +4233,7 @@
         <v>14762250</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -4243,7 +4247,7 @@
         <v>16402500</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -4257,7 +4261,7 @@
         <v>18225000</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -4271,7 +4275,7 @@
         <v>20250000</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -4285,7 +4289,7 @@
         <v>24500000</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -4299,17 +4303,14 @@
         <v>32500000</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="D102" s="8"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="D107" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4657,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -4668,7 +4669,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4679,7 +4680,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4690,7 +4691,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4701,7 +4702,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20" customHeight="1">

--- a/datas/shared/PlayerInitData.xlsx
+++ b/datas/shared/PlayerInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="33740" windowHeight="17320" tabRatio="616" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="880" windowWidth="33740" windowHeight="17320" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="24" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
   <si>
     <t>INT_gem</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -889,6 +889,14 @@
   </si>
   <si>
     <t>resources:wood:2081900,resources:stone:2081900,resources:iron:2081900,resources:food:520400,resources:coin:520400,resources:gem:100</t>
+  </si>
+  <si>
+    <t>quitAllianceCoolingMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出联盟冷却时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1037,7 +1045,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="348">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1052,6 +1060,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1421,7 +1431,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="348">
+  <cellStyles count="350">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1598,6 +1608,7 @@
     <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1767,6 +1778,7 @@
     <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2216,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2555,7 +2567,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>79</v>
@@ -2691,6 +2703,17 @@
       </c>
       <c r="C42" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1">
+        <v>360</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D107"/>
     </sheetView>
   </sheetViews>
